--- a/analyticWB.xlsx
+++ b/analyticWB.xlsx
@@ -487,8 +487,8 @@
       <c r="C4" t="n">
         <v>217108094</v>
       </c>
-      <c r="J4" t="n">
-        <v>2663</v>
+      <c r="E4" t="n">
+        <v>3669</v>
       </c>
     </row>
     <row r="5">
@@ -505,9 +505,9 @@
       <c r="C5" t="n">
         <v>217108094</v>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>25%</t>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>30%</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       <c r="C6" t="n">
         <v>217108094</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>19%</t>
         </is>
@@ -545,8 +545,8 @@
       <c r="C7" t="n">
         <v>217108094</v>
       </c>
-      <c r="J7" t="n">
-        <v>667</v>
+      <c r="E7" t="n">
+        <v>1083</v>
       </c>
     </row>
     <row r="8">
@@ -563,7 +563,7 @@
       <c r="C8" t="n">
         <v>217108094</v>
       </c>
-      <c r="J8" t="n">
+      <c r="E8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -581,8 +581,8 @@
       <c r="C9" t="n">
         <v>217108094</v>
       </c>
-      <c r="J9" t="n">
-        <v>16375</v>
+      <c r="E9" t="n">
+        <v>18735</v>
       </c>
     </row>
     <row r="10">
@@ -599,8 +599,8 @@
       <c r="C10" t="n">
         <v>217108094</v>
       </c>
-      <c r="J10" t="n">
-        <v>1183</v>
+      <c r="E10" t="n">
+        <v>1890</v>
       </c>
     </row>
     <row r="11">
@@ -617,8 +617,8 @@
       <c r="C11" t="n">
         <v>217108094</v>
       </c>
-      <c r="J11" t="n">
-        <v>7.22</v>
+      <c r="E11" t="n">
+        <v>10.09</v>
       </c>
     </row>
     <row r="13">
@@ -687,8 +687,8 @@
       <c r="C15" t="n">
         <v>211882526</v>
       </c>
-      <c r="J15" t="n">
-        <v>2487</v>
+      <c r="E15" t="n">
+        <v>2399</v>
       </c>
     </row>
     <row r="16">
@@ -705,9 +705,9 @@
       <c r="C16" t="n">
         <v>211882526</v>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>24%</t>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25%</t>
         </is>
       </c>
     </row>
@@ -725,9 +725,9 @@
       <c r="C17" t="n">
         <v>211882526</v>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>14%</t>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>19%</t>
         </is>
       </c>
     </row>
@@ -745,8 +745,8 @@
       <c r="C18" t="n">
         <v>211882526</v>
       </c>
-      <c r="J18" t="n">
-        <v>587</v>
+      <c r="E18" t="n">
+        <v>588</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
       <c r="C19" t="n">
         <v>211882526</v>
       </c>
-      <c r="J19" t="n">
+      <c r="E19" t="n">
         <v>260</v>
       </c>
     </row>
@@ -781,8 +781,8 @@
       <c r="C20" t="n">
         <v>211882526</v>
       </c>
-      <c r="J20" t="n">
-        <v>14020</v>
+      <c r="E20" t="n">
+        <v>4917</v>
       </c>
     </row>
     <row r="21">
@@ -799,8 +799,8 @@
       <c r="C21" t="n">
         <v>211882526</v>
       </c>
-      <c r="J21" t="n">
-        <v>903</v>
+      <c r="E21" t="n">
+        <v>310</v>
       </c>
     </row>
     <row r="22">
@@ -817,8 +817,8 @@
       <c r="C22" t="n">
         <v>211882526</v>
       </c>
-      <c r="J22" t="n">
-        <v>6.44</v>
+      <c r="E22" t="n">
+        <v>6.3</v>
       </c>
     </row>
     <row r="24">
@@ -887,8 +887,8 @@
       <c r="C26" t="n">
         <v>206765525</v>
       </c>
-      <c r="J26" t="n">
-        <v>2013</v>
+      <c r="E26" t="n">
+        <v>3298</v>
       </c>
     </row>
     <row r="27">
@@ -905,9 +905,9 @@
       <c r="C27" t="n">
         <v>206765525</v>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>11%</t>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>16%</t>
         </is>
       </c>
     </row>
@@ -925,9 +925,9 @@
       <c r="C28" t="n">
         <v>206765525</v>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>11%</t>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>16%</t>
         </is>
       </c>
     </row>
@@ -945,8 +945,8 @@
       <c r="C29" t="n">
         <v>206765525</v>
       </c>
-      <c r="J29" t="n">
-        <v>212</v>
+      <c r="E29" t="n">
+        <v>518</v>
       </c>
     </row>
     <row r="30">
@@ -963,7 +963,7 @@
       <c r="C30" t="n">
         <v>206765525</v>
       </c>
-      <c r="J30" t="n">
+      <c r="E30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -981,8 +981,8 @@
       <c r="C31" t="n">
         <v>206765525</v>
       </c>
-      <c r="J31" t="n">
-        <v>1</v>
+      <c r="E31" t="n">
+        <v>11679</v>
       </c>
     </row>
     <row r="32">
@@ -999,8 +999,8 @@
       <c r="C32" t="n">
         <v>206765525</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
+      <c r="E32" t="n">
+        <v>655</v>
       </c>
     </row>
     <row r="33">
@@ -1017,8 +1017,8 @@
       <c r="C33" t="n">
         <v>206765525</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
+      <c r="E33" t="n">
+        <v>5.61</v>
       </c>
     </row>
     <row r="35">
@@ -1087,8 +1087,8 @@
       <c r="C37" t="n">
         <v>206768287</v>
       </c>
-      <c r="J37" t="n">
-        <v>1142</v>
+      <c r="E37" t="n">
+        <v>1750</v>
       </c>
     </row>
     <row r="38">
@@ -1105,7 +1105,7 @@
       <c r="C38" t="n">
         <v>206768287</v>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>17%</t>
         </is>
@@ -1125,9 +1125,9 @@
       <c r="C39" t="n">
         <v>206768287</v>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>14%</t>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>22%</t>
         </is>
       </c>
     </row>
@@ -1145,8 +1145,8 @@
       <c r="C40" t="n">
         <v>206768287</v>
       </c>
-      <c r="J40" t="n">
-        <v>197</v>
+      <c r="E40" t="n">
+        <v>298</v>
       </c>
     </row>
     <row r="41">
@@ -1163,7 +1163,7 @@
       <c r="C41" t="n">
         <v>206768287</v>
       </c>
-      <c r="J41" t="n">
+      <c r="E41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1181,8 +1181,8 @@
       <c r="C42" t="n">
         <v>206768287</v>
       </c>
-      <c r="J42" t="n">
-        <v>5438</v>
+      <c r="E42" t="n">
+        <v>6899</v>
       </c>
     </row>
     <row r="43">
@@ -1199,8 +1199,8 @@
       <c r="C43" t="n">
         <v>206768287</v>
       </c>
-      <c r="J43" t="n">
-        <v>131</v>
+      <c r="E43" t="n">
+        <v>254</v>
       </c>
     </row>
     <row r="44">
@@ -1217,8 +1217,8 @@
       <c r="C44" t="n">
         <v>206768287</v>
       </c>
-      <c r="J44" t="n">
-        <v>2.41</v>
+      <c r="E44" t="n">
+        <v>3.68</v>
       </c>
     </row>
     <row r="46">
@@ -1287,8 +1287,8 @@
       <c r="C48" t="n">
         <v>208970763</v>
       </c>
-      <c r="J48" t="n">
-        <v>1097</v>
+      <c r="E48" t="n">
+        <v>2015</v>
       </c>
     </row>
     <row r="49">
@@ -1305,9 +1305,9 @@
       <c r="C49" t="n">
         <v>208970763</v>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>11%</t>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>23%</t>
         </is>
       </c>
     </row>
@@ -1325,9 +1325,9 @@
       <c r="C50" t="n">
         <v>208970763</v>
       </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>14%</t>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>18%</t>
         </is>
       </c>
     </row>
@@ -1345,8 +1345,8 @@
       <c r="C51" t="n">
         <v>208970763</v>
       </c>
-      <c r="J51" t="n">
-        <v>123</v>
+      <c r="E51" t="n">
+        <v>463</v>
       </c>
     </row>
     <row r="52">
@@ -1363,7 +1363,7 @@
       <c r="C52" t="n">
         <v>208970763</v>
       </c>
-      <c r="J52" t="n">
+      <c r="E52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1381,8 +1381,8 @@
       <c r="C53" t="n">
         <v>208970763</v>
       </c>
-      <c r="J53" t="n">
-        <v>7517</v>
+      <c r="E53" t="n">
+        <v>6692</v>
       </c>
     </row>
     <row r="54">
@@ -1399,8 +1399,8 @@
       <c r="C54" t="n">
         <v>208970763</v>
       </c>
-      <c r="J54" t="n">
-        <v>220</v>
+      <c r="E54" t="n">
+        <v>271</v>
       </c>
     </row>
     <row r="55">
@@ -1417,8 +1417,8 @@
       <c r="C55" t="n">
         <v>208970763</v>
       </c>
-      <c r="J55" t="n">
-        <v>2.93</v>
+      <c r="E55" t="n">
+        <v>4.05</v>
       </c>
     </row>
     <row r="57">
@@ -1487,8 +1487,8 @@
       <c r="C59" t="n">
         <v>217117687</v>
       </c>
-      <c r="J59" t="n">
-        <v>2604</v>
+      <c r="E59" t="n">
+        <v>2439</v>
       </c>
     </row>
     <row r="60">
@@ -1505,9 +1505,9 @@
       <c r="C60" t="n">
         <v>217117687</v>
       </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>20%</t>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>22%</t>
         </is>
       </c>
     </row>
@@ -1525,9 +1525,9 @@
       <c r="C61" t="n">
         <v>217117687</v>
       </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>18%</t>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>15%</t>
         </is>
       </c>
     </row>
@@ -1545,8 +1545,8 @@
       <c r="C62" t="n">
         <v>217117687</v>
       </c>
-      <c r="J62" t="n">
-        <v>524</v>
+      <c r="E62" t="n">
+        <v>548</v>
       </c>
     </row>
     <row r="63">
@@ -1563,7 +1563,7 @@
       <c r="C63" t="n">
         <v>217117687</v>
       </c>
-      <c r="J63" t="n">
+      <c r="E63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1581,8 +1581,8 @@
       <c r="C64" t="n">
         <v>217117687</v>
       </c>
-      <c r="J64" t="n">
-        <v>11211</v>
+      <c r="E64" t="n">
+        <v>15197</v>
       </c>
     </row>
     <row r="65">
@@ -1599,8 +1599,8 @@
       <c r="C65" t="n">
         <v>217117687</v>
       </c>
-      <c r="J65" t="n">
-        <v>1310</v>
+      <c r="E65" t="n">
+        <v>1509</v>
       </c>
     </row>
     <row r="66">
@@ -1617,8 +1617,8 @@
       <c r="C66" t="n">
         <v>217117687</v>
       </c>
-      <c r="J66" t="n">
-        <v>11.68</v>
+      <c r="E66" t="n">
+        <v>9.93</v>
       </c>
     </row>
     <row r="68">
@@ -1687,8 +1687,8 @@
       <c r="C70" t="n">
         <v>202961290</v>
       </c>
-      <c r="J70" t="n">
-        <v>605</v>
+      <c r="E70" t="n">
+        <v>866</v>
       </c>
     </row>
     <row r="71">
@@ -1705,9 +1705,9 @@
       <c r="C71" t="n">
         <v>202961290</v>
       </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>14%</t>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>19%</t>
         </is>
       </c>
     </row>
@@ -1725,9 +1725,9 @@
       <c r="C72" t="n">
         <v>202961290</v>
       </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>25%</t>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>21%</t>
         </is>
       </c>
     </row>
@@ -1745,8 +1745,8 @@
       <c r="C73" t="n">
         <v>202961290</v>
       </c>
-      <c r="J73" t="n">
-        <v>85</v>
+      <c r="E73" t="n">
+        <v>165</v>
       </c>
     </row>
     <row r="74">
@@ -1763,7 +1763,7 @@
       <c r="C74" t="n">
         <v>202961290</v>
       </c>
-      <c r="J74" t="n">
+      <c r="E74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1781,8 +1781,8 @@
       <c r="C75" t="n">
         <v>202961290</v>
       </c>
-      <c r="J75" t="n">
-        <v>7789</v>
+      <c r="E75" t="n">
+        <v>12868</v>
       </c>
     </row>
     <row r="76">
@@ -1799,8 +1799,8 @@
       <c r="C76" t="n">
         <v>202961290</v>
       </c>
-      <c r="J76" t="n">
-        <v>126</v>
+      <c r="E76" t="n">
+        <v>343</v>
       </c>
     </row>
     <row r="77">
@@ -1817,8 +1817,8 @@
       <c r="C77" t="n">
         <v>202961290</v>
       </c>
-      <c r="J77" t="n">
-        <v>1.62</v>
+      <c r="E77" t="n">
+        <v>2.67</v>
       </c>
     </row>
     <row r="79">
@@ -1887,8 +1887,8 @@
       <c r="C81" t="n">
         <v>217110298</v>
       </c>
-      <c r="J81" t="n">
-        <v>1833</v>
+      <c r="E81" t="n">
+        <v>505</v>
       </c>
     </row>
     <row r="82">
@@ -1905,9 +1905,9 @@
       <c r="C82" t="n">
         <v>217110298</v>
       </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>22%</t>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>19%</t>
         </is>
       </c>
     </row>
@@ -1925,9 +1925,9 @@
       <c r="C83" t="n">
         <v>217110298</v>
       </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>17%</t>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>20%</t>
         </is>
       </c>
     </row>
@@ -1945,8 +1945,8 @@
       <c r="C84" t="n">
         <v>217110298</v>
       </c>
-      <c r="J84" t="n">
-        <v>403</v>
+      <c r="E84" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="85">
@@ -1963,7 +1963,7 @@
       <c r="C85" t="n">
         <v>217110298</v>
       </c>
-      <c r="J85" t="n">
+      <c r="E85" t="n">
         <v>469</v>
       </c>
     </row>
@@ -1981,8 +1981,8 @@
       <c r="C86" t="n">
         <v>217110298</v>
       </c>
-      <c r="J86" t="n">
-        <v>15795</v>
+      <c r="E86" t="n">
+        <v>7005</v>
       </c>
     </row>
     <row r="87">
@@ -1999,8 +1999,8 @@
       <c r="C87" t="n">
         <v>217110298</v>
       </c>
-      <c r="J87" t="n">
-        <v>1319</v>
+      <c r="E87" t="n">
+        <v>327</v>
       </c>
     </row>
     <row r="88">
@@ -2017,8 +2017,8 @@
       <c r="C88" t="n">
         <v>217110298</v>
       </c>
-      <c r="J88" t="n">
-        <v>8.35</v>
+      <c r="E88" t="n">
+        <v>4.67</v>
       </c>
     </row>
     <row r="90">
@@ -2087,8 +2087,8 @@
       <c r="C92" t="n">
         <v>217112798</v>
       </c>
-      <c r="J92" t="n">
-        <v>1019</v>
+      <c r="E92" t="n">
+        <v>391</v>
       </c>
     </row>
     <row r="93">
@@ -2105,9 +2105,9 @@
       <c r="C93" t="n">
         <v>217112798</v>
       </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>25%</t>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>31%</t>
         </is>
       </c>
     </row>
@@ -2125,9 +2125,9 @@
       <c r="C94" t="n">
         <v>217112798</v>
       </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>20%</t>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>9%</t>
         </is>
       </c>
     </row>
@@ -2145,8 +2145,8 @@
       <c r="C95" t="n">
         <v>217112798</v>
       </c>
-      <c r="J95" t="n">
-        <v>251</v>
+      <c r="E95" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="96">
@@ -2163,7 +2163,7 @@
       <c r="C96" t="n">
         <v>217112798</v>
       </c>
-      <c r="J96" t="n">
+      <c r="E96" t="n">
         <v>200</v>
       </c>
     </row>
@@ -2181,8 +2181,8 @@
       <c r="C97" t="n">
         <v>217112798</v>
       </c>
-      <c r="J97" t="n">
-        <v>11367</v>
+      <c r="E97" t="n">
+        <v>6980</v>
       </c>
     </row>
     <row r="98">
@@ -2199,8 +2199,8 @@
       <c r="C98" t="n">
         <v>217112798</v>
       </c>
-      <c r="J98" t="n">
-        <v>438</v>
+      <c r="E98" t="n">
+        <v>254</v>
       </c>
     </row>
     <row r="99">
@@ -2217,8 +2217,8 @@
       <c r="C99" t="n">
         <v>217112798</v>
       </c>
-      <c r="J99" t="n">
-        <v>3.85</v>
+      <c r="E99" t="n">
+        <v>3.64</v>
       </c>
     </row>
     <row r="101">
@@ -2287,8 +2287,8 @@
       <c r="C103" t="n">
         <v>185085851</v>
       </c>
-      <c r="J103" t="n">
-        <v>373</v>
+      <c r="E103" t="n">
+        <v>336</v>
       </c>
     </row>
     <row r="104">
@@ -2305,9 +2305,9 @@
       <c r="C104" t="n">
         <v>185085851</v>
       </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>12%</t>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>11%</t>
         </is>
       </c>
     </row>
@@ -2325,9 +2325,9 @@
       <c r="C105" t="n">
         <v>185085851</v>
       </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>14%</t>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>28%</t>
         </is>
       </c>
     </row>
@@ -2345,8 +2345,8 @@
       <c r="C106" t="n">
         <v>185085851</v>
       </c>
-      <c r="J106" t="n">
-        <v>43</v>
+      <c r="E106" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="107">
@@ -2363,7 +2363,7 @@
       <c r="C107" t="n">
         <v>185085851</v>
       </c>
-      <c r="J107" t="n">
+      <c r="E107" t="n">
         <v>158</v>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
       <c r="C108" t="n">
         <v>185085851</v>
       </c>
-      <c r="J108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2401,7 +2401,7 @@
       <c r="C109" t="n">
         <v>185085851</v>
       </c>
-      <c r="J109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2421,7 +2421,7 @@
       <c r="C110" t="n">
         <v>185085851</v>
       </c>
-      <c r="J110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2493,8 +2493,8 @@
       <c r="C114" t="n">
         <v>196145760</v>
       </c>
-      <c r="J114" t="n">
-        <v>198</v>
+      <c r="E114" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="115">
@@ -2511,9 +2511,9 @@
       <c r="C115" t="n">
         <v>196145760</v>
       </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>10%</t>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>15%</t>
         </is>
       </c>
     </row>
@@ -2531,9 +2531,9 @@
       <c r="C116" t="n">
         <v>196145760</v>
       </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>5%</t>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>7%</t>
         </is>
       </c>
     </row>
@@ -2551,8 +2551,8 @@
       <c r="C117" t="n">
         <v>196145760</v>
       </c>
-      <c r="J117" t="n">
-        <v>20</v>
+      <c r="E117" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="118">
@@ -2569,7 +2569,7 @@
       <c r="C118" t="n">
         <v>196145760</v>
       </c>
-      <c r="J118" t="n">
+      <c r="E118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2587,10 +2587,8 @@
       <c r="C119" t="n">
         <v>196145760</v>
       </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E119" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="120">
@@ -2607,10 +2605,8 @@
       <c r="C120" t="n">
         <v>196145760</v>
       </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E120" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -2627,10 +2623,8 @@
       <c r="C121" t="n">
         <v>196145760</v>
       </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E121" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -2699,8 +2693,8 @@
       <c r="C125" t="n">
         <v>198152468</v>
       </c>
-      <c r="J125" t="n">
-        <v>194</v>
+      <c r="E125" t="n">
+        <v>258</v>
       </c>
     </row>
     <row r="126">
@@ -2717,9 +2711,9 @@
       <c r="C126" t="n">
         <v>198152468</v>
       </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>9%</t>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>4%</t>
         </is>
       </c>
     </row>
@@ -2737,7 +2731,7 @@
       <c r="C127" t="n">
         <v>198152468</v>
       </c>
-      <c r="J127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>18%</t>
         </is>
@@ -2757,8 +2751,8 @@
       <c r="C128" t="n">
         <v>198152468</v>
       </c>
-      <c r="J128" t="n">
-        <v>17</v>
+      <c r="E128" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="129">
@@ -2775,7 +2769,7 @@
       <c r="C129" t="n">
         <v>198152468</v>
       </c>
-      <c r="J129" t="n">
+      <c r="E129" t="n">
         <v>1079</v>
       </c>
     </row>
@@ -2793,7 +2787,7 @@
       <c r="C130" t="n">
         <v>198152468</v>
       </c>
-      <c r="J130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2813,7 +2807,7 @@
       <c r="C131" t="n">
         <v>198152468</v>
       </c>
-      <c r="J131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2833,7 +2827,7 @@
       <c r="C132" t="n">
         <v>198152468</v>
       </c>
-      <c r="J132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2905,8 +2899,8 @@
       <c r="C136" t="n">
         <v>172885021</v>
       </c>
-      <c r="J136" t="n">
-        <v>1</v>
+      <c r="E136" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="137">
@@ -2923,9 +2917,9 @@
       <c r="C137" t="n">
         <v>172885021</v>
       </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>0%</t>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>12%</t>
         </is>
       </c>
     </row>
@@ -2943,9 +2937,9 @@
       <c r="C138" t="n">
         <v>172885021</v>
       </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>0%</t>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>67%</t>
         </is>
       </c>
     </row>
@@ -2963,8 +2957,8 @@
       <c r="C139" t="n">
         <v>172885021</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
+      <c r="E139" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="140">
@@ -2981,7 +2975,7 @@
       <c r="C140" t="n">
         <v>172885021</v>
       </c>
-      <c r="J140" t="n">
+      <c r="E140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2999,7 +2993,7 @@
       <c r="C141" t="n">
         <v>172885021</v>
       </c>
-      <c r="J141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3019,7 +3013,7 @@
       <c r="C142" t="n">
         <v>172885021</v>
       </c>
-      <c r="J142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3039,7 +3033,7 @@
       <c r="C143" t="n">
         <v>172885021</v>
       </c>
-      <c r="J143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3111,8 +3105,8 @@
       <c r="C147" t="n">
         <v>196148405</v>
       </c>
-      <c r="J147" t="n">
-        <v>78</v>
+      <c r="E147" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="148">
@@ -3129,9 +3123,9 @@
       <c r="C148" t="n">
         <v>196148405</v>
       </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>4%</t>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>5%</t>
         </is>
       </c>
     </row>
@@ -3149,9 +3143,9 @@
       <c r="C149" t="n">
         <v>196148405</v>
       </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>0%</t>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>14%</t>
         </is>
       </c>
     </row>
@@ -3169,8 +3163,8 @@
       <c r="C150" t="n">
         <v>196148405</v>
       </c>
-      <c r="J150" t="n">
-        <v>3</v>
+      <c r="E150" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="151">
@@ -3187,7 +3181,7 @@
       <c r="C151" t="n">
         <v>196148405</v>
       </c>
-      <c r="J151" t="n">
+      <c r="E151" t="n">
         <v>285</v>
       </c>
     </row>
@@ -3205,7 +3199,7 @@
       <c r="C152" t="n">
         <v>196148405</v>
       </c>
-      <c r="J152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3225,7 +3219,7 @@
       <c r="C153" t="n">
         <v>196148405</v>
       </c>
-      <c r="J153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3245,7 +3239,7 @@
       <c r="C154" t="n">
         <v>196148405</v>
       </c>
-      <c r="J154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3317,8 +3311,8 @@
       <c r="C158" t="n">
         <v>178622229</v>
       </c>
-      <c r="J158" t="n">
-        <v>2</v>
+      <c r="E158" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="159">
@@ -3335,7 +3329,7 @@
       <c r="C159" t="n">
         <v>178622229</v>
       </c>
-      <c r="J159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -3355,7 +3349,7 @@
       <c r="C160" t="n">
         <v>178622229</v>
       </c>
-      <c r="J160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -3375,7 +3369,7 @@
       <c r="C161" t="n">
         <v>178622229</v>
       </c>
-      <c r="J161" t="n">
+      <c r="E161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3393,7 +3387,7 @@
       <c r="C162" t="n">
         <v>178622229</v>
       </c>
-      <c r="J162" t="n">
+      <c r="E162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3411,7 +3405,7 @@
       <c r="C163" t="n">
         <v>178622229</v>
       </c>
-      <c r="J163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3431,7 +3425,7 @@
       <c r="C164" t="n">
         <v>178622229</v>
       </c>
-      <c r="J164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3451,7 +3445,7 @@
       <c r="C165" t="n">
         <v>178622229</v>
       </c>
-      <c r="J165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3523,8 +3517,8 @@
       <c r="C169" t="n">
         <v>178999385</v>
       </c>
-      <c r="J169" t="n">
-        <v>2</v>
+      <c r="E169" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="170">
@@ -3541,9 +3535,9 @@
       <c r="C170" t="n">
         <v>178999385</v>
       </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>0%</t>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>10%</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3555,7 @@
       <c r="C171" t="n">
         <v>178999385</v>
       </c>
-      <c r="J171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -3581,8 +3575,8 @@
       <c r="C172" t="n">
         <v>178999385</v>
       </c>
-      <c r="J172" t="n">
-        <v>0</v>
+      <c r="E172" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -3599,7 +3593,7 @@
       <c r="C173" t="n">
         <v>178999385</v>
       </c>
-      <c r="J173" t="n">
+      <c r="E173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3617,7 +3611,7 @@
       <c r="C174" t="n">
         <v>178999385</v>
       </c>
-      <c r="J174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3637,7 +3631,7 @@
       <c r="C175" t="n">
         <v>178999385</v>
       </c>
-      <c r="J175" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3657,7 +3651,7 @@
       <c r="C176" t="n">
         <v>178999385</v>
       </c>
-      <c r="J176" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3729,8 +3723,8 @@
       <c r="C180" t="n">
         <v>179104477</v>
       </c>
-      <c r="J180" t="n">
-        <v>1</v>
+      <c r="E180" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="181">
@@ -3747,9 +3741,9 @@
       <c r="C181" t="n">
         <v>179104477</v>
       </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>0%</t>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>17%</t>
         </is>
       </c>
     </row>
@@ -3767,9 +3761,9 @@
       <c r="C182" t="n">
         <v>179104477</v>
       </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>0%</t>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
@@ -3787,8 +3781,8 @@
       <c r="C183" t="n">
         <v>179104477</v>
       </c>
-      <c r="J183" t="n">
-        <v>0</v>
+      <c r="E183" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -3805,7 +3799,7 @@
       <c r="C184" t="n">
         <v>179104477</v>
       </c>
-      <c r="J184" t="n">
+      <c r="E184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3823,7 +3817,7 @@
       <c r="C185" t="n">
         <v>179104477</v>
       </c>
-      <c r="J185" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3843,7 +3837,7 @@
       <c r="C186" t="n">
         <v>179104477</v>
       </c>
-      <c r="J186" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3863,7 +3857,7 @@
       <c r="C187" t="n">
         <v>179104477</v>
       </c>
-      <c r="J187" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3935,8 +3929,8 @@
       <c r="C191" t="n">
         <v>168086809</v>
       </c>
-      <c r="J191" t="n">
-        <v>7</v>
+      <c r="E191" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="192">
@@ -3953,9 +3947,9 @@
       <c r="C192" t="n">
         <v>168086809</v>
       </c>
-      <c r="J192" t="inlineStr">
-        <is>
-          <t>0%</t>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>13%</t>
         </is>
       </c>
     </row>
@@ -3973,9 +3967,9 @@
       <c r="C193" t="n">
         <v>168086809</v>
       </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>0%</t>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
@@ -3993,8 +3987,8 @@
       <c r="C194" t="n">
         <v>168086809</v>
       </c>
-      <c r="J194" t="n">
-        <v>0</v>
+      <c r="E194" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -4011,7 +4005,7 @@
       <c r="C195" t="n">
         <v>168086809</v>
       </c>
-      <c r="J195" t="n">
+      <c r="E195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4029,7 +4023,7 @@
       <c r="C196" t="n">
         <v>168086809</v>
       </c>
-      <c r="J196" t="inlineStr">
+      <c r="E196" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4049,7 +4043,7 @@
       <c r="C197" t="n">
         <v>168086809</v>
       </c>
-      <c r="J197" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4069,7 +4063,7 @@
       <c r="C198" t="n">
         <v>168086809</v>
       </c>
-      <c r="J198" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4141,8 +4135,8 @@
       <c r="C202" t="n">
         <v>90113919</v>
       </c>
-      <c r="J202" t="n">
-        <v>0</v>
+      <c r="E202" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -4159,7 +4153,7 @@
       <c r="C203" t="n">
         <v>90113919</v>
       </c>
-      <c r="J203" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -4179,7 +4173,7 @@
       <c r="C204" t="n">
         <v>90113919</v>
       </c>
-      <c r="J204" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -4199,7 +4193,7 @@
       <c r="C205" t="n">
         <v>90113919</v>
       </c>
-      <c r="J205" t="n">
+      <c r="E205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4217,7 +4211,7 @@
       <c r="C206" t="n">
         <v>90113919</v>
       </c>
-      <c r="J206" t="n">
+      <c r="E206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4235,7 +4229,7 @@
       <c r="C207" t="n">
         <v>90113919</v>
       </c>
-      <c r="J207" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4255,7 +4249,7 @@
       <c r="C208" t="n">
         <v>90113919</v>
       </c>
-      <c r="J208" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4275,7 +4269,7 @@
       <c r="C209" t="n">
         <v>90113919</v>
       </c>
-      <c r="J209" t="inlineStr">
+      <c r="E209" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4347,7 +4341,7 @@
       <c r="C213" t="n">
         <v>90113945</v>
       </c>
-      <c r="J213" t="n">
+      <c r="E213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4365,7 +4359,7 @@
       <c r="C214" t="n">
         <v>90113945</v>
       </c>
-      <c r="J214" t="inlineStr">
+      <c r="E214" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -4385,7 +4379,7 @@
       <c r="C215" t="n">
         <v>90113945</v>
       </c>
-      <c r="J215" t="inlineStr">
+      <c r="E215" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -4405,7 +4399,7 @@
       <c r="C216" t="n">
         <v>90113945</v>
       </c>
-      <c r="J216" t="n">
+      <c r="E216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4423,7 +4417,7 @@
       <c r="C217" t="n">
         <v>90113945</v>
       </c>
-      <c r="J217" t="n">
+      <c r="E217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4441,7 +4435,7 @@
       <c r="C218" t="n">
         <v>90113945</v>
       </c>
-      <c r="J218" t="inlineStr">
+      <c r="E218" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4461,7 +4455,7 @@
       <c r="C219" t="n">
         <v>90113945</v>
       </c>
-      <c r="J219" t="inlineStr">
+      <c r="E219" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4481,7 +4475,7 @@
       <c r="C220" t="n">
         <v>90113945</v>
       </c>
-      <c r="J220" t="inlineStr">
+      <c r="E220" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4553,7 +4547,7 @@
       <c r="C224" t="n">
         <v>90113961</v>
       </c>
-      <c r="J224" t="n">
+      <c r="E224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4571,7 +4565,7 @@
       <c r="C225" t="n">
         <v>90113961</v>
       </c>
-      <c r="J225" t="inlineStr">
+      <c r="E225" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -4591,7 +4585,7 @@
       <c r="C226" t="n">
         <v>90113961</v>
       </c>
-      <c r="J226" t="inlineStr">
+      <c r="E226" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -4611,7 +4605,7 @@
       <c r="C227" t="n">
         <v>90113961</v>
       </c>
-      <c r="J227" t="n">
+      <c r="E227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4629,7 +4623,7 @@
       <c r="C228" t="n">
         <v>90113961</v>
       </c>
-      <c r="J228" t="n">
+      <c r="E228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4647,7 +4641,7 @@
       <c r="C229" t="n">
         <v>90113961</v>
       </c>
-      <c r="J229" t="inlineStr">
+      <c r="E229" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4667,7 +4661,7 @@
       <c r="C230" t="n">
         <v>90113961</v>
       </c>
-      <c r="J230" t="inlineStr">
+      <c r="E230" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4687,7 +4681,7 @@
       <c r="C231" t="n">
         <v>90113961</v>
       </c>
-      <c r="J231" t="inlineStr">
+      <c r="E231" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4759,8 +4753,8 @@
       <c r="C235" t="n">
         <v>94573200</v>
       </c>
-      <c r="J235" t="n">
-        <v>0</v>
+      <c r="E235" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="236">
@@ -4777,7 +4771,7 @@
       <c r="C236" t="n">
         <v>94573200</v>
       </c>
-      <c r="J236" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -4797,7 +4791,7 @@
       <c r="C237" t="n">
         <v>94573200</v>
       </c>
-      <c r="J237" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -4817,7 +4811,7 @@
       <c r="C238" t="n">
         <v>94573200</v>
       </c>
-      <c r="J238" t="n">
+      <c r="E238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4835,7 +4829,7 @@
       <c r="C239" t="n">
         <v>94573200</v>
       </c>
-      <c r="J239" t="n">
+      <c r="E239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4853,7 +4847,7 @@
       <c r="C240" t="n">
         <v>94573200</v>
       </c>
-      <c r="J240" t="inlineStr">
+      <c r="E240" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4873,7 +4867,7 @@
       <c r="C241" t="n">
         <v>94573200</v>
       </c>
-      <c r="J241" t="inlineStr">
+      <c r="E241" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4893,7 +4887,7 @@
       <c r="C242" t="n">
         <v>94573200</v>
       </c>
-      <c r="J242" t="inlineStr">
+      <c r="E242" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4965,8 +4959,8 @@
       <c r="C246" t="n">
         <v>139347889</v>
       </c>
-      <c r="J246" t="n">
-        <v>0</v>
+      <c r="E246" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -4983,7 +4977,7 @@
       <c r="C247" t="n">
         <v>139347889</v>
       </c>
-      <c r="J247" t="inlineStr">
+      <c r="E247" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -5003,7 +4997,7 @@
       <c r="C248" t="n">
         <v>139347889</v>
       </c>
-      <c r="J248" t="inlineStr">
+      <c r="E248" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -5023,7 +5017,7 @@
       <c r="C249" t="n">
         <v>139347889</v>
       </c>
-      <c r="J249" t="n">
+      <c r="E249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5041,7 +5035,7 @@
       <c r="C250" t="n">
         <v>139347889</v>
       </c>
-      <c r="J250" t="n">
+      <c r="E250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5059,7 +5053,7 @@
       <c r="C251" t="n">
         <v>139347889</v>
       </c>
-      <c r="J251" t="inlineStr">
+      <c r="E251" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5079,7 +5073,7 @@
       <c r="C252" t="n">
         <v>139347889</v>
       </c>
-      <c r="J252" t="inlineStr">
+      <c r="E252" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5099,7 +5093,7 @@
       <c r="C253" t="n">
         <v>139347889</v>
       </c>
-      <c r="J253" t="inlineStr">
+      <c r="E253" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5171,8 +5165,8 @@
       <c r="C257" t="n">
         <v>139409831</v>
       </c>
-      <c r="J257" t="n">
-        <v>22</v>
+      <c r="E257" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="258">
@@ -5189,7 +5183,7 @@
       <c r="C258" t="n">
         <v>139409831</v>
       </c>
-      <c r="J258" t="inlineStr">
+      <c r="E258" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -5209,7 +5203,7 @@
       <c r="C259" t="n">
         <v>139409831</v>
       </c>
-      <c r="J259" t="inlineStr">
+      <c r="E259" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -5229,7 +5223,7 @@
       <c r="C260" t="n">
         <v>139409831</v>
       </c>
-      <c r="J260" t="n">
+      <c r="E260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5247,7 +5241,7 @@
       <c r="C261" t="n">
         <v>139409831</v>
       </c>
-      <c r="J261" t="n">
+      <c r="E261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5265,7 +5259,7 @@
       <c r="C262" t="n">
         <v>139409831</v>
       </c>
-      <c r="J262" t="inlineStr">
+      <c r="E262" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5285,7 +5279,7 @@
       <c r="C263" t="n">
         <v>139409831</v>
       </c>
-      <c r="J263" t="inlineStr">
+      <c r="E263" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5305,7 +5299,7 @@
       <c r="C264" t="n">
         <v>139409831</v>
       </c>
-      <c r="J264" t="inlineStr">
+      <c r="E264" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5377,7 +5371,7 @@
       <c r="C268" t="n">
         <v>143277881</v>
       </c>
-      <c r="J268" t="n">
+      <c r="E268" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5395,7 +5389,7 @@
       <c r="C269" t="n">
         <v>143277881</v>
       </c>
-      <c r="J269" t="inlineStr">
+      <c r="E269" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -5415,7 +5409,7 @@
       <c r="C270" t="n">
         <v>143277881</v>
       </c>
-      <c r="J270" t="inlineStr">
+      <c r="E270" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -5435,7 +5429,7 @@
       <c r="C271" t="n">
         <v>143277881</v>
       </c>
-      <c r="J271" t="n">
+      <c r="E271" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5453,7 +5447,7 @@
       <c r="C272" t="n">
         <v>143277881</v>
       </c>
-      <c r="J272" t="n">
+      <c r="E272" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5471,7 +5465,7 @@
       <c r="C273" t="n">
         <v>143277881</v>
       </c>
-      <c r="J273" t="inlineStr">
+      <c r="E273" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5491,7 +5485,7 @@
       <c r="C274" t="n">
         <v>143277881</v>
       </c>
-      <c r="J274" t="inlineStr">
+      <c r="E274" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5511,7 +5505,7 @@
       <c r="C275" t="n">
         <v>143277881</v>
       </c>
-      <c r="J275" t="inlineStr">
+      <c r="E275" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5583,7 +5577,7 @@
       <c r="C279" t="n">
         <v>143277882</v>
       </c>
-      <c r="J279" t="n">
+      <c r="E279" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5601,7 +5595,7 @@
       <c r="C280" t="n">
         <v>143277882</v>
       </c>
-      <c r="J280" t="inlineStr">
+      <c r="E280" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -5621,7 +5615,7 @@
       <c r="C281" t="n">
         <v>143277882</v>
       </c>
-      <c r="J281" t="inlineStr">
+      <c r="E281" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -5641,7 +5635,7 @@
       <c r="C282" t="n">
         <v>143277882</v>
       </c>
-      <c r="J282" t="n">
+      <c r="E282" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5659,7 +5653,7 @@
       <c r="C283" t="n">
         <v>143277882</v>
       </c>
-      <c r="J283" t="n">
+      <c r="E283" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5677,7 +5671,7 @@
       <c r="C284" t="n">
         <v>143277882</v>
       </c>
-      <c r="J284" t="inlineStr">
+      <c r="E284" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5697,7 +5691,7 @@
       <c r="C285" t="n">
         <v>143277882</v>
       </c>
-      <c r="J285" t="inlineStr">
+      <c r="E285" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5717,7 +5711,7 @@
       <c r="C286" t="n">
         <v>143277882</v>
       </c>
-      <c r="J286" t="inlineStr">
+      <c r="E286" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5789,7 +5783,7 @@
       <c r="C290" t="n">
         <v>143277883</v>
       </c>
-      <c r="J290" t="n">
+      <c r="E290" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5807,7 +5801,7 @@
       <c r="C291" t="n">
         <v>143277883</v>
       </c>
-      <c r="J291" t="inlineStr">
+      <c r="E291" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -5827,7 +5821,7 @@
       <c r="C292" t="n">
         <v>143277883</v>
       </c>
-      <c r="J292" t="inlineStr">
+      <c r="E292" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -5847,7 +5841,7 @@
       <c r="C293" t="n">
         <v>143277883</v>
       </c>
-      <c r="J293" t="n">
+      <c r="E293" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5865,7 +5859,7 @@
       <c r="C294" t="n">
         <v>143277883</v>
       </c>
-      <c r="J294" t="n">
+      <c r="E294" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5883,7 +5877,7 @@
       <c r="C295" t="n">
         <v>143277883</v>
       </c>
-      <c r="J295" t="inlineStr">
+      <c r="E295" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5903,7 +5897,7 @@
       <c r="C296" t="n">
         <v>143277883</v>
       </c>
-      <c r="J296" t="inlineStr">
+      <c r="E296" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5923,7 +5917,7 @@
       <c r="C297" t="n">
         <v>143277883</v>
       </c>
-      <c r="J297" t="inlineStr">
+      <c r="E297" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5995,7 +5989,7 @@
       <c r="C301" t="n">
         <v>143277884</v>
       </c>
-      <c r="J301" t="n">
+      <c r="E301" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6013,7 +6007,7 @@
       <c r="C302" t="n">
         <v>143277884</v>
       </c>
-      <c r="J302" t="inlineStr">
+      <c r="E302" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -6033,7 +6027,7 @@
       <c r="C303" t="n">
         <v>143277884</v>
       </c>
-      <c r="J303" t="inlineStr">
+      <c r="E303" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -6053,7 +6047,7 @@
       <c r="C304" t="n">
         <v>143277884</v>
       </c>
-      <c r="J304" t="n">
+      <c r="E304" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6071,7 +6065,7 @@
       <c r="C305" t="n">
         <v>143277884</v>
       </c>
-      <c r="J305" t="n">
+      <c r="E305" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6089,7 +6083,7 @@
       <c r="C306" t="n">
         <v>143277884</v>
       </c>
-      <c r="J306" t="inlineStr">
+      <c r="E306" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6109,7 +6103,7 @@
       <c r="C307" t="n">
         <v>143277884</v>
       </c>
-      <c r="J307" t="inlineStr">
+      <c r="E307" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6129,7 +6123,7 @@
       <c r="C308" t="n">
         <v>143277884</v>
       </c>
-      <c r="J308" t="inlineStr">
+      <c r="E308" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6201,7 +6195,7 @@
       <c r="C312" t="n">
         <v>143277885</v>
       </c>
-      <c r="J312" t="n">
+      <c r="E312" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6219,7 +6213,7 @@
       <c r="C313" t="n">
         <v>143277885</v>
       </c>
-      <c r="J313" t="inlineStr">
+      <c r="E313" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -6239,7 +6233,7 @@
       <c r="C314" t="n">
         <v>143277885</v>
       </c>
-      <c r="J314" t="inlineStr">
+      <c r="E314" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -6259,7 +6253,7 @@
       <c r="C315" t="n">
         <v>143277885</v>
       </c>
-      <c r="J315" t="n">
+      <c r="E315" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6277,7 +6271,7 @@
       <c r="C316" t="n">
         <v>143277885</v>
       </c>
-      <c r="J316" t="n">
+      <c r="E316" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6295,7 +6289,7 @@
       <c r="C317" t="n">
         <v>143277885</v>
       </c>
-      <c r="J317" t="inlineStr">
+      <c r="E317" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6315,7 +6309,7 @@
       <c r="C318" t="n">
         <v>143277885</v>
       </c>
-      <c r="J318" t="inlineStr">
+      <c r="E318" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6335,7 +6329,7 @@
       <c r="C319" t="n">
         <v>143277885</v>
       </c>
-      <c r="J319" t="inlineStr">
+      <c r="E319" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6407,7 +6401,7 @@
       <c r="C323" t="n">
         <v>143277896</v>
       </c>
-      <c r="J323" t="n">
+      <c r="E323" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6425,7 +6419,7 @@
       <c r="C324" t="n">
         <v>143277896</v>
       </c>
-      <c r="J324" t="inlineStr">
+      <c r="E324" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -6445,7 +6439,7 @@
       <c r="C325" t="n">
         <v>143277896</v>
       </c>
-      <c r="J325" t="inlineStr">
+      <c r="E325" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -6465,7 +6459,7 @@
       <c r="C326" t="n">
         <v>143277896</v>
       </c>
-      <c r="J326" t="n">
+      <c r="E326" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6483,7 +6477,7 @@
       <c r="C327" t="n">
         <v>143277896</v>
       </c>
-      <c r="J327" t="n">
+      <c r="E327" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6501,7 +6495,7 @@
       <c r="C328" t="n">
         <v>143277896</v>
       </c>
-      <c r="J328" t="inlineStr">
+      <c r="E328" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6521,7 +6515,7 @@
       <c r="C329" t="n">
         <v>143277896</v>
       </c>
-      <c r="J329" t="inlineStr">
+      <c r="E329" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6541,7 +6535,7 @@
       <c r="C330" t="n">
         <v>143277896</v>
       </c>
-      <c r="J330" t="inlineStr">
+      <c r="E330" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6613,7 +6607,7 @@
       <c r="C334" t="n">
         <v>145113216</v>
       </c>
-      <c r="J334" t="n">
+      <c r="E334" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6631,7 +6625,7 @@
       <c r="C335" t="n">
         <v>145113216</v>
       </c>
-      <c r="J335" t="inlineStr">
+      <c r="E335" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -6651,7 +6645,7 @@
       <c r="C336" t="n">
         <v>145113216</v>
       </c>
-      <c r="J336" t="inlineStr">
+      <c r="E336" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -6671,7 +6665,7 @@
       <c r="C337" t="n">
         <v>145113216</v>
       </c>
-      <c r="J337" t="n">
+      <c r="E337" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6689,7 +6683,7 @@
       <c r="C338" t="n">
         <v>145113216</v>
       </c>
-      <c r="J338" t="n">
+      <c r="E338" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6707,7 +6701,7 @@
       <c r="C339" t="n">
         <v>145113216</v>
       </c>
-      <c r="J339" t="inlineStr">
+      <c r="E339" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6727,7 +6721,7 @@
       <c r="C340" t="n">
         <v>145113216</v>
       </c>
-      <c r="J340" t="inlineStr">
+      <c r="E340" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6747,7 +6741,7 @@
       <c r="C341" t="n">
         <v>145113216</v>
       </c>
-      <c r="J341" t="inlineStr">
+      <c r="E341" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6819,7 +6813,7 @@
       <c r="C345" t="n">
         <v>145113220</v>
       </c>
-      <c r="J345" t="n">
+      <c r="E345" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6837,7 +6831,7 @@
       <c r="C346" t="n">
         <v>145113220</v>
       </c>
-      <c r="J346" t="inlineStr">
+      <c r="E346" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -6857,7 +6851,7 @@
       <c r="C347" t="n">
         <v>145113220</v>
       </c>
-      <c r="J347" t="inlineStr">
+      <c r="E347" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -6877,7 +6871,7 @@
       <c r="C348" t="n">
         <v>145113220</v>
       </c>
-      <c r="J348" t="n">
+      <c r="E348" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6895,7 +6889,7 @@
       <c r="C349" t="n">
         <v>145113220</v>
       </c>
-      <c r="J349" t="n">
+      <c r="E349" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6913,7 +6907,7 @@
       <c r="C350" t="n">
         <v>145113220</v>
       </c>
-      <c r="J350" t="inlineStr">
+      <c r="E350" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6933,7 +6927,7 @@
       <c r="C351" t="n">
         <v>145113220</v>
       </c>
-      <c r="J351" t="inlineStr">
+      <c r="E351" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6953,7 +6947,7 @@
       <c r="C352" t="n">
         <v>145113220</v>
       </c>
-      <c r="J352" t="inlineStr">
+      <c r="E352" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7025,7 +7019,7 @@
       <c r="C356" t="n">
         <v>145113222</v>
       </c>
-      <c r="J356" t="n">
+      <c r="E356" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7043,7 +7037,7 @@
       <c r="C357" t="n">
         <v>145113222</v>
       </c>
-      <c r="J357" t="inlineStr">
+      <c r="E357" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -7063,7 +7057,7 @@
       <c r="C358" t="n">
         <v>145113222</v>
       </c>
-      <c r="J358" t="inlineStr">
+      <c r="E358" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -7083,7 +7077,7 @@
       <c r="C359" t="n">
         <v>145113222</v>
       </c>
-      <c r="J359" t="n">
+      <c r="E359" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7101,7 +7095,7 @@
       <c r="C360" t="n">
         <v>145113222</v>
       </c>
-      <c r="J360" t="n">
+      <c r="E360" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7119,7 +7113,7 @@
       <c r="C361" t="n">
         <v>145113222</v>
       </c>
-      <c r="J361" t="inlineStr">
+      <c r="E361" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7139,7 +7133,7 @@
       <c r="C362" t="n">
         <v>145113222</v>
       </c>
-      <c r="J362" t="inlineStr">
+      <c r="E362" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7159,7 +7153,7 @@
       <c r="C363" t="n">
         <v>145113222</v>
       </c>
-      <c r="J363" t="inlineStr">
+      <c r="E363" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7231,7 +7225,7 @@
       <c r="C367" t="n">
         <v>145113225</v>
       </c>
-      <c r="J367" t="n">
+      <c r="E367" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7249,7 +7243,7 @@
       <c r="C368" t="n">
         <v>145113225</v>
       </c>
-      <c r="J368" t="inlineStr">
+      <c r="E368" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -7269,7 +7263,7 @@
       <c r="C369" t="n">
         <v>145113225</v>
       </c>
-      <c r="J369" t="inlineStr">
+      <c r="E369" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -7289,7 +7283,7 @@
       <c r="C370" t="n">
         <v>145113225</v>
       </c>
-      <c r="J370" t="n">
+      <c r="E370" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7307,7 +7301,7 @@
       <c r="C371" t="n">
         <v>145113225</v>
       </c>
-      <c r="J371" t="n">
+      <c r="E371" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7325,7 +7319,7 @@
       <c r="C372" t="n">
         <v>145113225</v>
       </c>
-      <c r="J372" t="inlineStr">
+      <c r="E372" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7345,7 +7339,7 @@
       <c r="C373" t="n">
         <v>145113225</v>
       </c>
-      <c r="J373" t="inlineStr">
+      <c r="E373" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7365,7 +7359,7 @@
       <c r="C374" t="n">
         <v>145113225</v>
       </c>
-      <c r="J374" t="inlineStr">
+      <c r="E374" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7437,8 +7431,8 @@
       <c r="C378" t="n">
         <v>153554861</v>
       </c>
-      <c r="J378" t="n">
-        <v>7</v>
+      <c r="E378" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="379">
@@ -7455,7 +7449,7 @@
       <c r="C379" t="n">
         <v>153554861</v>
       </c>
-      <c r="J379" t="inlineStr">
+      <c r="E379" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -7475,7 +7469,7 @@
       <c r="C380" t="n">
         <v>153554861</v>
       </c>
-      <c r="J380" t="inlineStr">
+      <c r="E380" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -7495,7 +7489,7 @@
       <c r="C381" t="n">
         <v>153554861</v>
       </c>
-      <c r="J381" t="n">
+      <c r="E381" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7513,7 +7507,7 @@
       <c r="C382" t="n">
         <v>153554861</v>
       </c>
-      <c r="J382" t="n">
+      <c r="E382" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7531,7 +7525,7 @@
       <c r="C383" t="n">
         <v>153554861</v>
       </c>
-      <c r="J383" t="inlineStr">
+      <c r="E383" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7551,7 +7545,7 @@
       <c r="C384" t="n">
         <v>153554861</v>
       </c>
-      <c r="J384" t="inlineStr">
+      <c r="E384" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7571,7 +7565,7 @@
       <c r="C385" t="n">
         <v>153554861</v>
       </c>
-      <c r="J385" t="inlineStr">
+      <c r="E385" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7643,7 +7637,7 @@
       <c r="C389" t="n">
         <v>154400658</v>
       </c>
-      <c r="J389" t="n">
+      <c r="E389" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7661,7 +7655,7 @@
       <c r="C390" t="n">
         <v>154400658</v>
       </c>
-      <c r="J390" t="inlineStr">
+      <c r="E390" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -7681,7 +7675,7 @@
       <c r="C391" t="n">
         <v>154400658</v>
       </c>
-      <c r="J391" t="inlineStr">
+      <c r="E391" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -7701,7 +7695,7 @@
       <c r="C392" t="n">
         <v>154400658</v>
       </c>
-      <c r="J392" t="n">
+      <c r="E392" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7719,7 +7713,7 @@
       <c r="C393" t="n">
         <v>154400658</v>
       </c>
-      <c r="J393" t="n">
+      <c r="E393" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7737,7 +7731,7 @@
       <c r="C394" t="n">
         <v>154400658</v>
       </c>
-      <c r="J394" t="inlineStr">
+      <c r="E394" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7757,7 +7751,7 @@
       <c r="C395" t="n">
         <v>154400658</v>
       </c>
-      <c r="J395" t="inlineStr">
+      <c r="E395" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7777,7 +7771,7 @@
       <c r="C396" t="n">
         <v>154400658</v>
       </c>
-      <c r="J396" t="inlineStr">
+      <c r="E396" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7849,7 +7843,7 @@
       <c r="C400" t="n">
         <v>154400659</v>
       </c>
-      <c r="J400" t="n">
+      <c r="E400" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7867,7 +7861,7 @@
       <c r="C401" t="n">
         <v>154400659</v>
       </c>
-      <c r="J401" t="inlineStr">
+      <c r="E401" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -7887,7 +7881,7 @@
       <c r="C402" t="n">
         <v>154400659</v>
       </c>
-      <c r="J402" t="inlineStr">
+      <c r="E402" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -7907,7 +7901,7 @@
       <c r="C403" t="n">
         <v>154400659</v>
       </c>
-      <c r="J403" t="n">
+      <c r="E403" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7925,7 +7919,7 @@
       <c r="C404" t="n">
         <v>154400659</v>
       </c>
-      <c r="J404" t="n">
+      <c r="E404" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7943,7 +7937,7 @@
       <c r="C405" t="n">
         <v>154400659</v>
       </c>
-      <c r="J405" t="inlineStr">
+      <c r="E405" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7963,7 +7957,7 @@
       <c r="C406" t="n">
         <v>154400659</v>
       </c>
-      <c r="J406" t="inlineStr">
+      <c r="E406" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7983,7 +7977,7 @@
       <c r="C407" t="n">
         <v>154400659</v>
       </c>
-      <c r="J407" t="inlineStr">
+      <c r="E407" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8055,7 +8049,7 @@
       <c r="C411" t="n">
         <v>154400662</v>
       </c>
-      <c r="J411" t="n">
+      <c r="E411" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8073,7 +8067,7 @@
       <c r="C412" t="n">
         <v>154400662</v>
       </c>
-      <c r="J412" t="inlineStr">
+      <c r="E412" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -8093,7 +8087,7 @@
       <c r="C413" t="n">
         <v>154400662</v>
       </c>
-      <c r="J413" t="inlineStr">
+      <c r="E413" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -8113,7 +8107,7 @@
       <c r="C414" t="n">
         <v>154400662</v>
       </c>
-      <c r="J414" t="n">
+      <c r="E414" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8131,7 +8125,7 @@
       <c r="C415" t="n">
         <v>154400662</v>
       </c>
-      <c r="J415" t="n">
+      <c r="E415" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8149,7 +8143,7 @@
       <c r="C416" t="n">
         <v>154400662</v>
       </c>
-      <c r="J416" t="inlineStr">
+      <c r="E416" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8169,7 +8163,7 @@
       <c r="C417" t="n">
         <v>154400662</v>
       </c>
-      <c r="J417" t="inlineStr">
+      <c r="E417" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8189,7 +8183,7 @@
       <c r="C418" t="n">
         <v>154400662</v>
       </c>
-      <c r="J418" t="inlineStr">
+      <c r="E418" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8261,7 +8255,7 @@
       <c r="C422" t="n">
         <v>154400663</v>
       </c>
-      <c r="J422" t="n">
+      <c r="E422" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8279,7 +8273,7 @@
       <c r="C423" t="n">
         <v>154400663</v>
       </c>
-      <c r="J423" t="inlineStr">
+      <c r="E423" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -8299,7 +8293,7 @@
       <c r="C424" t="n">
         <v>154400663</v>
       </c>
-      <c r="J424" t="inlineStr">
+      <c r="E424" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -8319,7 +8313,7 @@
       <c r="C425" t="n">
         <v>154400663</v>
       </c>
-      <c r="J425" t="n">
+      <c r="E425" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8337,7 +8331,7 @@
       <c r="C426" t="n">
         <v>154400663</v>
       </c>
-      <c r="J426" t="n">
+      <c r="E426" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8355,7 +8349,7 @@
       <c r="C427" t="n">
         <v>154400663</v>
       </c>
-      <c r="J427" t="inlineStr">
+      <c r="E427" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8375,7 +8369,7 @@
       <c r="C428" t="n">
         <v>154400663</v>
       </c>
-      <c r="J428" t="inlineStr">
+      <c r="E428" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8395,7 +8389,7 @@
       <c r="C429" t="n">
         <v>154400663</v>
       </c>
-      <c r="J429" t="inlineStr">
+      <c r="E429" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8467,7 +8461,7 @@
       <c r="C433" t="n">
         <v>154400664</v>
       </c>
-      <c r="J433" t="n">
+      <c r="E433" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8485,7 +8479,7 @@
       <c r="C434" t="n">
         <v>154400664</v>
       </c>
-      <c r="J434" t="inlineStr">
+      <c r="E434" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -8505,7 +8499,7 @@
       <c r="C435" t="n">
         <v>154400664</v>
       </c>
-      <c r="J435" t="inlineStr">
+      <c r="E435" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -8525,7 +8519,7 @@
       <c r="C436" t="n">
         <v>154400664</v>
       </c>
-      <c r="J436" t="n">
+      <c r="E436" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8543,7 +8537,7 @@
       <c r="C437" t="n">
         <v>154400664</v>
       </c>
-      <c r="J437" t="n">
+      <c r="E437" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8561,7 +8555,7 @@
       <c r="C438" t="n">
         <v>154400664</v>
       </c>
-      <c r="J438" t="inlineStr">
+      <c r="E438" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8581,7 +8575,7 @@
       <c r="C439" t="n">
         <v>154400664</v>
       </c>
-      <c r="J439" t="inlineStr">
+      <c r="E439" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8601,7 +8595,7 @@
       <c r="C440" t="n">
         <v>154400664</v>
       </c>
-      <c r="J440" t="inlineStr">
+      <c r="E440" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8673,7 +8667,7 @@
       <c r="C444" t="n">
         <v>154401074</v>
       </c>
-      <c r="J444" t="n">
+      <c r="E444" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8691,7 +8685,7 @@
       <c r="C445" t="n">
         <v>154401074</v>
       </c>
-      <c r="J445" t="inlineStr">
+      <c r="E445" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -8711,7 +8705,7 @@
       <c r="C446" t="n">
         <v>154401074</v>
       </c>
-      <c r="J446" t="inlineStr">
+      <c r="E446" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -8731,7 +8725,7 @@
       <c r="C447" t="n">
         <v>154401074</v>
       </c>
-      <c r="J447" t="n">
+      <c r="E447" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8749,7 +8743,7 @@
       <c r="C448" t="n">
         <v>154401074</v>
       </c>
-      <c r="J448" t="n">
+      <c r="E448" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8767,7 +8761,7 @@
       <c r="C449" t="n">
         <v>154401074</v>
       </c>
-      <c r="J449" t="inlineStr">
+      <c r="E449" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8787,7 +8781,7 @@
       <c r="C450" t="n">
         <v>154401074</v>
       </c>
-      <c r="J450" t="inlineStr">
+      <c r="E450" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8807,7 +8801,7 @@
       <c r="C451" t="n">
         <v>154401074</v>
       </c>
-      <c r="J451" t="inlineStr">
+      <c r="E451" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8879,7 +8873,7 @@
       <c r="C455" t="n">
         <v>154401075</v>
       </c>
-      <c r="J455" t="n">
+      <c r="E455" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8897,7 +8891,7 @@
       <c r="C456" t="n">
         <v>154401075</v>
       </c>
-      <c r="J456" t="inlineStr">
+      <c r="E456" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -8917,7 +8911,7 @@
       <c r="C457" t="n">
         <v>154401075</v>
       </c>
-      <c r="J457" t="inlineStr">
+      <c r="E457" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -8937,7 +8931,7 @@
       <c r="C458" t="n">
         <v>154401075</v>
       </c>
-      <c r="J458" t="n">
+      <c r="E458" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8955,7 +8949,7 @@
       <c r="C459" t="n">
         <v>154401075</v>
       </c>
-      <c r="J459" t="n">
+      <c r="E459" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8973,7 +8967,7 @@
       <c r="C460" t="n">
         <v>154401075</v>
       </c>
-      <c r="J460" t="inlineStr">
+      <c r="E460" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8993,7 +8987,7 @@
       <c r="C461" t="n">
         <v>154401075</v>
       </c>
-      <c r="J461" t="inlineStr">
+      <c r="E461" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9013,7 +9007,7 @@
       <c r="C462" t="n">
         <v>154401075</v>
       </c>
-      <c r="J462" t="inlineStr">
+      <c r="E462" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9085,7 +9079,7 @@
       <c r="C466" t="n">
         <v>154401077</v>
       </c>
-      <c r="J466" t="n">
+      <c r="E466" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9103,7 +9097,7 @@
       <c r="C467" t="n">
         <v>154401077</v>
       </c>
-      <c r="J467" t="inlineStr">
+      <c r="E467" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -9123,7 +9117,7 @@
       <c r="C468" t="n">
         <v>154401077</v>
       </c>
-      <c r="J468" t="inlineStr">
+      <c r="E468" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -9143,7 +9137,7 @@
       <c r="C469" t="n">
         <v>154401077</v>
       </c>
-      <c r="J469" t="n">
+      <c r="E469" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9161,7 +9155,7 @@
       <c r="C470" t="n">
         <v>154401077</v>
       </c>
-      <c r="J470" t="n">
+      <c r="E470" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9179,7 +9173,7 @@
       <c r="C471" t="n">
         <v>154401077</v>
       </c>
-      <c r="J471" t="inlineStr">
+      <c r="E471" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9199,7 +9193,7 @@
       <c r="C472" t="n">
         <v>154401077</v>
       </c>
-      <c r="J472" t="inlineStr">
+      <c r="E472" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9219,7 +9213,7 @@
       <c r="C473" t="n">
         <v>154401077</v>
       </c>
-      <c r="J473" t="inlineStr">
+      <c r="E473" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9291,7 +9285,7 @@
       <c r="C477" t="n">
         <v>154401078</v>
       </c>
-      <c r="J477" t="n">
+      <c r="E477" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9309,7 +9303,7 @@
       <c r="C478" t="n">
         <v>154401078</v>
       </c>
-      <c r="J478" t="inlineStr">
+      <c r="E478" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -9329,7 +9323,7 @@
       <c r="C479" t="n">
         <v>154401078</v>
       </c>
-      <c r="J479" t="inlineStr">
+      <c r="E479" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -9349,7 +9343,7 @@
       <c r="C480" t="n">
         <v>154401078</v>
       </c>
-      <c r="J480" t="n">
+      <c r="E480" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9367,7 +9361,7 @@
       <c r="C481" t="n">
         <v>154401078</v>
       </c>
-      <c r="J481" t="n">
+      <c r="E481" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9385,7 +9379,7 @@
       <c r="C482" t="n">
         <v>154401078</v>
       </c>
-      <c r="J482" t="inlineStr">
+      <c r="E482" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9405,7 +9399,7 @@
       <c r="C483" t="n">
         <v>154401078</v>
       </c>
-      <c r="J483" t="inlineStr">
+      <c r="E483" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9425,7 +9419,7 @@
       <c r="C484" t="n">
         <v>154401078</v>
       </c>
-      <c r="J484" t="inlineStr">
+      <c r="E484" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9497,7 +9491,7 @@
       <c r="C488" t="n">
         <v>154401079</v>
       </c>
-      <c r="J488" t="n">
+      <c r="E488" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9515,7 +9509,7 @@
       <c r="C489" t="n">
         <v>154401079</v>
       </c>
-      <c r="J489" t="inlineStr">
+      <c r="E489" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -9535,7 +9529,7 @@
       <c r="C490" t="n">
         <v>154401079</v>
       </c>
-      <c r="J490" t="inlineStr">
+      <c r="E490" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -9555,7 +9549,7 @@
       <c r="C491" t="n">
         <v>154401079</v>
       </c>
-      <c r="J491" t="n">
+      <c r="E491" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9573,7 +9567,7 @@
       <c r="C492" t="n">
         <v>154401079</v>
       </c>
-      <c r="J492" t="n">
+      <c r="E492" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9591,7 +9585,7 @@
       <c r="C493" t="n">
         <v>154401079</v>
       </c>
-      <c r="J493" t="inlineStr">
+      <c r="E493" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9611,7 +9605,7 @@
       <c r="C494" t="n">
         <v>154401079</v>
       </c>
-      <c r="J494" t="inlineStr">
+      <c r="E494" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9631,7 +9625,7 @@
       <c r="C495" t="n">
         <v>154401079</v>
       </c>
-      <c r="J495" t="inlineStr">
+      <c r="E495" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9703,7 +9697,7 @@
       <c r="C499" t="n">
         <v>154401080</v>
       </c>
-      <c r="J499" t="n">
+      <c r="E499" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9721,7 +9715,7 @@
       <c r="C500" t="n">
         <v>154401080</v>
       </c>
-      <c r="J500" t="inlineStr">
+      <c r="E500" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -9741,7 +9735,7 @@
       <c r="C501" t="n">
         <v>154401080</v>
       </c>
-      <c r="J501" t="inlineStr">
+      <c r="E501" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -9761,7 +9755,7 @@
       <c r="C502" t="n">
         <v>154401080</v>
       </c>
-      <c r="J502" t="n">
+      <c r="E502" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9779,7 +9773,7 @@
       <c r="C503" t="n">
         <v>154401080</v>
       </c>
-      <c r="J503" t="n">
+      <c r="E503" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9797,7 +9791,7 @@
       <c r="C504" t="n">
         <v>154401080</v>
       </c>
-      <c r="J504" t="inlineStr">
+      <c r="E504" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9817,7 +9811,7 @@
       <c r="C505" t="n">
         <v>154401080</v>
       </c>
-      <c r="J505" t="inlineStr">
+      <c r="E505" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9837,7 +9831,7 @@
       <c r="C506" t="n">
         <v>154401080</v>
       </c>
-      <c r="J506" t="inlineStr">
+      <c r="E506" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9909,7 +9903,7 @@
       <c r="C510" t="n">
         <v>154401081</v>
       </c>
-      <c r="J510" t="n">
+      <c r="E510" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9927,7 +9921,7 @@
       <c r="C511" t="n">
         <v>154401081</v>
       </c>
-      <c r="J511" t="inlineStr">
+      <c r="E511" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -9947,7 +9941,7 @@
       <c r="C512" t="n">
         <v>154401081</v>
       </c>
-      <c r="J512" t="inlineStr">
+      <c r="E512" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -9967,7 +9961,7 @@
       <c r="C513" t="n">
         <v>154401081</v>
       </c>
-      <c r="J513" t="n">
+      <c r="E513" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9985,7 +9979,7 @@
       <c r="C514" t="n">
         <v>154401081</v>
       </c>
-      <c r="J514" t="n">
+      <c r="E514" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10003,7 +9997,7 @@
       <c r="C515" t="n">
         <v>154401081</v>
       </c>
-      <c r="J515" t="inlineStr">
+      <c r="E515" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10023,7 +10017,7 @@
       <c r="C516" t="n">
         <v>154401081</v>
       </c>
-      <c r="J516" t="inlineStr">
+      <c r="E516" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10043,7 +10037,7 @@
       <c r="C517" t="n">
         <v>154401081</v>
       </c>
-      <c r="J517" t="inlineStr">
+      <c r="E517" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10115,7 +10109,7 @@
       <c r="C521" t="n">
         <v>154401082</v>
       </c>
-      <c r="J521" t="n">
+      <c r="E521" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10133,7 +10127,7 @@
       <c r="C522" t="n">
         <v>154401082</v>
       </c>
-      <c r="J522" t="inlineStr">
+      <c r="E522" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -10153,7 +10147,7 @@
       <c r="C523" t="n">
         <v>154401082</v>
       </c>
-      <c r="J523" t="inlineStr">
+      <c r="E523" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -10173,7 +10167,7 @@
       <c r="C524" t="n">
         <v>154401082</v>
       </c>
-      <c r="J524" t="n">
+      <c r="E524" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10191,7 +10185,7 @@
       <c r="C525" t="n">
         <v>154401082</v>
       </c>
-      <c r="J525" t="n">
+      <c r="E525" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10209,7 +10203,7 @@
       <c r="C526" t="n">
         <v>154401082</v>
       </c>
-      <c r="J526" t="inlineStr">
+      <c r="E526" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10229,7 +10223,7 @@
       <c r="C527" t="n">
         <v>154401082</v>
       </c>
-      <c r="J527" t="inlineStr">
+      <c r="E527" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10249,7 +10243,7 @@
       <c r="C528" t="n">
         <v>154401082</v>
       </c>
-      <c r="J528" t="inlineStr">
+      <c r="E528" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10321,7 +10315,7 @@
       <c r="C532" t="n">
         <v>154401083</v>
       </c>
-      <c r="J532" t="n">
+      <c r="E532" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10339,7 +10333,7 @@
       <c r="C533" t="n">
         <v>154401083</v>
       </c>
-      <c r="J533" t="inlineStr">
+      <c r="E533" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -10359,7 +10353,7 @@
       <c r="C534" t="n">
         <v>154401083</v>
       </c>
-      <c r="J534" t="inlineStr">
+      <c r="E534" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -10379,7 +10373,7 @@
       <c r="C535" t="n">
         <v>154401083</v>
       </c>
-      <c r="J535" t="n">
+      <c r="E535" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10397,7 +10391,7 @@
       <c r="C536" t="n">
         <v>154401083</v>
       </c>
-      <c r="J536" t="n">
+      <c r="E536" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10415,7 +10409,7 @@
       <c r="C537" t="n">
         <v>154401083</v>
       </c>
-      <c r="J537" t="inlineStr">
+      <c r="E537" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10435,7 +10429,7 @@
       <c r="C538" t="n">
         <v>154401083</v>
       </c>
-      <c r="J538" t="inlineStr">
+      <c r="E538" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10455,7 +10449,7 @@
       <c r="C539" t="n">
         <v>154401083</v>
       </c>
-      <c r="J539" t="inlineStr">
+      <c r="E539" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10527,7 +10521,7 @@
       <c r="C543" t="n">
         <v>154401084</v>
       </c>
-      <c r="J543" t="n">
+      <c r="E543" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10545,7 +10539,7 @@
       <c r="C544" t="n">
         <v>154401084</v>
       </c>
-      <c r="J544" t="inlineStr">
+      <c r="E544" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -10565,7 +10559,7 @@
       <c r="C545" t="n">
         <v>154401084</v>
       </c>
-      <c r="J545" t="inlineStr">
+      <c r="E545" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -10585,7 +10579,7 @@
       <c r="C546" t="n">
         <v>154401084</v>
       </c>
-      <c r="J546" t="n">
+      <c r="E546" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10603,7 +10597,7 @@
       <c r="C547" t="n">
         <v>154401084</v>
       </c>
-      <c r="J547" t="n">
+      <c r="E547" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10621,7 +10615,7 @@
       <c r="C548" t="n">
         <v>154401084</v>
       </c>
-      <c r="J548" t="inlineStr">
+      <c r="E548" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10641,7 +10635,7 @@
       <c r="C549" t="n">
         <v>154401084</v>
       </c>
-      <c r="J549" t="inlineStr">
+      <c r="E549" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10661,7 +10655,7 @@
       <c r="C550" t="n">
         <v>154401084</v>
       </c>
-      <c r="J550" t="inlineStr">
+      <c r="E550" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10733,7 +10727,7 @@
       <c r="C554" t="n">
         <v>154401085</v>
       </c>
-      <c r="J554" t="n">
+      <c r="E554" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10751,7 +10745,7 @@
       <c r="C555" t="n">
         <v>154401085</v>
       </c>
-      <c r="J555" t="inlineStr">
+      <c r="E555" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -10771,7 +10765,7 @@
       <c r="C556" t="n">
         <v>154401085</v>
       </c>
-      <c r="J556" t="inlineStr">
+      <c r="E556" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -10791,7 +10785,7 @@
       <c r="C557" t="n">
         <v>154401085</v>
       </c>
-      <c r="J557" t="n">
+      <c r="E557" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10809,7 +10803,7 @@
       <c r="C558" t="n">
         <v>154401085</v>
       </c>
-      <c r="J558" t="n">
+      <c r="E558" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10827,7 +10821,7 @@
       <c r="C559" t="n">
         <v>154401085</v>
       </c>
-      <c r="J559" t="inlineStr">
+      <c r="E559" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10847,7 +10841,7 @@
       <c r="C560" t="n">
         <v>154401085</v>
       </c>
-      <c r="J560" t="inlineStr">
+      <c r="E560" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10867,7 +10861,7 @@
       <c r="C561" t="n">
         <v>154401085</v>
       </c>
-      <c r="J561" t="inlineStr">
+      <c r="E561" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10939,8 +10933,8 @@
       <c r="C565" t="n">
         <v>158160187</v>
       </c>
-      <c r="J565" t="n">
-        <v>4</v>
+      <c r="E565" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="566">
@@ -10957,7 +10951,7 @@
       <c r="C566" t="n">
         <v>158160187</v>
       </c>
-      <c r="J566" t="inlineStr">
+      <c r="E566" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -10977,7 +10971,7 @@
       <c r="C567" t="n">
         <v>158160187</v>
       </c>
-      <c r="J567" t="inlineStr">
+      <c r="E567" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -10997,7 +10991,7 @@
       <c r="C568" t="n">
         <v>158160187</v>
       </c>
-      <c r="J568" t="n">
+      <c r="E568" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11015,7 +11009,7 @@
       <c r="C569" t="n">
         <v>158160187</v>
       </c>
-      <c r="J569" t="n">
+      <c r="E569" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11033,7 +11027,7 @@
       <c r="C570" t="n">
         <v>158160187</v>
       </c>
-      <c r="J570" t="inlineStr">
+      <c r="E570" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11053,7 +11047,7 @@
       <c r="C571" t="n">
         <v>158160187</v>
       </c>
-      <c r="J571" t="inlineStr">
+      <c r="E571" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11073,7 +11067,7 @@
       <c r="C572" t="n">
         <v>158160187</v>
       </c>
-      <c r="J572" t="inlineStr">
+      <c r="E572" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11145,8 +11139,8 @@
       <c r="C576" t="n">
         <v>158160188</v>
       </c>
-      <c r="J576" t="n">
-        <v>6</v>
+      <c r="E576" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="577">
@@ -11163,7 +11157,7 @@
       <c r="C577" t="n">
         <v>158160188</v>
       </c>
-      <c r="J577" t="inlineStr">
+      <c r="E577" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -11183,7 +11177,7 @@
       <c r="C578" t="n">
         <v>158160188</v>
       </c>
-      <c r="J578" t="inlineStr">
+      <c r="E578" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -11203,7 +11197,7 @@
       <c r="C579" t="n">
         <v>158160188</v>
       </c>
-      <c r="J579" t="n">
+      <c r="E579" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11221,7 +11215,7 @@
       <c r="C580" t="n">
         <v>158160188</v>
       </c>
-      <c r="J580" t="n">
+      <c r="E580" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11239,7 +11233,7 @@
       <c r="C581" t="n">
         <v>158160188</v>
       </c>
-      <c r="J581" t="inlineStr">
+      <c r="E581" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11259,7 +11253,7 @@
       <c r="C582" t="n">
         <v>158160188</v>
       </c>
-      <c r="J582" t="inlineStr">
+      <c r="E582" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11279,7 +11273,7 @@
       <c r="C583" t="n">
         <v>158160188</v>
       </c>
-      <c r="J583" t="inlineStr">
+      <c r="E583" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11351,7 +11345,7 @@
       <c r="C587" t="n">
         <v>160429558</v>
       </c>
-      <c r="J587" t="n">
+      <c r="E587" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11369,7 +11363,7 @@
       <c r="C588" t="n">
         <v>160429558</v>
       </c>
-      <c r="J588" t="inlineStr">
+      <c r="E588" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -11389,7 +11383,7 @@
       <c r="C589" t="n">
         <v>160429558</v>
       </c>
-      <c r="J589" t="inlineStr">
+      <c r="E589" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -11409,7 +11403,7 @@
       <c r="C590" t="n">
         <v>160429558</v>
       </c>
-      <c r="J590" t="n">
+      <c r="E590" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11427,7 +11421,7 @@
       <c r="C591" t="n">
         <v>160429558</v>
       </c>
-      <c r="J591" t="n">
+      <c r="E591" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11445,7 +11439,7 @@
       <c r="C592" t="n">
         <v>160429558</v>
       </c>
-      <c r="J592" t="inlineStr">
+      <c r="E592" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11465,7 +11459,7 @@
       <c r="C593" t="n">
         <v>160429558</v>
       </c>
-      <c r="J593" t="inlineStr">
+      <c r="E593" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11485,7 +11479,7 @@
       <c r="C594" t="n">
         <v>160429558</v>
       </c>
-      <c r="J594" t="inlineStr">
+      <c r="E594" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11557,7 +11551,7 @@
       <c r="C598" t="n">
         <v>160429566</v>
       </c>
-      <c r="J598" t="n">
+      <c r="E598" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11575,7 +11569,7 @@
       <c r="C599" t="n">
         <v>160429566</v>
       </c>
-      <c r="J599" t="inlineStr">
+      <c r="E599" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -11595,7 +11589,7 @@
       <c r="C600" t="n">
         <v>160429566</v>
       </c>
-      <c r="J600" t="inlineStr">
+      <c r="E600" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -11615,7 +11609,7 @@
       <c r="C601" t="n">
         <v>160429566</v>
       </c>
-      <c r="J601" t="n">
+      <c r="E601" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11633,7 +11627,7 @@
       <c r="C602" t="n">
         <v>160429566</v>
       </c>
-      <c r="J602" t="n">
+      <c r="E602" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11651,7 +11645,7 @@
       <c r="C603" t="n">
         <v>160429566</v>
       </c>
-      <c r="J603" t="inlineStr">
+      <c r="E603" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11671,7 +11665,7 @@
       <c r="C604" t="n">
         <v>160429566</v>
       </c>
-      <c r="J604" t="inlineStr">
+      <c r="E604" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11691,7 +11685,7 @@
       <c r="C605" t="n">
         <v>160429566</v>
       </c>
-      <c r="J605" t="inlineStr">
+      <c r="E605" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11763,7 +11757,7 @@
       <c r="C609" t="n">
         <v>160429568</v>
       </c>
-      <c r="J609" t="n">
+      <c r="E609" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11781,7 +11775,7 @@
       <c r="C610" t="n">
         <v>160429568</v>
       </c>
-      <c r="J610" t="inlineStr">
+      <c r="E610" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -11801,7 +11795,7 @@
       <c r="C611" t="n">
         <v>160429568</v>
       </c>
-      <c r="J611" t="inlineStr">
+      <c r="E611" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -11821,7 +11815,7 @@
       <c r="C612" t="n">
         <v>160429568</v>
       </c>
-      <c r="J612" t="n">
+      <c r="E612" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11839,7 +11833,7 @@
       <c r="C613" t="n">
         <v>160429568</v>
       </c>
-      <c r="J613" t="n">
+      <c r="E613" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11857,7 +11851,7 @@
       <c r="C614" t="n">
         <v>160429568</v>
       </c>
-      <c r="J614" t="inlineStr">
+      <c r="E614" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11877,7 +11871,7 @@
       <c r="C615" t="n">
         <v>160429568</v>
       </c>
-      <c r="J615" t="inlineStr">
+      <c r="E615" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11897,7 +11891,7 @@
       <c r="C616" t="n">
         <v>160429568</v>
       </c>
-      <c r="J616" t="inlineStr">
+      <c r="E616" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11969,7 +11963,7 @@
       <c r="C620" t="n">
         <v>160429569</v>
       </c>
-      <c r="J620" t="n">
+      <c r="E620" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11987,7 +11981,7 @@
       <c r="C621" t="n">
         <v>160429569</v>
       </c>
-      <c r="J621" t="inlineStr">
+      <c r="E621" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -12007,7 +12001,7 @@
       <c r="C622" t="n">
         <v>160429569</v>
       </c>
-      <c r="J622" t="inlineStr">
+      <c r="E622" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -12027,7 +12021,7 @@
       <c r="C623" t="n">
         <v>160429569</v>
       </c>
-      <c r="J623" t="n">
+      <c r="E623" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12045,7 +12039,7 @@
       <c r="C624" t="n">
         <v>160429569</v>
       </c>
-      <c r="J624" t="n">
+      <c r="E624" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12063,7 +12057,7 @@
       <c r="C625" t="n">
         <v>160429569</v>
       </c>
-      <c r="J625" t="inlineStr">
+      <c r="E625" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12083,7 +12077,7 @@
       <c r="C626" t="n">
         <v>160429569</v>
       </c>
-      <c r="J626" t="inlineStr">
+      <c r="E626" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12103,7 +12097,7 @@
       <c r="C627" t="n">
         <v>160429569</v>
       </c>
-      <c r="J627" t="inlineStr">
+      <c r="E627" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12175,7 +12169,7 @@
       <c r="C631" t="n">
         <v>160429571</v>
       </c>
-      <c r="J631" t="n">
+      <c r="E631" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12193,7 +12187,7 @@
       <c r="C632" t="n">
         <v>160429571</v>
       </c>
-      <c r="J632" t="inlineStr">
+      <c r="E632" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -12213,7 +12207,7 @@
       <c r="C633" t="n">
         <v>160429571</v>
       </c>
-      <c r="J633" t="inlineStr">
+      <c r="E633" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -12233,7 +12227,7 @@
       <c r="C634" t="n">
         <v>160429571</v>
       </c>
-      <c r="J634" t="n">
+      <c r="E634" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12251,7 +12245,7 @@
       <c r="C635" t="n">
         <v>160429571</v>
       </c>
-      <c r="J635" t="n">
+      <c r="E635" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12269,7 +12263,7 @@
       <c r="C636" t="n">
         <v>160429571</v>
       </c>
-      <c r="J636" t="inlineStr">
+      <c r="E636" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12289,7 +12283,7 @@
       <c r="C637" t="n">
         <v>160429571</v>
       </c>
-      <c r="J637" t="inlineStr">
+      <c r="E637" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12309,7 +12303,7 @@
       <c r="C638" t="n">
         <v>160429571</v>
       </c>
-      <c r="J638" t="inlineStr">
+      <c r="E638" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12381,7 +12375,7 @@
       <c r="C642" t="n">
         <v>160429572</v>
       </c>
-      <c r="J642" t="n">
+      <c r="E642" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12399,7 +12393,7 @@
       <c r="C643" t="n">
         <v>160429572</v>
       </c>
-      <c r="J643" t="inlineStr">
+      <c r="E643" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -12419,7 +12413,7 @@
       <c r="C644" t="n">
         <v>160429572</v>
       </c>
-      <c r="J644" t="inlineStr">
+      <c r="E644" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -12439,7 +12433,7 @@
       <c r="C645" t="n">
         <v>160429572</v>
       </c>
-      <c r="J645" t="n">
+      <c r="E645" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12457,7 +12451,7 @@
       <c r="C646" t="n">
         <v>160429572</v>
       </c>
-      <c r="J646" t="n">
+      <c r="E646" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12475,7 +12469,7 @@
       <c r="C647" t="n">
         <v>160429572</v>
       </c>
-      <c r="J647" t="inlineStr">
+      <c r="E647" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12495,7 +12489,7 @@
       <c r="C648" t="n">
         <v>160429572</v>
       </c>
-      <c r="J648" t="inlineStr">
+      <c r="E648" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12515,7 +12509,7 @@
       <c r="C649" t="n">
         <v>160429572</v>
       </c>
-      <c r="J649" t="inlineStr">
+      <c r="E649" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12587,7 +12581,7 @@
       <c r="C653" t="n">
         <v>160429573</v>
       </c>
-      <c r="J653" t="n">
+      <c r="E653" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12605,7 +12599,7 @@
       <c r="C654" t="n">
         <v>160429573</v>
       </c>
-      <c r="J654" t="inlineStr">
+      <c r="E654" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -12625,7 +12619,7 @@
       <c r="C655" t="n">
         <v>160429573</v>
       </c>
-      <c r="J655" t="inlineStr">
+      <c r="E655" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -12645,7 +12639,7 @@
       <c r="C656" t="n">
         <v>160429573</v>
       </c>
-      <c r="J656" t="n">
+      <c r="E656" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12663,7 +12657,7 @@
       <c r="C657" t="n">
         <v>160429573</v>
       </c>
-      <c r="J657" t="n">
+      <c r="E657" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12681,7 +12675,7 @@
       <c r="C658" t="n">
         <v>160429573</v>
       </c>
-      <c r="J658" t="inlineStr">
+      <c r="E658" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12701,7 +12695,7 @@
       <c r="C659" t="n">
         <v>160429573</v>
       </c>
-      <c r="J659" t="inlineStr">
+      <c r="E659" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12721,7 +12715,7 @@
       <c r="C660" t="n">
         <v>160429573</v>
       </c>
-      <c r="J660" t="inlineStr">
+      <c r="E660" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12793,7 +12787,7 @@
       <c r="C664" t="n">
         <v>160429576</v>
       </c>
-      <c r="J664" t="n">
+      <c r="E664" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12811,7 +12805,7 @@
       <c r="C665" t="n">
         <v>160429576</v>
       </c>
-      <c r="J665" t="inlineStr">
+      <c r="E665" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -12831,7 +12825,7 @@
       <c r="C666" t="n">
         <v>160429576</v>
       </c>
-      <c r="J666" t="inlineStr">
+      <c r="E666" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -12851,7 +12845,7 @@
       <c r="C667" t="n">
         <v>160429576</v>
       </c>
-      <c r="J667" t="n">
+      <c r="E667" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12869,7 +12863,7 @@
       <c r="C668" t="n">
         <v>160429576</v>
       </c>
-      <c r="J668" t="n">
+      <c r="E668" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12887,7 +12881,7 @@
       <c r="C669" t="n">
         <v>160429576</v>
       </c>
-      <c r="J669" t="inlineStr">
+      <c r="E669" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12907,7 +12901,7 @@
       <c r="C670" t="n">
         <v>160429576</v>
       </c>
-      <c r="J670" t="inlineStr">
+      <c r="E670" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12927,7 +12921,7 @@
       <c r="C671" t="n">
         <v>160429576</v>
       </c>
-      <c r="J671" t="inlineStr">
+      <c r="E671" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12999,7 +12993,7 @@
       <c r="C675" t="n">
         <v>160429577</v>
       </c>
-      <c r="J675" t="n">
+      <c r="E675" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13017,7 +13011,7 @@
       <c r="C676" t="n">
         <v>160429577</v>
       </c>
-      <c r="J676" t="inlineStr">
+      <c r="E676" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -13037,7 +13031,7 @@
       <c r="C677" t="n">
         <v>160429577</v>
       </c>
-      <c r="J677" t="inlineStr">
+      <c r="E677" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -13057,7 +13051,7 @@
       <c r="C678" t="n">
         <v>160429577</v>
       </c>
-      <c r="J678" t="n">
+      <c r="E678" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13075,7 +13069,7 @@
       <c r="C679" t="n">
         <v>160429577</v>
       </c>
-      <c r="J679" t="n">
+      <c r="E679" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13093,7 +13087,7 @@
       <c r="C680" t="n">
         <v>160429577</v>
       </c>
-      <c r="J680" t="inlineStr">
+      <c r="E680" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13113,7 +13107,7 @@
       <c r="C681" t="n">
         <v>160429577</v>
       </c>
-      <c r="J681" t="inlineStr">
+      <c r="E681" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13133,7 +13127,7 @@
       <c r="C682" t="n">
         <v>160429577</v>
       </c>
-      <c r="J682" t="inlineStr">
+      <c r="E682" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13205,7 +13199,7 @@
       <c r="C686" t="n">
         <v>160429578</v>
       </c>
-      <c r="J686" t="n">
+      <c r="E686" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13223,7 +13217,7 @@
       <c r="C687" t="n">
         <v>160429578</v>
       </c>
-      <c r="J687" t="inlineStr">
+      <c r="E687" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -13243,7 +13237,7 @@
       <c r="C688" t="n">
         <v>160429578</v>
       </c>
-      <c r="J688" t="inlineStr">
+      <c r="E688" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -13263,7 +13257,7 @@
       <c r="C689" t="n">
         <v>160429578</v>
       </c>
-      <c r="J689" t="n">
+      <c r="E689" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13281,7 +13275,7 @@
       <c r="C690" t="n">
         <v>160429578</v>
       </c>
-      <c r="J690" t="n">
+      <c r="E690" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13299,7 +13293,7 @@
       <c r="C691" t="n">
         <v>160429578</v>
       </c>
-      <c r="J691" t="inlineStr">
+      <c r="E691" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13319,7 +13313,7 @@
       <c r="C692" t="n">
         <v>160429578</v>
       </c>
-      <c r="J692" t="inlineStr">
+      <c r="E692" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13339,7 +13333,7 @@
       <c r="C693" t="n">
         <v>160429578</v>
       </c>
-      <c r="J693" t="inlineStr">
+      <c r="E693" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13411,7 +13405,7 @@
       <c r="C697" t="n">
         <v>160429579</v>
       </c>
-      <c r="J697" t="n">
+      <c r="E697" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13429,7 +13423,7 @@
       <c r="C698" t="n">
         <v>160429579</v>
       </c>
-      <c r="J698" t="inlineStr">
+      <c r="E698" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -13449,7 +13443,7 @@
       <c r="C699" t="n">
         <v>160429579</v>
       </c>
-      <c r="J699" t="inlineStr">
+      <c r="E699" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -13469,7 +13463,7 @@
       <c r="C700" t="n">
         <v>160429579</v>
       </c>
-      <c r="J700" t="n">
+      <c r="E700" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13487,7 +13481,7 @@
       <c r="C701" t="n">
         <v>160429579</v>
       </c>
-      <c r="J701" t="n">
+      <c r="E701" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13505,7 +13499,7 @@
       <c r="C702" t="n">
         <v>160429579</v>
       </c>
-      <c r="J702" t="inlineStr">
+      <c r="E702" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13525,7 +13519,7 @@
       <c r="C703" t="n">
         <v>160429579</v>
       </c>
-      <c r="J703" t="inlineStr">
+      <c r="E703" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13545,7 +13539,7 @@
       <c r="C704" t="n">
         <v>160429579</v>
       </c>
-      <c r="J704" t="inlineStr">
+      <c r="E704" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13617,7 +13611,7 @@
       <c r="C708" t="n">
         <v>160429587</v>
       </c>
-      <c r="J708" t="n">
+      <c r="E708" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13635,7 +13629,7 @@
       <c r="C709" t="n">
         <v>160429587</v>
       </c>
-      <c r="J709" t="inlineStr">
+      <c r="E709" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -13655,7 +13649,7 @@
       <c r="C710" t="n">
         <v>160429587</v>
       </c>
-      <c r="J710" t="inlineStr">
+      <c r="E710" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -13675,7 +13669,7 @@
       <c r="C711" t="n">
         <v>160429587</v>
       </c>
-      <c r="J711" t="n">
+      <c r="E711" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13693,7 +13687,7 @@
       <c r="C712" t="n">
         <v>160429587</v>
       </c>
-      <c r="J712" t="n">
+      <c r="E712" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13711,7 +13705,7 @@
       <c r="C713" t="n">
         <v>160429587</v>
       </c>
-      <c r="J713" t="inlineStr">
+      <c r="E713" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13731,7 +13725,7 @@
       <c r="C714" t="n">
         <v>160429587</v>
       </c>
-      <c r="J714" t="inlineStr">
+      <c r="E714" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13751,7 +13745,7 @@
       <c r="C715" t="n">
         <v>160429587</v>
       </c>
-      <c r="J715" t="inlineStr">
+      <c r="E715" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13823,7 +13817,7 @@
       <c r="C719" t="n">
         <v>160429593</v>
       </c>
-      <c r="J719" t="n">
+      <c r="E719" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13841,7 +13835,7 @@
       <c r="C720" t="n">
         <v>160429593</v>
       </c>
-      <c r="J720" t="inlineStr">
+      <c r="E720" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -13861,7 +13855,7 @@
       <c r="C721" t="n">
         <v>160429593</v>
       </c>
-      <c r="J721" t="inlineStr">
+      <c r="E721" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -13881,7 +13875,7 @@
       <c r="C722" t="n">
         <v>160429593</v>
       </c>
-      <c r="J722" t="n">
+      <c r="E722" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13899,7 +13893,7 @@
       <c r="C723" t="n">
         <v>160429593</v>
       </c>
-      <c r="J723" t="n">
+      <c r="E723" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13917,7 +13911,7 @@
       <c r="C724" t="n">
         <v>160429593</v>
       </c>
-      <c r="J724" t="inlineStr">
+      <c r="E724" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13937,7 +13931,7 @@
       <c r="C725" t="n">
         <v>160429593</v>
       </c>
-      <c r="J725" t="inlineStr">
+      <c r="E725" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13957,7 +13951,7 @@
       <c r="C726" t="n">
         <v>160429593</v>
       </c>
-      <c r="J726" t="inlineStr">
+      <c r="E726" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14029,7 +14023,7 @@
       <c r="C730" t="n">
         <v>160429594</v>
       </c>
-      <c r="J730" t="n">
+      <c r="E730" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14047,7 +14041,7 @@
       <c r="C731" t="n">
         <v>160429594</v>
       </c>
-      <c r="J731" t="inlineStr">
+      <c r="E731" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -14067,7 +14061,7 @@
       <c r="C732" t="n">
         <v>160429594</v>
       </c>
-      <c r="J732" t="inlineStr">
+      <c r="E732" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -14087,7 +14081,7 @@
       <c r="C733" t="n">
         <v>160429594</v>
       </c>
-      <c r="J733" t="n">
+      <c r="E733" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14105,7 +14099,7 @@
       <c r="C734" t="n">
         <v>160429594</v>
       </c>
-      <c r="J734" t="n">
+      <c r="E734" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14123,7 +14117,7 @@
       <c r="C735" t="n">
         <v>160429594</v>
       </c>
-      <c r="J735" t="inlineStr">
+      <c r="E735" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14143,7 +14137,7 @@
       <c r="C736" t="n">
         <v>160429594</v>
       </c>
-      <c r="J736" t="inlineStr">
+      <c r="E736" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14163,7 +14157,7 @@
       <c r="C737" t="n">
         <v>160429594</v>
       </c>
-      <c r="J737" t="inlineStr">
+      <c r="E737" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14235,7 +14229,7 @@
       <c r="C741" t="n">
         <v>160429597</v>
       </c>
-      <c r="J741" t="n">
+      <c r="E741" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14253,7 +14247,7 @@
       <c r="C742" t="n">
         <v>160429597</v>
       </c>
-      <c r="J742" t="inlineStr">
+      <c r="E742" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -14273,7 +14267,7 @@
       <c r="C743" t="n">
         <v>160429597</v>
       </c>
-      <c r="J743" t="inlineStr">
+      <c r="E743" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -14293,7 +14287,7 @@
       <c r="C744" t="n">
         <v>160429597</v>
       </c>
-      <c r="J744" t="n">
+      <c r="E744" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14311,7 +14305,7 @@
       <c r="C745" t="n">
         <v>160429597</v>
       </c>
-      <c r="J745" t="n">
+      <c r="E745" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14329,7 +14323,7 @@
       <c r="C746" t="n">
         <v>160429597</v>
       </c>
-      <c r="J746" t="inlineStr">
+      <c r="E746" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14349,7 +14343,7 @@
       <c r="C747" t="n">
         <v>160429597</v>
       </c>
-      <c r="J747" t="inlineStr">
+      <c r="E747" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14369,7 +14363,7 @@
       <c r="C748" t="n">
         <v>160429597</v>
       </c>
-      <c r="J748" t="inlineStr">
+      <c r="E748" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14441,7 +14435,7 @@
       <c r="C752" t="n">
         <v>160429599</v>
       </c>
-      <c r="J752" t="n">
+      <c r="E752" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14459,7 +14453,7 @@
       <c r="C753" t="n">
         <v>160429599</v>
       </c>
-      <c r="J753" t="inlineStr">
+      <c r="E753" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -14479,7 +14473,7 @@
       <c r="C754" t="n">
         <v>160429599</v>
       </c>
-      <c r="J754" t="inlineStr">
+      <c r="E754" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -14499,7 +14493,7 @@
       <c r="C755" t="n">
         <v>160429599</v>
       </c>
-      <c r="J755" t="n">
+      <c r="E755" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14517,7 +14511,7 @@
       <c r="C756" t="n">
         <v>160429599</v>
       </c>
-      <c r="J756" t="n">
+      <c r="E756" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14535,7 +14529,7 @@
       <c r="C757" t="n">
         <v>160429599</v>
       </c>
-      <c r="J757" t="inlineStr">
+      <c r="E757" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14555,7 +14549,7 @@
       <c r="C758" t="n">
         <v>160429599</v>
       </c>
-      <c r="J758" t="inlineStr">
+      <c r="E758" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14575,7 +14569,7 @@
       <c r="C759" t="n">
         <v>160429599</v>
       </c>
-      <c r="J759" t="inlineStr">
+      <c r="E759" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14647,7 +14641,7 @@
       <c r="C763" t="n">
         <v>160429600</v>
       </c>
-      <c r="J763" t="n">
+      <c r="E763" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14665,7 +14659,7 @@
       <c r="C764" t="n">
         <v>160429600</v>
       </c>
-      <c r="J764" t="inlineStr">
+      <c r="E764" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -14685,7 +14679,7 @@
       <c r="C765" t="n">
         <v>160429600</v>
       </c>
-      <c r="J765" t="inlineStr">
+      <c r="E765" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -14705,7 +14699,7 @@
       <c r="C766" t="n">
         <v>160429600</v>
       </c>
-      <c r="J766" t="n">
+      <c r="E766" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14723,7 +14717,7 @@
       <c r="C767" t="n">
         <v>160429600</v>
       </c>
-      <c r="J767" t="n">
+      <c r="E767" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14741,7 +14735,7 @@
       <c r="C768" t="n">
         <v>160429600</v>
       </c>
-      <c r="J768" t="inlineStr">
+      <c r="E768" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14761,7 +14755,7 @@
       <c r="C769" t="n">
         <v>160429600</v>
       </c>
-      <c r="J769" t="inlineStr">
+      <c r="E769" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14781,7 +14775,7 @@
       <c r="C770" t="n">
         <v>160429600</v>
       </c>
-      <c r="J770" t="inlineStr">
+      <c r="E770" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14853,7 +14847,7 @@
       <c r="C774" t="n">
         <v>160429602</v>
       </c>
-      <c r="J774" t="n">
+      <c r="E774" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14871,7 +14865,7 @@
       <c r="C775" t="n">
         <v>160429602</v>
       </c>
-      <c r="J775" t="inlineStr">
+      <c r="E775" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -14891,7 +14885,7 @@
       <c r="C776" t="n">
         <v>160429602</v>
       </c>
-      <c r="J776" t="inlineStr">
+      <c r="E776" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -14911,7 +14905,7 @@
       <c r="C777" t="n">
         <v>160429602</v>
       </c>
-      <c r="J777" t="n">
+      <c r="E777" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14929,7 +14923,7 @@
       <c r="C778" t="n">
         <v>160429602</v>
       </c>
-      <c r="J778" t="n">
+      <c r="E778" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14947,7 +14941,7 @@
       <c r="C779" t="n">
         <v>160429602</v>
       </c>
-      <c r="J779" t="inlineStr">
+      <c r="E779" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14967,7 +14961,7 @@
       <c r="C780" t="n">
         <v>160429602</v>
       </c>
-      <c r="J780" t="inlineStr">
+      <c r="E780" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14987,7 +14981,7 @@
       <c r="C781" t="n">
         <v>160429602</v>
       </c>
-      <c r="J781" t="inlineStr">
+      <c r="E781" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15059,7 +15053,7 @@
       <c r="C785" t="n">
         <v>160429606</v>
       </c>
-      <c r="J785" t="n">
+      <c r="E785" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15077,7 +15071,7 @@
       <c r="C786" t="n">
         <v>160429606</v>
       </c>
-      <c r="J786" t="inlineStr">
+      <c r="E786" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -15097,7 +15091,7 @@
       <c r="C787" t="n">
         <v>160429606</v>
       </c>
-      <c r="J787" t="inlineStr">
+      <c r="E787" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -15117,7 +15111,7 @@
       <c r="C788" t="n">
         <v>160429606</v>
       </c>
-      <c r="J788" t="n">
+      <c r="E788" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15135,7 +15129,7 @@
       <c r="C789" t="n">
         <v>160429606</v>
       </c>
-      <c r="J789" t="n">
+      <c r="E789" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15153,7 +15147,7 @@
       <c r="C790" t="n">
         <v>160429606</v>
       </c>
-      <c r="J790" t="inlineStr">
+      <c r="E790" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15173,7 +15167,7 @@
       <c r="C791" t="n">
         <v>160429606</v>
       </c>
-      <c r="J791" t="inlineStr">
+      <c r="E791" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15193,7 +15187,7 @@
       <c r="C792" t="n">
         <v>160429606</v>
       </c>
-      <c r="J792" t="inlineStr">
+      <c r="E792" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15265,7 +15259,7 @@
       <c r="C796" t="n">
         <v>160429607</v>
       </c>
-      <c r="J796" t="n">
+      <c r="E796" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15283,7 +15277,7 @@
       <c r="C797" t="n">
         <v>160429607</v>
       </c>
-      <c r="J797" t="inlineStr">
+      <c r="E797" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -15303,7 +15297,7 @@
       <c r="C798" t="n">
         <v>160429607</v>
       </c>
-      <c r="J798" t="inlineStr">
+      <c r="E798" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -15323,7 +15317,7 @@
       <c r="C799" t="n">
         <v>160429607</v>
       </c>
-      <c r="J799" t="n">
+      <c r="E799" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15341,7 +15335,7 @@
       <c r="C800" t="n">
         <v>160429607</v>
       </c>
-      <c r="J800" t="n">
+      <c r="E800" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15359,7 +15353,7 @@
       <c r="C801" t="n">
         <v>160429607</v>
       </c>
-      <c r="J801" t="inlineStr">
+      <c r="E801" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15379,7 +15373,7 @@
       <c r="C802" t="n">
         <v>160429607</v>
       </c>
-      <c r="J802" t="inlineStr">
+      <c r="E802" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15399,7 +15393,7 @@
       <c r="C803" t="n">
         <v>160429607</v>
       </c>
-      <c r="J803" t="inlineStr">
+      <c r="E803" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15471,8 +15465,8 @@
       <c r="C807" t="n">
         <v>168338412</v>
       </c>
-      <c r="J807" t="n">
-        <v>0</v>
+      <c r="E807" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="808">
@@ -15489,7 +15483,7 @@
       <c r="C808" t="n">
         <v>168338412</v>
       </c>
-      <c r="J808" t="inlineStr">
+      <c r="E808" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -15509,7 +15503,7 @@
       <c r="C809" t="n">
         <v>168338412</v>
       </c>
-      <c r="J809" t="inlineStr">
+      <c r="E809" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -15529,7 +15523,7 @@
       <c r="C810" t="n">
         <v>168338412</v>
       </c>
-      <c r="J810" t="n">
+      <c r="E810" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15547,7 +15541,7 @@
       <c r="C811" t="n">
         <v>168338412</v>
       </c>
-      <c r="J811" t="n">
+      <c r="E811" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15565,7 +15559,7 @@
       <c r="C812" t="n">
         <v>168338412</v>
       </c>
-      <c r="J812" t="inlineStr">
+      <c r="E812" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15585,7 +15579,7 @@
       <c r="C813" t="n">
         <v>168338412</v>
       </c>
-      <c r="J813" t="inlineStr">
+      <c r="E813" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15605,7 +15599,7 @@
       <c r="C814" t="n">
         <v>168338412</v>
       </c>
-      <c r="J814" t="inlineStr">
+      <c r="E814" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15677,8 +15671,8 @@
       <c r="C818" t="n">
         <v>168522530</v>
       </c>
-      <c r="J818" t="n">
-        <v>23</v>
+      <c r="E818" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="819">
@@ -15695,7 +15689,7 @@
       <c r="C819" t="n">
         <v>168522530</v>
       </c>
-      <c r="J819" t="inlineStr">
+      <c r="E819" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -15715,7 +15709,7 @@
       <c r="C820" t="n">
         <v>168522530</v>
       </c>
-      <c r="J820" t="inlineStr">
+      <c r="E820" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -15735,7 +15729,7 @@
       <c r="C821" t="n">
         <v>168522530</v>
       </c>
-      <c r="J821" t="n">
+      <c r="E821" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15753,7 +15747,7 @@
       <c r="C822" t="n">
         <v>168522530</v>
       </c>
-      <c r="J822" t="n">
+      <c r="E822" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15771,7 +15765,7 @@
       <c r="C823" t="n">
         <v>168522530</v>
       </c>
-      <c r="J823" t="inlineStr">
+      <c r="E823" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15791,7 +15785,7 @@
       <c r="C824" t="n">
         <v>168522530</v>
       </c>
-      <c r="J824" t="inlineStr">
+      <c r="E824" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15811,7 +15805,7 @@
       <c r="C825" t="n">
         <v>168522530</v>
       </c>
-      <c r="J825" t="inlineStr">
+      <c r="E825" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15883,7 +15877,7 @@
       <c r="C829" t="n">
         <v>168558920</v>
       </c>
-      <c r="J829" t="n">
+      <c r="E829" t="n">
         <v>28</v>
       </c>
     </row>
@@ -15901,7 +15895,7 @@
       <c r="C830" t="n">
         <v>168558920</v>
       </c>
-      <c r="J830" t="inlineStr">
+      <c r="E830" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -15921,7 +15915,7 @@
       <c r="C831" t="n">
         <v>168558920</v>
       </c>
-      <c r="J831" t="inlineStr">
+      <c r="E831" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -15941,7 +15935,7 @@
       <c r="C832" t="n">
         <v>168558920</v>
       </c>
-      <c r="J832" t="n">
+      <c r="E832" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15959,7 +15953,7 @@
       <c r="C833" t="n">
         <v>168558920</v>
       </c>
-      <c r="J833" t="n">
+      <c r="E833" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15977,7 +15971,7 @@
       <c r="C834" t="n">
         <v>168558920</v>
       </c>
-      <c r="J834" t="inlineStr">
+      <c r="E834" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15997,7 +15991,7 @@
       <c r="C835" t="n">
         <v>168558920</v>
       </c>
-      <c r="J835" t="inlineStr">
+      <c r="E835" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -16017,7 +16011,7 @@
       <c r="C836" t="n">
         <v>168558920</v>
       </c>
-      <c r="J836" t="inlineStr">
+      <c r="E836" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -16089,8 +16083,8 @@
       <c r="C840" t="n">
         <v>172822733</v>
       </c>
-      <c r="J840" t="n">
-        <v>7</v>
+      <c r="E840" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="841">
@@ -16107,7 +16101,7 @@
       <c r="C841" t="n">
         <v>172822733</v>
       </c>
-      <c r="J841" t="inlineStr">
+      <c r="E841" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -16127,7 +16121,7 @@
       <c r="C842" t="n">
         <v>172822733</v>
       </c>
-      <c r="J842" t="inlineStr">
+      <c r="E842" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -16147,7 +16141,7 @@
       <c r="C843" t="n">
         <v>172822733</v>
       </c>
-      <c r="J843" t="n">
+      <c r="E843" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16165,7 +16159,7 @@
       <c r="C844" t="n">
         <v>172822733</v>
       </c>
-      <c r="J844" t="n">
+      <c r="E844" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16183,7 +16177,7 @@
       <c r="C845" t="n">
         <v>172822733</v>
       </c>
-      <c r="J845" t="inlineStr">
+      <c r="E845" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -16203,7 +16197,7 @@
       <c r="C846" t="n">
         <v>172822733</v>
       </c>
-      <c r="J846" t="inlineStr">
+      <c r="E846" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -16223,7 +16217,7 @@
       <c r="C847" t="n">
         <v>172822733</v>
       </c>
-      <c r="J847" t="inlineStr">
+      <c r="E847" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -16295,8 +16289,8 @@
       <c r="C851" t="n">
         <v>179010873</v>
       </c>
-      <c r="J851" t="n">
-        <v>44</v>
+      <c r="E851" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="852">
@@ -16313,9 +16307,9 @@
       <c r="C852" t="n">
         <v>179010873</v>
       </c>
-      <c r="J852" t="inlineStr">
-        <is>
-          <t>2%</t>
+      <c r="E852" t="inlineStr">
+        <is>
+          <t>0%</t>
         </is>
       </c>
     </row>
@@ -16333,7 +16327,7 @@
       <c r="C853" t="n">
         <v>179010873</v>
       </c>
-      <c r="J853" t="inlineStr">
+      <c r="E853" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -16353,8 +16347,8 @@
       <c r="C854" t="n">
         <v>179010873</v>
       </c>
-      <c r="J854" t="n">
-        <v>1</v>
+      <c r="E854" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="855">
@@ -16371,7 +16365,7 @@
       <c r="C855" t="n">
         <v>179010873</v>
       </c>
-      <c r="J855" t="n">
+      <c r="E855" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16389,7 +16383,7 @@
       <c r="C856" t="n">
         <v>179010873</v>
       </c>
-      <c r="J856" t="inlineStr">
+      <c r="E856" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -16409,7 +16403,7 @@
       <c r="C857" t="n">
         <v>179010873</v>
       </c>
-      <c r="J857" t="inlineStr">
+      <c r="E857" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -16429,7 +16423,7 @@
       <c r="C858" t="n">
         <v>179010873</v>
       </c>
-      <c r="J858" t="inlineStr">
+      <c r="E858" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -16501,8 +16495,8 @@
       <c r="C862" t="n">
         <v>179026305</v>
       </c>
-      <c r="J862" t="n">
-        <v>41</v>
+      <c r="E862" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="863">
@@ -16519,7 +16513,7 @@
       <c r="C863" t="n">
         <v>179026305</v>
       </c>
-      <c r="J863" t="inlineStr">
+      <c r="E863" t="inlineStr">
         <is>
           <t>2%</t>
         </is>
@@ -16539,7 +16533,7 @@
       <c r="C864" t="n">
         <v>179026305</v>
       </c>
-      <c r="J864" t="inlineStr">
+      <c r="E864" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -16559,7 +16553,7 @@
       <c r="C865" t="n">
         <v>179026305</v>
       </c>
-      <c r="J865" t="n">
+      <c r="E865" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16577,7 +16571,7 @@
       <c r="C866" t="n">
         <v>179026305</v>
       </c>
-      <c r="J866" t="n">
+      <c r="E866" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16595,7 +16589,7 @@
       <c r="C867" t="n">
         <v>179026305</v>
       </c>
-      <c r="J867" t="inlineStr">
+      <c r="E867" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -16615,7 +16609,7 @@
       <c r="C868" t="n">
         <v>179026305</v>
       </c>
-      <c r="J868" t="inlineStr">
+      <c r="E868" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -16635,7 +16629,7 @@
       <c r="C869" t="n">
         <v>179026305</v>
       </c>
-      <c r="J869" t="inlineStr">
+      <c r="E869" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -16707,8 +16701,8 @@
       <c r="C873" t="n">
         <v>179102423</v>
       </c>
-      <c r="J873" t="n">
-        <v>1</v>
+      <c r="E873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="874">
@@ -16725,7 +16719,7 @@
       <c r="C874" t="n">
         <v>179102423</v>
       </c>
-      <c r="J874" t="inlineStr">
+      <c r="E874" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -16745,7 +16739,7 @@
       <c r="C875" t="n">
         <v>179102423</v>
       </c>
-      <c r="J875" t="inlineStr">
+      <c r="E875" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -16765,7 +16759,7 @@
       <c r="C876" t="n">
         <v>179102423</v>
       </c>
-      <c r="J876" t="n">
+      <c r="E876" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16783,7 +16777,7 @@
       <c r="C877" t="n">
         <v>179102423</v>
       </c>
-      <c r="J877" t="n">
+      <c r="E877" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16801,7 +16795,7 @@
       <c r="C878" t="n">
         <v>179102423</v>
       </c>
-      <c r="J878" t="inlineStr">
+      <c r="E878" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -16821,7 +16815,7 @@
       <c r="C879" t="n">
         <v>179102423</v>
       </c>
-      <c r="J879" t="inlineStr">
+      <c r="E879" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -16841,7 +16835,7 @@
       <c r="C880" t="n">
         <v>179102423</v>
       </c>
-      <c r="J880" t="inlineStr">
+      <c r="E880" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -16913,7 +16907,7 @@
       <c r="C884" t="n">
         <v>179720347</v>
       </c>
-      <c r="J884" t="n">
+      <c r="E884" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16931,7 +16925,7 @@
       <c r="C885" t="n">
         <v>179720347</v>
       </c>
-      <c r="J885" t="inlineStr">
+      <c r="E885" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -16951,7 +16945,7 @@
       <c r="C886" t="n">
         <v>179720347</v>
       </c>
-      <c r="J886" t="inlineStr">
+      <c r="E886" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -16971,7 +16965,7 @@
       <c r="C887" t="n">
         <v>179720347</v>
       </c>
-      <c r="J887" t="n">
+      <c r="E887" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16989,7 +16983,7 @@
       <c r="C888" t="n">
         <v>179720347</v>
       </c>
-      <c r="J888" t="n">
+      <c r="E888" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17007,7 +17001,7 @@
       <c r="C889" t="n">
         <v>179720347</v>
       </c>
-      <c r="J889" t="inlineStr">
+      <c r="E889" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -17027,7 +17021,7 @@
       <c r="C890" t="n">
         <v>179720347</v>
       </c>
-      <c r="J890" t="inlineStr">
+      <c r="E890" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -17047,7 +17041,7 @@
       <c r="C891" t="n">
         <v>179720347</v>
       </c>
-      <c r="J891" t="inlineStr">
+      <c r="E891" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -17119,8 +17113,8 @@
       <c r="C895" t="n">
         <v>179730254</v>
       </c>
-      <c r="J895" t="n">
-        <v>32</v>
+      <c r="E895" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="896">
@@ -17137,9 +17131,9 @@
       <c r="C896" t="n">
         <v>179730254</v>
       </c>
-      <c r="J896" t="inlineStr">
-        <is>
-          <t>9%</t>
+      <c r="E896" t="inlineStr">
+        <is>
+          <t>0%</t>
         </is>
       </c>
     </row>
@@ -17157,7 +17151,7 @@
       <c r="C897" t="n">
         <v>179730254</v>
       </c>
-      <c r="J897" t="inlineStr">
+      <c r="E897" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -17177,8 +17171,8 @@
       <c r="C898" t="n">
         <v>179730254</v>
       </c>
-      <c r="J898" t="n">
-        <v>3</v>
+      <c r="E898" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="899">
@@ -17195,7 +17189,7 @@
       <c r="C899" t="n">
         <v>179730254</v>
       </c>
-      <c r="J899" t="n">
+      <c r="E899" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17213,7 +17207,7 @@
       <c r="C900" t="n">
         <v>179730254</v>
       </c>
-      <c r="J900" t="inlineStr">
+      <c r="E900" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -17233,7 +17227,7 @@
       <c r="C901" t="n">
         <v>179730254</v>
       </c>
-      <c r="J901" t="inlineStr">
+      <c r="E901" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -17253,7 +17247,7 @@
       <c r="C902" t="n">
         <v>179730254</v>
       </c>
-      <c r="J902" t="inlineStr">
+      <c r="E902" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -17325,8 +17319,8 @@
       <c r="C906" t="n">
         <v>181929517</v>
       </c>
-      <c r="J906" t="n">
-        <v>21</v>
+      <c r="E906" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="907">
@@ -17343,7 +17337,7 @@
       <c r="C907" t="n">
         <v>181929517</v>
       </c>
-      <c r="J907" t="inlineStr">
+      <c r="E907" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -17363,7 +17357,7 @@
       <c r="C908" t="n">
         <v>181929517</v>
       </c>
-      <c r="J908" t="inlineStr">
+      <c r="E908" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -17383,7 +17377,7 @@
       <c r="C909" t="n">
         <v>181929517</v>
       </c>
-      <c r="J909" t="n">
+      <c r="E909" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17401,7 +17395,7 @@
       <c r="C910" t="n">
         <v>181929517</v>
       </c>
-      <c r="J910" t="n">
+      <c r="E910" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17419,7 +17413,7 @@
       <c r="C911" t="n">
         <v>181929517</v>
       </c>
-      <c r="J911" t="inlineStr">
+      <c r="E911" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -17439,7 +17433,7 @@
       <c r="C912" t="n">
         <v>181929517</v>
       </c>
-      <c r="J912" t="inlineStr">
+      <c r="E912" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -17459,7 +17453,7 @@
       <c r="C913" t="n">
         <v>181929517</v>
       </c>
-      <c r="J913" t="inlineStr">
+      <c r="E913" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -17531,8 +17525,8 @@
       <c r="C917" t="n">
         <v>182246594</v>
       </c>
-      <c r="J917" t="n">
-        <v>27</v>
+      <c r="E917" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="918">
@@ -17549,7 +17543,7 @@
       <c r="C918" t="n">
         <v>182246594</v>
       </c>
-      <c r="J918" t="inlineStr">
+      <c r="E918" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -17569,7 +17563,7 @@
       <c r="C919" t="n">
         <v>182246594</v>
       </c>
-      <c r="J919" t="inlineStr">
+      <c r="E919" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -17589,7 +17583,7 @@
       <c r="C920" t="n">
         <v>182246594</v>
       </c>
-      <c r="J920" t="n">
+      <c r="E920" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17607,7 +17601,7 @@
       <c r="C921" t="n">
         <v>182246594</v>
       </c>
-      <c r="J921" t="n">
+      <c r="E921" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17625,7 +17619,7 @@
       <c r="C922" t="n">
         <v>182246594</v>
       </c>
-      <c r="J922" t="inlineStr">
+      <c r="E922" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -17645,7 +17639,7 @@
       <c r="C923" t="n">
         <v>182246594</v>
       </c>
-      <c r="J923" t="inlineStr">
+      <c r="E923" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -17665,7 +17659,7 @@
       <c r="C924" t="n">
         <v>182246594</v>
       </c>
-      <c r="J924" t="inlineStr">
+      <c r="E924" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -17737,8 +17731,8 @@
       <c r="C928" t="n">
         <v>184845754</v>
       </c>
-      <c r="J928" t="n">
-        <v>10</v>
+      <c r="E928" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="929">
@@ -17755,7 +17749,7 @@
       <c r="C929" t="n">
         <v>184845754</v>
       </c>
-      <c r="J929" t="inlineStr">
+      <c r="E929" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -17775,7 +17769,7 @@
       <c r="C930" t="n">
         <v>184845754</v>
       </c>
-      <c r="J930" t="inlineStr">
+      <c r="E930" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -17795,7 +17789,7 @@
       <c r="C931" t="n">
         <v>184845754</v>
       </c>
-      <c r="J931" t="n">
+      <c r="E931" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17813,7 +17807,7 @@
       <c r="C932" t="n">
         <v>184845754</v>
       </c>
-      <c r="J932" t="n">
+      <c r="E932" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17831,7 +17825,7 @@
       <c r="C933" t="n">
         <v>184845754</v>
       </c>
-      <c r="J933" t="inlineStr">
+      <c r="E933" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -17851,7 +17845,7 @@
       <c r="C934" t="n">
         <v>184845754</v>
       </c>
-      <c r="J934" t="inlineStr">
+      <c r="E934" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -17871,7 +17865,7 @@
       <c r="C935" t="n">
         <v>184845754</v>
       </c>
-      <c r="J935" t="inlineStr">
+      <c r="E935" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -17943,8 +17937,8 @@
       <c r="C939" t="n">
         <v>196578249</v>
       </c>
-      <c r="J939" t="n">
-        <v>53</v>
+      <c r="E939" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="940">
@@ -17961,7 +17955,7 @@
       <c r="C940" t="n">
         <v>196578249</v>
       </c>
-      <c r="J940" t="inlineStr">
+      <c r="E940" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -17981,7 +17975,7 @@
       <c r="C941" t="n">
         <v>196578249</v>
       </c>
-      <c r="J941" t="inlineStr">
+      <c r="E941" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -18001,7 +17995,7 @@
       <c r="C942" t="n">
         <v>196578249</v>
       </c>
-      <c r="J942" t="n">
+      <c r="E942" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18019,7 +18013,7 @@
       <c r="C943" t="n">
         <v>196578249</v>
       </c>
-      <c r="J943" t="n">
+      <c r="E943" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18037,7 +18031,7 @@
       <c r="C944" t="n">
         <v>196578249</v>
       </c>
-      <c r="J944" t="inlineStr">
+      <c r="E944" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -18057,7 +18051,7 @@
       <c r="C945" t="n">
         <v>196578249</v>
       </c>
-      <c r="J945" t="inlineStr">
+      <c r="E945" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -18077,7 +18071,7 @@
       <c r="C946" t="n">
         <v>196578249</v>
       </c>
-      <c r="J946" t="inlineStr">
+      <c r="E946" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -18149,7 +18143,7 @@
       <c r="C950" t="n">
         <v>214122485</v>
       </c>
-      <c r="J950" t="n">
+      <c r="E950" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18167,7 +18161,7 @@
       <c r="C951" t="n">
         <v>214122485</v>
       </c>
-      <c r="J951" t="inlineStr">
+      <c r="E951" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -18187,7 +18181,7 @@
       <c r="C952" t="n">
         <v>214122485</v>
       </c>
-      <c r="J952" t="inlineStr">
+      <c r="E952" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -18207,7 +18201,7 @@
       <c r="C953" t="n">
         <v>214122485</v>
       </c>
-      <c r="J953" t="n">
+      <c r="E953" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18225,7 +18219,7 @@
       <c r="C954" t="n">
         <v>214122485</v>
       </c>
-      <c r="J954" t="n">
+      <c r="E954" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18243,7 +18237,7 @@
       <c r="C955" t="n">
         <v>214122485</v>
       </c>
-      <c r="J955" t="inlineStr">
+      <c r="E955" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -18263,7 +18257,7 @@
       <c r="C956" t="n">
         <v>214122485</v>
       </c>
-      <c r="J956" t="inlineStr">
+      <c r="E956" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -18283,7 +18277,7 @@
       <c r="C957" t="n">
         <v>214122485</v>
       </c>
-      <c r="J957" t="inlineStr">
+      <c r="E957" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/analyticWB.xlsx
+++ b/analyticWB.xlsx
@@ -487,8 +487,8 @@
       <c r="C4" t="n">
         <v>217108094</v>
       </c>
-      <c r="E4" t="n">
-        <v>3669</v>
+      <c r="D4" t="n">
+        <v>3565</v>
       </c>
     </row>
     <row r="5">
@@ -505,9 +505,9 @@
       <c r="C5" t="n">
         <v>217108094</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>30%</t>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27%</t>
         </is>
       </c>
     </row>
@@ -525,9 +525,9 @@
       <c r="C6" t="n">
         <v>217108094</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>19%</t>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17%</t>
         </is>
       </c>
     </row>
@@ -545,8 +545,8 @@
       <c r="C7" t="n">
         <v>217108094</v>
       </c>
-      <c r="E7" t="n">
-        <v>1083</v>
+      <c r="D7" t="n">
+        <v>962</v>
       </c>
     </row>
     <row r="8">
@@ -563,7 +563,7 @@
       <c r="C8" t="n">
         <v>217108094</v>
       </c>
-      <c r="E8" t="n">
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -581,8 +581,8 @@
       <c r="C9" t="n">
         <v>217108094</v>
       </c>
-      <c r="E9" t="n">
-        <v>18735</v>
+      <c r="D9" t="n">
+        <v>18174</v>
       </c>
     </row>
     <row r="10">
@@ -599,8 +599,8 @@
       <c r="C10" t="n">
         <v>217108094</v>
       </c>
-      <c r="E10" t="n">
-        <v>1890</v>
+      <c r="D10" t="n">
+        <v>2268</v>
       </c>
     </row>
     <row r="11">
@@ -617,8 +617,8 @@
       <c r="C11" t="n">
         <v>217108094</v>
       </c>
-      <c r="E11" t="n">
-        <v>10.09</v>
+      <c r="D11" t="n">
+        <v>12.48</v>
       </c>
     </row>
     <row r="13">
@@ -687,8 +687,8 @@
       <c r="C15" t="n">
         <v>211882526</v>
       </c>
-      <c r="E15" t="n">
-        <v>2399</v>
+      <c r="D15" t="n">
+        <v>2447</v>
       </c>
     </row>
     <row r="16">
@@ -705,9 +705,9 @@
       <c r="C16" t="n">
         <v>211882526</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>25%</t>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>23%</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       <c r="C17" t="n">
         <v>211882526</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>19%</t>
         </is>
@@ -745,8 +745,8 @@
       <c r="C18" t="n">
         <v>211882526</v>
       </c>
-      <c r="E18" t="n">
-        <v>588</v>
+      <c r="D18" t="n">
+        <v>561</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
       <c r="C19" t="n">
         <v>211882526</v>
       </c>
-      <c r="E19" t="n">
+      <c r="D19" t="n">
         <v>260</v>
       </c>
     </row>
@@ -781,8 +781,8 @@
       <c r="C20" t="n">
         <v>211882526</v>
       </c>
-      <c r="E20" t="n">
-        <v>4917</v>
+      <c r="D20" t="n">
+        <v>9616</v>
       </c>
     </row>
     <row r="21">
@@ -799,8 +799,8 @@
       <c r="C21" t="n">
         <v>211882526</v>
       </c>
-      <c r="E21" t="n">
-        <v>310</v>
+      <c r="D21" t="n">
+        <v>544</v>
       </c>
     </row>
     <row r="22">
@@ -817,8 +817,8 @@
       <c r="C22" t="n">
         <v>211882526</v>
       </c>
-      <c r="E22" t="n">
-        <v>6.3</v>
+      <c r="D22" t="n">
+        <v>5.66</v>
       </c>
     </row>
     <row r="24">
@@ -887,8 +887,8 @@
       <c r="C26" t="n">
         <v>206765525</v>
       </c>
-      <c r="E26" t="n">
-        <v>3298</v>
+      <c r="D26" t="n">
+        <v>3350</v>
       </c>
     </row>
     <row r="27">
@@ -905,7 +905,7 @@
       <c r="C27" t="n">
         <v>206765525</v>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>16%</t>
         </is>
@@ -925,9 +925,9 @@
       <c r="C28" t="n">
         <v>206765525</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>16%</t>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15%</t>
         </is>
       </c>
     </row>
@@ -945,8 +945,8 @@
       <c r="C29" t="n">
         <v>206765525</v>
       </c>
-      <c r="E29" t="n">
-        <v>518</v>
+      <c r="D29" t="n">
+        <v>532</v>
       </c>
     </row>
     <row r="30">
@@ -963,7 +963,7 @@
       <c r="C30" t="n">
         <v>206765525</v>
       </c>
-      <c r="E30" t="n">
+      <c r="D30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -981,8 +981,8 @@
       <c r="C31" t="n">
         <v>206765525</v>
       </c>
-      <c r="E31" t="n">
-        <v>11679</v>
+      <c r="D31" t="n">
+        <v>9648</v>
       </c>
     </row>
     <row r="32">
@@ -999,8 +999,8 @@
       <c r="C32" t="n">
         <v>206765525</v>
       </c>
-      <c r="E32" t="n">
-        <v>655</v>
+      <c r="D32" t="n">
+        <v>641</v>
       </c>
     </row>
     <row r="33">
@@ -1017,8 +1017,8 @@
       <c r="C33" t="n">
         <v>206765525</v>
       </c>
-      <c r="E33" t="n">
-        <v>5.61</v>
+      <c r="D33" t="n">
+        <v>6.64</v>
       </c>
     </row>
     <row r="35">
@@ -1087,8 +1087,8 @@
       <c r="C37" t="n">
         <v>206768287</v>
       </c>
-      <c r="E37" t="n">
-        <v>1750</v>
+      <c r="D37" t="n">
+        <v>1875</v>
       </c>
     </row>
     <row r="38">
@@ -1105,9 +1105,9 @@
       <c r="C38" t="n">
         <v>206768287</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>17%</t>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>20%</t>
         </is>
       </c>
     </row>
@@ -1125,9 +1125,9 @@
       <c r="C39" t="n">
         <v>206768287</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>22%</t>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>20%</t>
         </is>
       </c>
     </row>
@@ -1145,8 +1145,8 @@
       <c r="C40" t="n">
         <v>206768287</v>
       </c>
-      <c r="E40" t="n">
-        <v>298</v>
+      <c r="D40" t="n">
+        <v>376</v>
       </c>
     </row>
     <row r="41">
@@ -1163,7 +1163,7 @@
       <c r="C41" t="n">
         <v>206768287</v>
       </c>
-      <c r="E41" t="n">
+      <c r="D41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1181,8 +1181,8 @@
       <c r="C42" t="n">
         <v>206768287</v>
       </c>
-      <c r="E42" t="n">
-        <v>6899</v>
+      <c r="D42" t="n">
+        <v>7005</v>
       </c>
     </row>
     <row r="43">
@@ -1199,8 +1199,8 @@
       <c r="C43" t="n">
         <v>206768287</v>
       </c>
-      <c r="E43" t="n">
-        <v>254</v>
+      <c r="D43" t="n">
+        <v>321</v>
       </c>
     </row>
     <row r="44">
@@ -1217,8 +1217,8 @@
       <c r="C44" t="n">
         <v>206768287</v>
       </c>
-      <c r="E44" t="n">
-        <v>3.68</v>
+      <c r="D44" t="n">
+        <v>4.58</v>
       </c>
     </row>
     <row r="46">
@@ -1287,8 +1287,8 @@
       <c r="C48" t="n">
         <v>208970763</v>
       </c>
-      <c r="E48" t="n">
-        <v>2015</v>
+      <c r="D48" t="n">
+        <v>1679</v>
       </c>
     </row>
     <row r="49">
@@ -1305,9 +1305,9 @@
       <c r="C49" t="n">
         <v>208970763</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>23%</t>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>22%</t>
         </is>
       </c>
     </row>
@@ -1325,9 +1325,9 @@
       <c r="C50" t="n">
         <v>208970763</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>18%</t>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>20%</t>
         </is>
       </c>
     </row>
@@ -1345,8 +1345,8 @@
       <c r="C51" t="n">
         <v>208970763</v>
       </c>
-      <c r="E51" t="n">
-        <v>463</v>
+      <c r="D51" t="n">
+        <v>375</v>
       </c>
     </row>
     <row r="52">
@@ -1363,7 +1363,7 @@
       <c r="C52" t="n">
         <v>208970763</v>
       </c>
-      <c r="E52" t="n">
+      <c r="D52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1381,8 +1381,8 @@
       <c r="C53" t="n">
         <v>208970763</v>
       </c>
-      <c r="E53" t="n">
-        <v>6692</v>
+      <c r="D53" t="n">
+        <v>6856</v>
       </c>
     </row>
     <row r="54">
@@ -1399,8 +1399,8 @@
       <c r="C54" t="n">
         <v>208970763</v>
       </c>
-      <c r="E54" t="n">
-        <v>271</v>
+      <c r="D54" t="n">
+        <v>282</v>
       </c>
     </row>
     <row r="55">
@@ -1417,8 +1417,8 @@
       <c r="C55" t="n">
         <v>208970763</v>
       </c>
-      <c r="E55" t="n">
-        <v>4.05</v>
+      <c r="D55" t="n">
+        <v>4.11</v>
       </c>
     </row>
     <row r="57">
@@ -1487,8 +1487,8 @@
       <c r="C59" t="n">
         <v>217117687</v>
       </c>
-      <c r="E59" t="n">
-        <v>2439</v>
+      <c r="D59" t="n">
+        <v>1539</v>
       </c>
     </row>
     <row r="60">
@@ -1505,9 +1505,9 @@
       <c r="C60" t="n">
         <v>217117687</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>22%</t>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>23%</t>
         </is>
       </c>
     </row>
@@ -1525,7 +1525,7 @@
       <c r="C61" t="n">
         <v>217117687</v>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>15%</t>
         </is>
@@ -1545,8 +1545,8 @@
       <c r="C62" t="n">
         <v>217117687</v>
       </c>
-      <c r="E62" t="n">
-        <v>548</v>
+      <c r="D62" t="n">
+        <v>353</v>
       </c>
     </row>
     <row r="63">
@@ -1563,7 +1563,7 @@
       <c r="C63" t="n">
         <v>217117687</v>
       </c>
-      <c r="E63" t="n">
+      <c r="D63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1581,8 +1581,8 @@
       <c r="C64" t="n">
         <v>217117687</v>
       </c>
-      <c r="E64" t="n">
-        <v>15197</v>
+      <c r="D64" t="n">
+        <v>12466</v>
       </c>
     </row>
     <row r="65">
@@ -1599,8 +1599,8 @@
       <c r="C65" t="n">
         <v>217117687</v>
       </c>
-      <c r="E65" t="n">
-        <v>1509</v>
+      <c r="D65" t="n">
+        <v>841</v>
       </c>
     </row>
     <row r="66">
@@ -1617,8 +1617,8 @@
       <c r="C66" t="n">
         <v>217117687</v>
       </c>
-      <c r="E66" t="n">
-        <v>9.93</v>
+      <c r="D66" t="n">
+        <v>6.75</v>
       </c>
     </row>
     <row r="68">
@@ -1687,8 +1687,8 @@
       <c r="C70" t="n">
         <v>202961290</v>
       </c>
-      <c r="E70" t="n">
-        <v>866</v>
+      <c r="D70" t="n">
+        <v>884</v>
       </c>
     </row>
     <row r="71">
@@ -1705,9 +1705,9 @@
       <c r="C71" t="n">
         <v>202961290</v>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>19%</t>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>14%</t>
         </is>
       </c>
     </row>
@@ -1725,9 +1725,9 @@
       <c r="C72" t="n">
         <v>202961290</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>21%</t>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>30%</t>
         </is>
       </c>
     </row>
@@ -1745,8 +1745,8 @@
       <c r="C73" t="n">
         <v>202961290</v>
       </c>
-      <c r="E73" t="n">
-        <v>165</v>
+      <c r="D73" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="74">
@@ -1763,7 +1763,7 @@
       <c r="C74" t="n">
         <v>202961290</v>
       </c>
-      <c r="E74" t="n">
+      <c r="D74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1781,8 +1781,8 @@
       <c r="C75" t="n">
         <v>202961290</v>
       </c>
-      <c r="E75" t="n">
-        <v>12868</v>
+      <c r="D75" t="n">
+        <v>12443</v>
       </c>
     </row>
     <row r="76">
@@ -1799,8 +1799,8 @@
       <c r="C76" t="n">
         <v>202961290</v>
       </c>
-      <c r="E76" t="n">
-        <v>343</v>
+      <c r="D76" t="n">
+        <v>340</v>
       </c>
     </row>
     <row r="77">
@@ -1817,8 +1817,8 @@
       <c r="C77" t="n">
         <v>202961290</v>
       </c>
-      <c r="E77" t="n">
-        <v>2.67</v>
+      <c r="D77" t="n">
+        <v>2.73</v>
       </c>
     </row>
     <row r="79">
@@ -1887,8 +1887,8 @@
       <c r="C81" t="n">
         <v>217110298</v>
       </c>
-      <c r="E81" t="n">
-        <v>505</v>
+      <c r="D81" t="n">
+        <v>184</v>
       </c>
     </row>
     <row r="82">
@@ -1905,9 +1905,9 @@
       <c r="C82" t="n">
         <v>217110298</v>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>19%</t>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>23%</t>
         </is>
       </c>
     </row>
@@ -1925,9 +1925,9 @@
       <c r="C83" t="n">
         <v>217110298</v>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>20%</t>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>58%</t>
         </is>
       </c>
     </row>
@@ -1945,8 +1945,8 @@
       <c r="C84" t="n">
         <v>217110298</v>
       </c>
-      <c r="E84" t="n">
-        <v>97</v>
+      <c r="D84" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="85">
@@ -1963,7 +1963,7 @@
       <c r="C85" t="n">
         <v>217110298</v>
       </c>
-      <c r="E85" t="n">
+      <c r="D85" t="n">
         <v>469</v>
       </c>
     </row>
@@ -1981,8 +1981,10 @@
       <c r="C86" t="n">
         <v>217110298</v>
       </c>
-      <c r="E86" t="n">
-        <v>7005</v>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -1999,8 +2001,10 @@
       <c r="C87" t="n">
         <v>217110298</v>
       </c>
-      <c r="E87" t="n">
-        <v>327</v>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -2017,8 +2021,10 @@
       <c r="C88" t="n">
         <v>217110298</v>
       </c>
-      <c r="E88" t="n">
-        <v>4.67</v>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -2087,8 +2093,8 @@
       <c r="C92" t="n">
         <v>217112798</v>
       </c>
-      <c r="E92" t="n">
-        <v>391</v>
+      <c r="D92" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="93">
@@ -2105,7 +2111,7 @@
       <c r="C93" t="n">
         <v>217112798</v>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>31%</t>
         </is>
@@ -2125,9 +2131,9 @@
       <c r="C94" t="n">
         <v>217112798</v>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>9%</t>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>42%</t>
         </is>
       </c>
     </row>
@@ -2145,8 +2151,8 @@
       <c r="C95" t="n">
         <v>217112798</v>
       </c>
-      <c r="E95" t="n">
-        <v>120</v>
+      <c r="D95" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="96">
@@ -2163,7 +2169,7 @@
       <c r="C96" t="n">
         <v>217112798</v>
       </c>
-      <c r="E96" t="n">
+      <c r="D96" t="n">
         <v>200</v>
       </c>
     </row>
@@ -2181,8 +2187,10 @@
       <c r="C97" t="n">
         <v>217112798</v>
       </c>
-      <c r="E97" t="n">
-        <v>6980</v>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -2199,8 +2207,10 @@
       <c r="C98" t="n">
         <v>217112798</v>
       </c>
-      <c r="E98" t="n">
-        <v>254</v>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -2217,8 +2227,10 @@
       <c r="C99" t="n">
         <v>217112798</v>
       </c>
-      <c r="E99" t="n">
-        <v>3.64</v>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -2287,8 +2299,8 @@
       <c r="C103" t="n">
         <v>185085851</v>
       </c>
-      <c r="E103" t="n">
-        <v>336</v>
+      <c r="D103" t="n">
+        <v>390</v>
       </c>
     </row>
     <row r="104">
@@ -2305,9 +2317,9 @@
       <c r="C104" t="n">
         <v>185085851</v>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>11%</t>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>8%</t>
         </is>
       </c>
     </row>
@@ -2325,9 +2337,9 @@
       <c r="C105" t="n">
         <v>185085851</v>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>28%</t>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>33%</t>
         </is>
       </c>
     </row>
@@ -2345,8 +2357,8 @@
       <c r="C106" t="n">
         <v>185085851</v>
       </c>
-      <c r="E106" t="n">
-        <v>36</v>
+      <c r="D106" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="107">
@@ -2363,7 +2375,7 @@
       <c r="C107" t="n">
         <v>185085851</v>
       </c>
-      <c r="E107" t="n">
+      <c r="D107" t="n">
         <v>158</v>
       </c>
     </row>
@@ -2381,7 +2393,7 @@
       <c r="C108" t="n">
         <v>185085851</v>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2401,7 +2413,7 @@
       <c r="C109" t="n">
         <v>185085851</v>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2421,7 +2433,7 @@
       <c r="C110" t="n">
         <v>185085851</v>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2493,8 +2505,8 @@
       <c r="C114" t="n">
         <v>196145760</v>
       </c>
-      <c r="E114" t="n">
-        <v>191</v>
+      <c r="D114" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="115">
@@ -2511,9 +2523,9 @@
       <c r="C115" t="n">
         <v>196145760</v>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>15%</t>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>23%</t>
         </is>
       </c>
     </row>
@@ -2531,9 +2543,9 @@
       <c r="C116" t="n">
         <v>196145760</v>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>7%</t>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>26%</t>
         </is>
       </c>
     </row>
@@ -2551,8 +2563,8 @@
       <c r="C117" t="n">
         <v>196145760</v>
       </c>
-      <c r="E117" t="n">
-        <v>28</v>
+      <c r="D117" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="118">
@@ -2569,7 +2581,7 @@
       <c r="C118" t="n">
         <v>196145760</v>
       </c>
-      <c r="E118" t="n">
+      <c r="D118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2587,8 +2599,10 @@
       <c r="C119" t="n">
         <v>196145760</v>
       </c>
-      <c r="E119" t="n">
-        <v>3</v>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="120">
@@ -2605,8 +2619,10 @@
       <c r="C120" t="n">
         <v>196145760</v>
       </c>
-      <c r="E120" t="n">
-        <v>0</v>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="121">
@@ -2623,8 +2639,10 @@
       <c r="C121" t="n">
         <v>196145760</v>
       </c>
-      <c r="E121" t="n">
-        <v>0</v>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="123">
@@ -2693,8 +2711,8 @@
       <c r="C125" t="n">
         <v>198152468</v>
       </c>
-      <c r="E125" t="n">
-        <v>258</v>
+      <c r="D125" t="n">
+        <v>265</v>
       </c>
     </row>
     <row r="126">
@@ -2711,9 +2729,9 @@
       <c r="C126" t="n">
         <v>198152468</v>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>4%</t>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>7%</t>
         </is>
       </c>
     </row>
@@ -2731,9 +2749,9 @@
       <c r="C127" t="n">
         <v>198152468</v>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>18%</t>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>11%</t>
         </is>
       </c>
     </row>
@@ -2751,8 +2769,8 @@
       <c r="C128" t="n">
         <v>198152468</v>
       </c>
-      <c r="E128" t="n">
-        <v>11</v>
+      <c r="D128" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="129">
@@ -2769,7 +2787,7 @@
       <c r="C129" t="n">
         <v>198152468</v>
       </c>
-      <c r="E129" t="n">
+      <c r="D129" t="n">
         <v>1079</v>
       </c>
     </row>
@@ -2787,7 +2805,7 @@
       <c r="C130" t="n">
         <v>198152468</v>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2807,7 +2825,7 @@
       <c r="C131" t="n">
         <v>198152468</v>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="D131" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2827,7 +2845,7 @@
       <c r="C132" t="n">
         <v>198152468</v>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="D132" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2899,8 +2917,8 @@
       <c r="C136" t="n">
         <v>172885021</v>
       </c>
-      <c r="E136" t="n">
-        <v>25</v>
+      <c r="D136" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="137">
@@ -2917,9 +2935,9 @@
       <c r="C137" t="n">
         <v>172885021</v>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>12%</t>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>9%</t>
         </is>
       </c>
     </row>
@@ -2937,9 +2955,9 @@
       <c r="C138" t="n">
         <v>172885021</v>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>67%</t>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
@@ -2957,7 +2975,7 @@
       <c r="C139" t="n">
         <v>172885021</v>
       </c>
-      <c r="E139" t="n">
+      <c r="D139" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2975,7 +2993,7 @@
       <c r="C140" t="n">
         <v>172885021</v>
       </c>
-      <c r="E140" t="n">
+      <c r="D140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2993,7 +3011,7 @@
       <c r="C141" t="n">
         <v>172885021</v>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="D141" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3013,7 +3031,7 @@
       <c r="C142" t="n">
         <v>172885021</v>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="D142" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3033,7 +3051,7 @@
       <c r="C143" t="n">
         <v>172885021</v>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="D143" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3105,8 +3123,8 @@
       <c r="C147" t="n">
         <v>196148405</v>
       </c>
-      <c r="E147" t="n">
-        <v>135</v>
+      <c r="D147" t="n">
+        <v>153</v>
       </c>
     </row>
     <row r="148">
@@ -3123,9 +3141,9 @@
       <c r="C148" t="n">
         <v>196148405</v>
       </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>5%</t>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>8%</t>
         </is>
       </c>
     </row>
@@ -3143,9 +3161,9 @@
       <c r="C149" t="n">
         <v>196148405</v>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>14%</t>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>8%</t>
         </is>
       </c>
     </row>
@@ -3163,8 +3181,8 @@
       <c r="C150" t="n">
         <v>196148405</v>
       </c>
-      <c r="E150" t="n">
-        <v>7</v>
+      <c r="D150" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="151">
@@ -3181,7 +3199,7 @@
       <c r="C151" t="n">
         <v>196148405</v>
       </c>
-      <c r="E151" t="n">
+      <c r="D151" t="n">
         <v>285</v>
       </c>
     </row>
@@ -3199,7 +3217,7 @@
       <c r="C152" t="n">
         <v>196148405</v>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="D152" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3219,7 +3237,7 @@
       <c r="C153" t="n">
         <v>196148405</v>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="D153" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3239,7 +3257,7 @@
       <c r="C154" t="n">
         <v>196148405</v>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="D154" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3311,8 +3329,8 @@
       <c r="C158" t="n">
         <v>178622229</v>
       </c>
-      <c r="E158" t="n">
-        <v>4</v>
+      <c r="D158" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="159">
@@ -3329,9 +3347,9 @@
       <c r="C159" t="n">
         <v>178622229</v>
       </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>0%</t>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>17%</t>
         </is>
       </c>
     </row>
@@ -3349,9 +3367,9 @@
       <c r="C160" t="n">
         <v>178622229</v>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>0%</t>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>50%</t>
         </is>
       </c>
     </row>
@@ -3369,8 +3387,8 @@
       <c r="C161" t="n">
         <v>178622229</v>
       </c>
-      <c r="E161" t="n">
-        <v>0</v>
+      <c r="D161" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -3387,7 +3405,7 @@
       <c r="C162" t="n">
         <v>178622229</v>
       </c>
-      <c r="E162" t="n">
+      <c r="D162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3405,7 +3423,7 @@
       <c r="C163" t="n">
         <v>178622229</v>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="D163" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3425,7 +3443,7 @@
       <c r="C164" t="n">
         <v>178622229</v>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="D164" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3445,7 +3463,7 @@
       <c r="C165" t="n">
         <v>178622229</v>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="D165" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3517,8 +3535,8 @@
       <c r="C169" t="n">
         <v>178999385</v>
       </c>
-      <c r="E169" t="n">
-        <v>10</v>
+      <c r="D169" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="170">
@@ -3535,9 +3553,9 @@
       <c r="C170" t="n">
         <v>178999385</v>
       </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>10%</t>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>6%</t>
         </is>
       </c>
     </row>
@@ -3555,9 +3573,9 @@
       <c r="C171" t="n">
         <v>178999385</v>
       </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>0%</t>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
@@ -3575,7 +3593,7 @@
       <c r="C172" t="n">
         <v>178999385</v>
       </c>
-      <c r="E172" t="n">
+      <c r="D172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3593,7 +3611,7 @@
       <c r="C173" t="n">
         <v>178999385</v>
       </c>
-      <c r="E173" t="n">
+      <c r="D173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3611,7 +3629,7 @@
       <c r="C174" t="n">
         <v>178999385</v>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="D174" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3631,7 +3649,7 @@
       <c r="C175" t="n">
         <v>178999385</v>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="D175" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3651,7 +3669,7 @@
       <c r="C176" t="n">
         <v>178999385</v>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="D176" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3723,8 +3741,8 @@
       <c r="C180" t="n">
         <v>179104477</v>
       </c>
-      <c r="E180" t="n">
-        <v>12</v>
+      <c r="D180" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="181">
@@ -3741,9 +3759,9 @@
       <c r="C181" t="n">
         <v>179104477</v>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>17%</t>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>16%</t>
         </is>
       </c>
     </row>
@@ -3761,9 +3779,9 @@
       <c r="C182" t="n">
         <v>179104477</v>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>100%</t>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>25%</t>
         </is>
       </c>
     </row>
@@ -3781,8 +3799,8 @@
       <c r="C183" t="n">
         <v>179104477</v>
       </c>
-      <c r="E183" t="n">
-        <v>2</v>
+      <c r="D183" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="184">
@@ -3799,7 +3817,7 @@
       <c r="C184" t="n">
         <v>179104477</v>
       </c>
-      <c r="E184" t="n">
+      <c r="D184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3817,7 +3835,7 @@
       <c r="C185" t="n">
         <v>179104477</v>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="D185" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3837,7 +3855,7 @@
       <c r="C186" t="n">
         <v>179104477</v>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="D186" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3857,7 +3875,7 @@
       <c r="C187" t="n">
         <v>179104477</v>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="D187" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3929,8 +3947,8 @@
       <c r="C191" t="n">
         <v>168086809</v>
       </c>
-      <c r="E191" t="n">
-        <v>8</v>
+      <c r="D191" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="192">
@@ -3947,9 +3965,9 @@
       <c r="C192" t="n">
         <v>168086809</v>
       </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>13%</t>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0%</t>
         </is>
       </c>
     </row>
@@ -3967,9 +3985,9 @@
       <c r="C193" t="n">
         <v>168086809</v>
       </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>100%</t>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0%</t>
         </is>
       </c>
     </row>
@@ -3987,8 +4005,8 @@
       <c r="C194" t="n">
         <v>168086809</v>
       </c>
-      <c r="E194" t="n">
-        <v>1</v>
+      <c r="D194" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -4005,7 +4023,7 @@
       <c r="C195" t="n">
         <v>168086809</v>
       </c>
-      <c r="E195" t="n">
+      <c r="D195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4023,7 +4041,7 @@
       <c r="C196" t="n">
         <v>168086809</v>
       </c>
-      <c r="E196" t="inlineStr">
+      <c r="D196" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4043,7 +4061,7 @@
       <c r="C197" t="n">
         <v>168086809</v>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="D197" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4063,7 +4081,7 @@
       <c r="C198" t="n">
         <v>168086809</v>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="D198" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4135,8 +4153,8 @@
       <c r="C202" t="n">
         <v>90113919</v>
       </c>
-      <c r="E202" t="n">
-        <v>1</v>
+      <c r="D202" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -4153,7 +4171,7 @@
       <c r="C203" t="n">
         <v>90113919</v>
       </c>
-      <c r="E203" t="inlineStr">
+      <c r="D203" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -4173,7 +4191,7 @@
       <c r="C204" t="n">
         <v>90113919</v>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="D204" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -4193,7 +4211,7 @@
       <c r="C205" t="n">
         <v>90113919</v>
       </c>
-      <c r="E205" t="n">
+      <c r="D205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4211,7 +4229,7 @@
       <c r="C206" t="n">
         <v>90113919</v>
       </c>
-      <c r="E206" t="n">
+      <c r="D206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4229,7 +4247,7 @@
       <c r="C207" t="n">
         <v>90113919</v>
       </c>
-      <c r="E207" t="inlineStr">
+      <c r="D207" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4249,7 +4267,7 @@
       <c r="C208" t="n">
         <v>90113919</v>
       </c>
-      <c r="E208" t="inlineStr">
+      <c r="D208" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4269,7 +4287,7 @@
       <c r="C209" t="n">
         <v>90113919</v>
       </c>
-      <c r="E209" t="inlineStr">
+      <c r="D209" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4341,7 +4359,7 @@
       <c r="C213" t="n">
         <v>90113945</v>
       </c>
-      <c r="E213" t="n">
+      <c r="D213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4359,7 +4377,7 @@
       <c r="C214" t="n">
         <v>90113945</v>
       </c>
-      <c r="E214" t="inlineStr">
+      <c r="D214" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -4379,7 +4397,7 @@
       <c r="C215" t="n">
         <v>90113945</v>
       </c>
-      <c r="E215" t="inlineStr">
+      <c r="D215" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -4399,7 +4417,7 @@
       <c r="C216" t="n">
         <v>90113945</v>
       </c>
-      <c r="E216" t="n">
+      <c r="D216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4417,7 +4435,7 @@
       <c r="C217" t="n">
         <v>90113945</v>
       </c>
-      <c r="E217" t="n">
+      <c r="D217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4435,7 +4453,7 @@
       <c r="C218" t="n">
         <v>90113945</v>
       </c>
-      <c r="E218" t="inlineStr">
+      <c r="D218" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4455,7 +4473,7 @@
       <c r="C219" t="n">
         <v>90113945</v>
       </c>
-      <c r="E219" t="inlineStr">
+      <c r="D219" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4475,7 +4493,7 @@
       <c r="C220" t="n">
         <v>90113945</v>
       </c>
-      <c r="E220" t="inlineStr">
+      <c r="D220" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4547,7 +4565,7 @@
       <c r="C224" t="n">
         <v>90113961</v>
       </c>
-      <c r="E224" t="n">
+      <c r="D224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4565,7 +4583,7 @@
       <c r="C225" t="n">
         <v>90113961</v>
       </c>
-      <c r="E225" t="inlineStr">
+      <c r="D225" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -4585,7 +4603,7 @@
       <c r="C226" t="n">
         <v>90113961</v>
       </c>
-      <c r="E226" t="inlineStr">
+      <c r="D226" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -4605,7 +4623,7 @@
       <c r="C227" t="n">
         <v>90113961</v>
       </c>
-      <c r="E227" t="n">
+      <c r="D227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4623,7 +4641,7 @@
       <c r="C228" t="n">
         <v>90113961</v>
       </c>
-      <c r="E228" t="n">
+      <c r="D228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4641,7 +4659,7 @@
       <c r="C229" t="n">
         <v>90113961</v>
       </c>
-      <c r="E229" t="inlineStr">
+      <c r="D229" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4661,7 +4679,7 @@
       <c r="C230" t="n">
         <v>90113961</v>
       </c>
-      <c r="E230" t="inlineStr">
+      <c r="D230" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4681,7 +4699,7 @@
       <c r="C231" t="n">
         <v>90113961</v>
       </c>
-      <c r="E231" t="inlineStr">
+      <c r="D231" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4753,8 +4771,8 @@
       <c r="C235" t="n">
         <v>94573200</v>
       </c>
-      <c r="E235" t="n">
-        <v>2</v>
+      <c r="D235" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -4771,7 +4789,7 @@
       <c r="C236" t="n">
         <v>94573200</v>
       </c>
-      <c r="E236" t="inlineStr">
+      <c r="D236" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -4791,7 +4809,7 @@
       <c r="C237" t="n">
         <v>94573200</v>
       </c>
-      <c r="E237" t="inlineStr">
+      <c r="D237" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -4811,7 +4829,7 @@
       <c r="C238" t="n">
         <v>94573200</v>
       </c>
-      <c r="E238" t="n">
+      <c r="D238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4829,7 +4847,7 @@
       <c r="C239" t="n">
         <v>94573200</v>
       </c>
-      <c r="E239" t="n">
+      <c r="D239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4847,7 +4865,7 @@
       <c r="C240" t="n">
         <v>94573200</v>
       </c>
-      <c r="E240" t="inlineStr">
+      <c r="D240" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4867,7 +4885,7 @@
       <c r="C241" t="n">
         <v>94573200</v>
       </c>
-      <c r="E241" t="inlineStr">
+      <c r="D241" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4887,7 +4905,7 @@
       <c r="C242" t="n">
         <v>94573200</v>
       </c>
-      <c r="E242" t="inlineStr">
+      <c r="D242" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -4959,8 +4977,8 @@
       <c r="C246" t="n">
         <v>139347889</v>
       </c>
-      <c r="E246" t="n">
-        <v>1</v>
+      <c r="D246" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -4977,7 +4995,7 @@
       <c r="C247" t="n">
         <v>139347889</v>
       </c>
-      <c r="E247" t="inlineStr">
+      <c r="D247" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -4997,7 +5015,7 @@
       <c r="C248" t="n">
         <v>139347889</v>
       </c>
-      <c r="E248" t="inlineStr">
+      <c r="D248" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -5017,7 +5035,7 @@
       <c r="C249" t="n">
         <v>139347889</v>
       </c>
-      <c r="E249" t="n">
+      <c r="D249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5035,7 +5053,7 @@
       <c r="C250" t="n">
         <v>139347889</v>
       </c>
-      <c r="E250" t="n">
+      <c r="D250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5053,7 +5071,7 @@
       <c r="C251" t="n">
         <v>139347889</v>
       </c>
-      <c r="E251" t="inlineStr">
+      <c r="D251" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5073,7 +5091,7 @@
       <c r="C252" t="n">
         <v>139347889</v>
       </c>
-      <c r="E252" t="inlineStr">
+      <c r="D252" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5093,7 +5111,7 @@
       <c r="C253" t="n">
         <v>139347889</v>
       </c>
-      <c r="E253" t="inlineStr">
+      <c r="D253" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5165,8 +5183,8 @@
       <c r="C257" t="n">
         <v>139409831</v>
       </c>
-      <c r="E257" t="n">
-        <v>26</v>
+      <c r="D257" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="258">
@@ -5183,7 +5201,7 @@
       <c r="C258" t="n">
         <v>139409831</v>
       </c>
-      <c r="E258" t="inlineStr">
+      <c r="D258" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -5203,7 +5221,7 @@
       <c r="C259" t="n">
         <v>139409831</v>
       </c>
-      <c r="E259" t="inlineStr">
+      <c r="D259" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -5223,7 +5241,7 @@
       <c r="C260" t="n">
         <v>139409831</v>
       </c>
-      <c r="E260" t="n">
+      <c r="D260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5241,7 +5259,7 @@
       <c r="C261" t="n">
         <v>139409831</v>
       </c>
-      <c r="E261" t="n">
+      <c r="D261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5259,7 +5277,7 @@
       <c r="C262" t="n">
         <v>139409831</v>
       </c>
-      <c r="E262" t="inlineStr">
+      <c r="D262" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5279,7 +5297,7 @@
       <c r="C263" t="n">
         <v>139409831</v>
       </c>
-      <c r="E263" t="inlineStr">
+      <c r="D263" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5299,7 +5317,7 @@
       <c r="C264" t="n">
         <v>139409831</v>
       </c>
-      <c r="E264" t="inlineStr">
+      <c r="D264" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5371,7 +5389,7 @@
       <c r="C268" t="n">
         <v>143277881</v>
       </c>
-      <c r="E268" t="n">
+      <c r="D268" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5389,7 +5407,7 @@
       <c r="C269" t="n">
         <v>143277881</v>
       </c>
-      <c r="E269" t="inlineStr">
+      <c r="D269" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -5409,7 +5427,7 @@
       <c r="C270" t="n">
         <v>143277881</v>
       </c>
-      <c r="E270" t="inlineStr">
+      <c r="D270" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -5429,7 +5447,7 @@
       <c r="C271" t="n">
         <v>143277881</v>
       </c>
-      <c r="E271" t="n">
+      <c r="D271" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5447,7 +5465,7 @@
       <c r="C272" t="n">
         <v>143277881</v>
       </c>
-      <c r="E272" t="n">
+      <c r="D272" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5465,7 +5483,7 @@
       <c r="C273" t="n">
         <v>143277881</v>
       </c>
-      <c r="E273" t="inlineStr">
+      <c r="D273" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5485,7 +5503,7 @@
       <c r="C274" t="n">
         <v>143277881</v>
       </c>
-      <c r="E274" t="inlineStr">
+      <c r="D274" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5505,7 +5523,7 @@
       <c r="C275" t="n">
         <v>143277881</v>
       </c>
-      <c r="E275" t="inlineStr">
+      <c r="D275" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5577,7 +5595,7 @@
       <c r="C279" t="n">
         <v>143277882</v>
       </c>
-      <c r="E279" t="n">
+      <c r="D279" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5595,7 +5613,7 @@
       <c r="C280" t="n">
         <v>143277882</v>
       </c>
-      <c r="E280" t="inlineStr">
+      <c r="D280" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -5615,7 +5633,7 @@
       <c r="C281" t="n">
         <v>143277882</v>
       </c>
-      <c r="E281" t="inlineStr">
+      <c r="D281" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -5635,7 +5653,7 @@
       <c r="C282" t="n">
         <v>143277882</v>
       </c>
-      <c r="E282" t="n">
+      <c r="D282" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5653,7 +5671,7 @@
       <c r="C283" t="n">
         <v>143277882</v>
       </c>
-      <c r="E283" t="n">
+      <c r="D283" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5671,7 +5689,7 @@
       <c r="C284" t="n">
         <v>143277882</v>
       </c>
-      <c r="E284" t="inlineStr">
+      <c r="D284" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5691,7 +5709,7 @@
       <c r="C285" t="n">
         <v>143277882</v>
       </c>
-      <c r="E285" t="inlineStr">
+      <c r="D285" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5711,7 +5729,7 @@
       <c r="C286" t="n">
         <v>143277882</v>
       </c>
-      <c r="E286" t="inlineStr">
+      <c r="D286" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5783,7 +5801,7 @@
       <c r="C290" t="n">
         <v>143277883</v>
       </c>
-      <c r="E290" t="n">
+      <c r="D290" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5801,7 +5819,7 @@
       <c r="C291" t="n">
         <v>143277883</v>
       </c>
-      <c r="E291" t="inlineStr">
+      <c r="D291" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -5821,7 +5839,7 @@
       <c r="C292" t="n">
         <v>143277883</v>
       </c>
-      <c r="E292" t="inlineStr">
+      <c r="D292" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -5841,7 +5859,7 @@
       <c r="C293" t="n">
         <v>143277883</v>
       </c>
-      <c r="E293" t="n">
+      <c r="D293" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5859,7 +5877,7 @@
       <c r="C294" t="n">
         <v>143277883</v>
       </c>
-      <c r="E294" t="n">
+      <c r="D294" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5877,7 +5895,7 @@
       <c r="C295" t="n">
         <v>143277883</v>
       </c>
-      <c r="E295" t="inlineStr">
+      <c r="D295" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5897,7 +5915,7 @@
       <c r="C296" t="n">
         <v>143277883</v>
       </c>
-      <c r="E296" t="inlineStr">
+      <c r="D296" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5917,7 +5935,7 @@
       <c r="C297" t="n">
         <v>143277883</v>
       </c>
-      <c r="E297" t="inlineStr">
+      <c r="D297" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -5989,7 +6007,7 @@
       <c r="C301" t="n">
         <v>143277884</v>
       </c>
-      <c r="E301" t="n">
+      <c r="D301" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6007,7 +6025,7 @@
       <c r="C302" t="n">
         <v>143277884</v>
       </c>
-      <c r="E302" t="inlineStr">
+      <c r="D302" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -6027,7 +6045,7 @@
       <c r="C303" t="n">
         <v>143277884</v>
       </c>
-      <c r="E303" t="inlineStr">
+      <c r="D303" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -6047,7 +6065,7 @@
       <c r="C304" t="n">
         <v>143277884</v>
       </c>
-      <c r="E304" t="n">
+      <c r="D304" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6065,7 +6083,7 @@
       <c r="C305" t="n">
         <v>143277884</v>
       </c>
-      <c r="E305" t="n">
+      <c r="D305" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6083,7 +6101,7 @@
       <c r="C306" t="n">
         <v>143277884</v>
       </c>
-      <c r="E306" t="inlineStr">
+      <c r="D306" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6103,7 +6121,7 @@
       <c r="C307" t="n">
         <v>143277884</v>
       </c>
-      <c r="E307" t="inlineStr">
+      <c r="D307" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6123,7 +6141,7 @@
       <c r="C308" t="n">
         <v>143277884</v>
       </c>
-      <c r="E308" t="inlineStr">
+      <c r="D308" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6195,7 +6213,7 @@
       <c r="C312" t="n">
         <v>143277885</v>
       </c>
-      <c r="E312" t="n">
+      <c r="D312" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6213,7 +6231,7 @@
       <c r="C313" t="n">
         <v>143277885</v>
       </c>
-      <c r="E313" t="inlineStr">
+      <c r="D313" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -6233,7 +6251,7 @@
       <c r="C314" t="n">
         <v>143277885</v>
       </c>
-      <c r="E314" t="inlineStr">
+      <c r="D314" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -6253,7 +6271,7 @@
       <c r="C315" t="n">
         <v>143277885</v>
       </c>
-      <c r="E315" t="n">
+      <c r="D315" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6271,7 +6289,7 @@
       <c r="C316" t="n">
         <v>143277885</v>
       </c>
-      <c r="E316" t="n">
+      <c r="D316" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6289,7 +6307,7 @@
       <c r="C317" t="n">
         <v>143277885</v>
       </c>
-      <c r="E317" t="inlineStr">
+      <c r="D317" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6309,7 +6327,7 @@
       <c r="C318" t="n">
         <v>143277885</v>
       </c>
-      <c r="E318" t="inlineStr">
+      <c r="D318" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6329,7 +6347,7 @@
       <c r="C319" t="n">
         <v>143277885</v>
       </c>
-      <c r="E319" t="inlineStr">
+      <c r="D319" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6401,7 +6419,7 @@
       <c r="C323" t="n">
         <v>143277896</v>
       </c>
-      <c r="E323" t="n">
+      <c r="D323" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6419,7 +6437,7 @@
       <c r="C324" t="n">
         <v>143277896</v>
       </c>
-      <c r="E324" t="inlineStr">
+      <c r="D324" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -6439,7 +6457,7 @@
       <c r="C325" t="n">
         <v>143277896</v>
       </c>
-      <c r="E325" t="inlineStr">
+      <c r="D325" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -6459,7 +6477,7 @@
       <c r="C326" t="n">
         <v>143277896</v>
       </c>
-      <c r="E326" t="n">
+      <c r="D326" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6477,7 +6495,7 @@
       <c r="C327" t="n">
         <v>143277896</v>
       </c>
-      <c r="E327" t="n">
+      <c r="D327" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6495,7 +6513,7 @@
       <c r="C328" t="n">
         <v>143277896</v>
       </c>
-      <c r="E328" t="inlineStr">
+      <c r="D328" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6515,7 +6533,7 @@
       <c r="C329" t="n">
         <v>143277896</v>
       </c>
-      <c r="E329" t="inlineStr">
+      <c r="D329" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6535,7 +6553,7 @@
       <c r="C330" t="n">
         <v>143277896</v>
       </c>
-      <c r="E330" t="inlineStr">
+      <c r="D330" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6607,7 +6625,7 @@
       <c r="C334" t="n">
         <v>145113216</v>
       </c>
-      <c r="E334" t="n">
+      <c r="D334" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6625,7 +6643,7 @@
       <c r="C335" t="n">
         <v>145113216</v>
       </c>
-      <c r="E335" t="inlineStr">
+      <c r="D335" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -6645,7 +6663,7 @@
       <c r="C336" t="n">
         <v>145113216</v>
       </c>
-      <c r="E336" t="inlineStr">
+      <c r="D336" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -6665,7 +6683,7 @@
       <c r="C337" t="n">
         <v>145113216</v>
       </c>
-      <c r="E337" t="n">
+      <c r="D337" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6683,7 +6701,7 @@
       <c r="C338" t="n">
         <v>145113216</v>
       </c>
-      <c r="E338" t="n">
+      <c r="D338" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6701,7 +6719,7 @@
       <c r="C339" t="n">
         <v>145113216</v>
       </c>
-      <c r="E339" t="inlineStr">
+      <c r="D339" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6721,7 +6739,7 @@
       <c r="C340" t="n">
         <v>145113216</v>
       </c>
-      <c r="E340" t="inlineStr">
+      <c r="D340" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6741,7 +6759,7 @@
       <c r="C341" t="n">
         <v>145113216</v>
       </c>
-      <c r="E341" t="inlineStr">
+      <c r="D341" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6813,7 +6831,7 @@
       <c r="C345" t="n">
         <v>145113220</v>
       </c>
-      <c r="E345" t="n">
+      <c r="D345" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6831,7 +6849,7 @@
       <c r="C346" t="n">
         <v>145113220</v>
       </c>
-      <c r="E346" t="inlineStr">
+      <c r="D346" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -6851,7 +6869,7 @@
       <c r="C347" t="n">
         <v>145113220</v>
       </c>
-      <c r="E347" t="inlineStr">
+      <c r="D347" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -6871,7 +6889,7 @@
       <c r="C348" t="n">
         <v>145113220</v>
       </c>
-      <c r="E348" t="n">
+      <c r="D348" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6889,7 +6907,7 @@
       <c r="C349" t="n">
         <v>145113220</v>
       </c>
-      <c r="E349" t="n">
+      <c r="D349" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6907,7 +6925,7 @@
       <c r="C350" t="n">
         <v>145113220</v>
       </c>
-      <c r="E350" t="inlineStr">
+      <c r="D350" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6927,7 +6945,7 @@
       <c r="C351" t="n">
         <v>145113220</v>
       </c>
-      <c r="E351" t="inlineStr">
+      <c r="D351" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -6947,7 +6965,7 @@
       <c r="C352" t="n">
         <v>145113220</v>
       </c>
-      <c r="E352" t="inlineStr">
+      <c r="D352" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7019,7 +7037,7 @@
       <c r="C356" t="n">
         <v>145113222</v>
       </c>
-      <c r="E356" t="n">
+      <c r="D356" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7037,7 +7055,7 @@
       <c r="C357" t="n">
         <v>145113222</v>
       </c>
-      <c r="E357" t="inlineStr">
+      <c r="D357" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -7057,7 +7075,7 @@
       <c r="C358" t="n">
         <v>145113222</v>
       </c>
-      <c r="E358" t="inlineStr">
+      <c r="D358" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -7077,7 +7095,7 @@
       <c r="C359" t="n">
         <v>145113222</v>
       </c>
-      <c r="E359" t="n">
+      <c r="D359" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7095,7 +7113,7 @@
       <c r="C360" t="n">
         <v>145113222</v>
       </c>
-      <c r="E360" t="n">
+      <c r="D360" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7113,7 +7131,7 @@
       <c r="C361" t="n">
         <v>145113222</v>
       </c>
-      <c r="E361" t="inlineStr">
+      <c r="D361" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7133,7 +7151,7 @@
       <c r="C362" t="n">
         <v>145113222</v>
       </c>
-      <c r="E362" t="inlineStr">
+      <c r="D362" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7153,7 +7171,7 @@
       <c r="C363" t="n">
         <v>145113222</v>
       </c>
-      <c r="E363" t="inlineStr">
+      <c r="D363" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7225,7 +7243,7 @@
       <c r="C367" t="n">
         <v>145113225</v>
       </c>
-      <c r="E367" t="n">
+      <c r="D367" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7243,7 +7261,7 @@
       <c r="C368" t="n">
         <v>145113225</v>
       </c>
-      <c r="E368" t="inlineStr">
+      <c r="D368" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -7263,7 +7281,7 @@
       <c r="C369" t="n">
         <v>145113225</v>
       </c>
-      <c r="E369" t="inlineStr">
+      <c r="D369" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -7283,7 +7301,7 @@
       <c r="C370" t="n">
         <v>145113225</v>
       </c>
-      <c r="E370" t="n">
+      <c r="D370" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7301,7 +7319,7 @@
       <c r="C371" t="n">
         <v>145113225</v>
       </c>
-      <c r="E371" t="n">
+      <c r="D371" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7319,7 +7337,7 @@
       <c r="C372" t="n">
         <v>145113225</v>
       </c>
-      <c r="E372" t="inlineStr">
+      <c r="D372" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7339,7 +7357,7 @@
       <c r="C373" t="n">
         <v>145113225</v>
       </c>
-      <c r="E373" t="inlineStr">
+      <c r="D373" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7359,7 +7377,7 @@
       <c r="C374" t="n">
         <v>145113225</v>
       </c>
-      <c r="E374" t="inlineStr">
+      <c r="D374" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7431,8 +7449,8 @@
       <c r="C378" t="n">
         <v>153554861</v>
       </c>
-      <c r="E378" t="n">
-        <v>13</v>
+      <c r="D378" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="379">
@@ -7449,7 +7467,7 @@
       <c r="C379" t="n">
         <v>153554861</v>
       </c>
-      <c r="E379" t="inlineStr">
+      <c r="D379" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -7469,7 +7487,7 @@
       <c r="C380" t="n">
         <v>153554861</v>
       </c>
-      <c r="E380" t="inlineStr">
+      <c r="D380" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -7489,7 +7507,7 @@
       <c r="C381" t="n">
         <v>153554861</v>
       </c>
-      <c r="E381" t="n">
+      <c r="D381" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7507,7 +7525,7 @@
       <c r="C382" t="n">
         <v>153554861</v>
       </c>
-      <c r="E382" t="n">
+      <c r="D382" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7525,7 +7543,7 @@
       <c r="C383" t="n">
         <v>153554861</v>
       </c>
-      <c r="E383" t="inlineStr">
+      <c r="D383" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7545,7 +7563,7 @@
       <c r="C384" t="n">
         <v>153554861</v>
       </c>
-      <c r="E384" t="inlineStr">
+      <c r="D384" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7565,7 +7583,7 @@
       <c r="C385" t="n">
         <v>153554861</v>
       </c>
-      <c r="E385" t="inlineStr">
+      <c r="D385" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7637,7 +7655,7 @@
       <c r="C389" t="n">
         <v>154400658</v>
       </c>
-      <c r="E389" t="n">
+      <c r="D389" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7655,7 +7673,7 @@
       <c r="C390" t="n">
         <v>154400658</v>
       </c>
-      <c r="E390" t="inlineStr">
+      <c r="D390" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -7675,7 +7693,7 @@
       <c r="C391" t="n">
         <v>154400658</v>
       </c>
-      <c r="E391" t="inlineStr">
+      <c r="D391" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -7695,7 +7713,7 @@
       <c r="C392" t="n">
         <v>154400658</v>
       </c>
-      <c r="E392" t="n">
+      <c r="D392" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7713,7 +7731,7 @@
       <c r="C393" t="n">
         <v>154400658</v>
       </c>
-      <c r="E393" t="n">
+      <c r="D393" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7731,7 +7749,7 @@
       <c r="C394" t="n">
         <v>154400658</v>
       </c>
-      <c r="E394" t="inlineStr">
+      <c r="D394" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7751,7 +7769,7 @@
       <c r="C395" t="n">
         <v>154400658</v>
       </c>
-      <c r="E395" t="inlineStr">
+      <c r="D395" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7771,7 +7789,7 @@
       <c r="C396" t="n">
         <v>154400658</v>
       </c>
-      <c r="E396" t="inlineStr">
+      <c r="D396" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7843,7 +7861,7 @@
       <c r="C400" t="n">
         <v>154400659</v>
       </c>
-      <c r="E400" t="n">
+      <c r="D400" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7861,7 +7879,7 @@
       <c r="C401" t="n">
         <v>154400659</v>
       </c>
-      <c r="E401" t="inlineStr">
+      <c r="D401" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -7881,7 +7899,7 @@
       <c r="C402" t="n">
         <v>154400659</v>
       </c>
-      <c r="E402" t="inlineStr">
+      <c r="D402" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -7901,7 +7919,7 @@
       <c r="C403" t="n">
         <v>154400659</v>
       </c>
-      <c r="E403" t="n">
+      <c r="D403" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7919,7 +7937,7 @@
       <c r="C404" t="n">
         <v>154400659</v>
       </c>
-      <c r="E404" t="n">
+      <c r="D404" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7937,7 +7955,7 @@
       <c r="C405" t="n">
         <v>154400659</v>
       </c>
-      <c r="E405" t="inlineStr">
+      <c r="D405" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7957,7 +7975,7 @@
       <c r="C406" t="n">
         <v>154400659</v>
       </c>
-      <c r="E406" t="inlineStr">
+      <c r="D406" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -7977,7 +7995,7 @@
       <c r="C407" t="n">
         <v>154400659</v>
       </c>
-      <c r="E407" t="inlineStr">
+      <c r="D407" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8049,7 +8067,7 @@
       <c r="C411" t="n">
         <v>154400662</v>
       </c>
-      <c r="E411" t="n">
+      <c r="D411" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8067,7 +8085,7 @@
       <c r="C412" t="n">
         <v>154400662</v>
       </c>
-      <c r="E412" t="inlineStr">
+      <c r="D412" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -8087,7 +8105,7 @@
       <c r="C413" t="n">
         <v>154400662</v>
       </c>
-      <c r="E413" t="inlineStr">
+      <c r="D413" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -8107,7 +8125,7 @@
       <c r="C414" t="n">
         <v>154400662</v>
       </c>
-      <c r="E414" t="n">
+      <c r="D414" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8125,7 +8143,7 @@
       <c r="C415" t="n">
         <v>154400662</v>
       </c>
-      <c r="E415" t="n">
+      <c r="D415" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8143,7 +8161,7 @@
       <c r="C416" t="n">
         <v>154400662</v>
       </c>
-      <c r="E416" t="inlineStr">
+      <c r="D416" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8163,7 +8181,7 @@
       <c r="C417" t="n">
         <v>154400662</v>
       </c>
-      <c r="E417" t="inlineStr">
+      <c r="D417" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8183,7 +8201,7 @@
       <c r="C418" t="n">
         <v>154400662</v>
       </c>
-      <c r="E418" t="inlineStr">
+      <c r="D418" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8255,7 +8273,7 @@
       <c r="C422" t="n">
         <v>154400663</v>
       </c>
-      <c r="E422" t="n">
+      <c r="D422" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8273,7 +8291,7 @@
       <c r="C423" t="n">
         <v>154400663</v>
       </c>
-      <c r="E423" t="inlineStr">
+      <c r="D423" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -8293,7 +8311,7 @@
       <c r="C424" t="n">
         <v>154400663</v>
       </c>
-      <c r="E424" t="inlineStr">
+      <c r="D424" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -8313,7 +8331,7 @@
       <c r="C425" t="n">
         <v>154400663</v>
       </c>
-      <c r="E425" t="n">
+      <c r="D425" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8331,7 +8349,7 @@
       <c r="C426" t="n">
         <v>154400663</v>
       </c>
-      <c r="E426" t="n">
+      <c r="D426" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8349,7 +8367,7 @@
       <c r="C427" t="n">
         <v>154400663</v>
       </c>
-      <c r="E427" t="inlineStr">
+      <c r="D427" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8369,7 +8387,7 @@
       <c r="C428" t="n">
         <v>154400663</v>
       </c>
-      <c r="E428" t="inlineStr">
+      <c r="D428" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8389,7 +8407,7 @@
       <c r="C429" t="n">
         <v>154400663</v>
       </c>
-      <c r="E429" t="inlineStr">
+      <c r="D429" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8461,7 +8479,7 @@
       <c r="C433" t="n">
         <v>154400664</v>
       </c>
-      <c r="E433" t="n">
+      <c r="D433" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8479,7 +8497,7 @@
       <c r="C434" t="n">
         <v>154400664</v>
       </c>
-      <c r="E434" t="inlineStr">
+      <c r="D434" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -8499,7 +8517,7 @@
       <c r="C435" t="n">
         <v>154400664</v>
       </c>
-      <c r="E435" t="inlineStr">
+      <c r="D435" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -8519,7 +8537,7 @@
       <c r="C436" t="n">
         <v>154400664</v>
       </c>
-      <c r="E436" t="n">
+      <c r="D436" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8537,7 +8555,7 @@
       <c r="C437" t="n">
         <v>154400664</v>
       </c>
-      <c r="E437" t="n">
+      <c r="D437" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8555,7 +8573,7 @@
       <c r="C438" t="n">
         <v>154400664</v>
       </c>
-      <c r="E438" t="inlineStr">
+      <c r="D438" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8575,7 +8593,7 @@
       <c r="C439" t="n">
         <v>154400664</v>
       </c>
-      <c r="E439" t="inlineStr">
+      <c r="D439" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8595,7 +8613,7 @@
       <c r="C440" t="n">
         <v>154400664</v>
       </c>
-      <c r="E440" t="inlineStr">
+      <c r="D440" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8667,7 +8685,7 @@
       <c r="C444" t="n">
         <v>154401074</v>
       </c>
-      <c r="E444" t="n">
+      <c r="D444" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8685,7 +8703,7 @@
       <c r="C445" t="n">
         <v>154401074</v>
       </c>
-      <c r="E445" t="inlineStr">
+      <c r="D445" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -8705,7 +8723,7 @@
       <c r="C446" t="n">
         <v>154401074</v>
       </c>
-      <c r="E446" t="inlineStr">
+      <c r="D446" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -8725,7 +8743,7 @@
       <c r="C447" t="n">
         <v>154401074</v>
       </c>
-      <c r="E447" t="n">
+      <c r="D447" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8743,7 +8761,7 @@
       <c r="C448" t="n">
         <v>154401074</v>
       </c>
-      <c r="E448" t="n">
+      <c r="D448" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8761,7 +8779,7 @@
       <c r="C449" t="n">
         <v>154401074</v>
       </c>
-      <c r="E449" t="inlineStr">
+      <c r="D449" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8781,7 +8799,7 @@
       <c r="C450" t="n">
         <v>154401074</v>
       </c>
-      <c r="E450" t="inlineStr">
+      <c r="D450" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8801,7 +8819,7 @@
       <c r="C451" t="n">
         <v>154401074</v>
       </c>
-      <c r="E451" t="inlineStr">
+      <c r="D451" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8873,7 +8891,7 @@
       <c r="C455" t="n">
         <v>154401075</v>
       </c>
-      <c r="E455" t="n">
+      <c r="D455" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8891,7 +8909,7 @@
       <c r="C456" t="n">
         <v>154401075</v>
       </c>
-      <c r="E456" t="inlineStr">
+      <c r="D456" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -8911,7 +8929,7 @@
       <c r="C457" t="n">
         <v>154401075</v>
       </c>
-      <c r="E457" t="inlineStr">
+      <c r="D457" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -8931,7 +8949,7 @@
       <c r="C458" t="n">
         <v>154401075</v>
       </c>
-      <c r="E458" t="n">
+      <c r="D458" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8949,7 +8967,7 @@
       <c r="C459" t="n">
         <v>154401075</v>
       </c>
-      <c r="E459" t="n">
+      <c r="D459" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8967,7 +8985,7 @@
       <c r="C460" t="n">
         <v>154401075</v>
       </c>
-      <c r="E460" t="inlineStr">
+      <c r="D460" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -8987,7 +9005,7 @@
       <c r="C461" t="n">
         <v>154401075</v>
       </c>
-      <c r="E461" t="inlineStr">
+      <c r="D461" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9007,7 +9025,7 @@
       <c r="C462" t="n">
         <v>154401075</v>
       </c>
-      <c r="E462" t="inlineStr">
+      <c r="D462" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9079,7 +9097,7 @@
       <c r="C466" t="n">
         <v>154401077</v>
       </c>
-      <c r="E466" t="n">
+      <c r="D466" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9097,7 +9115,7 @@
       <c r="C467" t="n">
         <v>154401077</v>
       </c>
-      <c r="E467" t="inlineStr">
+      <c r="D467" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -9117,7 +9135,7 @@
       <c r="C468" t="n">
         <v>154401077</v>
       </c>
-      <c r="E468" t="inlineStr">
+      <c r="D468" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -9137,7 +9155,7 @@
       <c r="C469" t="n">
         <v>154401077</v>
       </c>
-      <c r="E469" t="n">
+      <c r="D469" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9155,7 +9173,7 @@
       <c r="C470" t="n">
         <v>154401077</v>
       </c>
-      <c r="E470" t="n">
+      <c r="D470" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9173,7 +9191,7 @@
       <c r="C471" t="n">
         <v>154401077</v>
       </c>
-      <c r="E471" t="inlineStr">
+      <c r="D471" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9193,7 +9211,7 @@
       <c r="C472" t="n">
         <v>154401077</v>
       </c>
-      <c r="E472" t="inlineStr">
+      <c r="D472" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9213,7 +9231,7 @@
       <c r="C473" t="n">
         <v>154401077</v>
       </c>
-      <c r="E473" t="inlineStr">
+      <c r="D473" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9285,7 +9303,7 @@
       <c r="C477" t="n">
         <v>154401078</v>
       </c>
-      <c r="E477" t="n">
+      <c r="D477" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9303,7 +9321,7 @@
       <c r="C478" t="n">
         <v>154401078</v>
       </c>
-      <c r="E478" t="inlineStr">
+      <c r="D478" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -9323,7 +9341,7 @@
       <c r="C479" t="n">
         <v>154401078</v>
       </c>
-      <c r="E479" t="inlineStr">
+      <c r="D479" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -9343,7 +9361,7 @@
       <c r="C480" t="n">
         <v>154401078</v>
       </c>
-      <c r="E480" t="n">
+      <c r="D480" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9361,7 +9379,7 @@
       <c r="C481" t="n">
         <v>154401078</v>
       </c>
-      <c r="E481" t="n">
+      <c r="D481" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9379,7 +9397,7 @@
       <c r="C482" t="n">
         <v>154401078</v>
       </c>
-      <c r="E482" t="inlineStr">
+      <c r="D482" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9399,7 +9417,7 @@
       <c r="C483" t="n">
         <v>154401078</v>
       </c>
-      <c r="E483" t="inlineStr">
+      <c r="D483" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9419,7 +9437,7 @@
       <c r="C484" t="n">
         <v>154401078</v>
       </c>
-      <c r="E484" t="inlineStr">
+      <c r="D484" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9491,7 +9509,7 @@
       <c r="C488" t="n">
         <v>154401079</v>
       </c>
-      <c r="E488" t="n">
+      <c r="D488" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9509,7 +9527,7 @@
       <c r="C489" t="n">
         <v>154401079</v>
       </c>
-      <c r="E489" t="inlineStr">
+      <c r="D489" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -9529,7 +9547,7 @@
       <c r="C490" t="n">
         <v>154401079</v>
       </c>
-      <c r="E490" t="inlineStr">
+      <c r="D490" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -9549,7 +9567,7 @@
       <c r="C491" t="n">
         <v>154401079</v>
       </c>
-      <c r="E491" t="n">
+      <c r="D491" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9567,7 +9585,7 @@
       <c r="C492" t="n">
         <v>154401079</v>
       </c>
-      <c r="E492" t="n">
+      <c r="D492" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9585,7 +9603,7 @@
       <c r="C493" t="n">
         <v>154401079</v>
       </c>
-      <c r="E493" t="inlineStr">
+      <c r="D493" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9605,7 +9623,7 @@
       <c r="C494" t="n">
         <v>154401079</v>
       </c>
-      <c r="E494" t="inlineStr">
+      <c r="D494" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9625,7 +9643,7 @@
       <c r="C495" t="n">
         <v>154401079</v>
       </c>
-      <c r="E495" t="inlineStr">
+      <c r="D495" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9697,7 +9715,7 @@
       <c r="C499" t="n">
         <v>154401080</v>
       </c>
-      <c r="E499" t="n">
+      <c r="D499" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9715,7 +9733,7 @@
       <c r="C500" t="n">
         <v>154401080</v>
       </c>
-      <c r="E500" t="inlineStr">
+      <c r="D500" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -9735,7 +9753,7 @@
       <c r="C501" t="n">
         <v>154401080</v>
       </c>
-      <c r="E501" t="inlineStr">
+      <c r="D501" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -9755,7 +9773,7 @@
       <c r="C502" t="n">
         <v>154401080</v>
       </c>
-      <c r="E502" t="n">
+      <c r="D502" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9773,7 +9791,7 @@
       <c r="C503" t="n">
         <v>154401080</v>
       </c>
-      <c r="E503" t="n">
+      <c r="D503" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9791,7 +9809,7 @@
       <c r="C504" t="n">
         <v>154401080</v>
       </c>
-      <c r="E504" t="inlineStr">
+      <c r="D504" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9811,7 +9829,7 @@
       <c r="C505" t="n">
         <v>154401080</v>
       </c>
-      <c r="E505" t="inlineStr">
+      <c r="D505" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9831,7 +9849,7 @@
       <c r="C506" t="n">
         <v>154401080</v>
       </c>
-      <c r="E506" t="inlineStr">
+      <c r="D506" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -9903,7 +9921,7 @@
       <c r="C510" t="n">
         <v>154401081</v>
       </c>
-      <c r="E510" t="n">
+      <c r="D510" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9921,7 +9939,7 @@
       <c r="C511" t="n">
         <v>154401081</v>
       </c>
-      <c r="E511" t="inlineStr">
+      <c r="D511" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -9941,7 +9959,7 @@
       <c r="C512" t="n">
         <v>154401081</v>
       </c>
-      <c r="E512" t="inlineStr">
+      <c r="D512" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -9961,7 +9979,7 @@
       <c r="C513" t="n">
         <v>154401081</v>
       </c>
-      <c r="E513" t="n">
+      <c r="D513" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9979,7 +9997,7 @@
       <c r="C514" t="n">
         <v>154401081</v>
       </c>
-      <c r="E514" t="n">
+      <c r="D514" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9997,7 +10015,7 @@
       <c r="C515" t="n">
         <v>154401081</v>
       </c>
-      <c r="E515" t="inlineStr">
+      <c r="D515" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10017,7 +10035,7 @@
       <c r="C516" t="n">
         <v>154401081</v>
       </c>
-      <c r="E516" t="inlineStr">
+      <c r="D516" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10037,7 +10055,7 @@
       <c r="C517" t="n">
         <v>154401081</v>
       </c>
-      <c r="E517" t="inlineStr">
+      <c r="D517" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10109,7 +10127,7 @@
       <c r="C521" t="n">
         <v>154401082</v>
       </c>
-      <c r="E521" t="n">
+      <c r="D521" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10127,7 +10145,7 @@
       <c r="C522" t="n">
         <v>154401082</v>
       </c>
-      <c r="E522" t="inlineStr">
+      <c r="D522" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -10147,7 +10165,7 @@
       <c r="C523" t="n">
         <v>154401082</v>
       </c>
-      <c r="E523" t="inlineStr">
+      <c r="D523" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -10167,7 +10185,7 @@
       <c r="C524" t="n">
         <v>154401082</v>
       </c>
-      <c r="E524" t="n">
+      <c r="D524" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10185,7 +10203,7 @@
       <c r="C525" t="n">
         <v>154401082</v>
       </c>
-      <c r="E525" t="n">
+      <c r="D525" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10203,7 +10221,7 @@
       <c r="C526" t="n">
         <v>154401082</v>
       </c>
-      <c r="E526" t="inlineStr">
+      <c r="D526" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10223,7 +10241,7 @@
       <c r="C527" t="n">
         <v>154401082</v>
       </c>
-      <c r="E527" t="inlineStr">
+      <c r="D527" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10243,7 +10261,7 @@
       <c r="C528" t="n">
         <v>154401082</v>
       </c>
-      <c r="E528" t="inlineStr">
+      <c r="D528" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10315,7 +10333,7 @@
       <c r="C532" t="n">
         <v>154401083</v>
       </c>
-      <c r="E532" t="n">
+      <c r="D532" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10333,7 +10351,7 @@
       <c r="C533" t="n">
         <v>154401083</v>
       </c>
-      <c r="E533" t="inlineStr">
+      <c r="D533" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -10353,7 +10371,7 @@
       <c r="C534" t="n">
         <v>154401083</v>
       </c>
-      <c r="E534" t="inlineStr">
+      <c r="D534" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -10373,7 +10391,7 @@
       <c r="C535" t="n">
         <v>154401083</v>
       </c>
-      <c r="E535" t="n">
+      <c r="D535" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10391,7 +10409,7 @@
       <c r="C536" t="n">
         <v>154401083</v>
       </c>
-      <c r="E536" t="n">
+      <c r="D536" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10409,7 +10427,7 @@
       <c r="C537" t="n">
         <v>154401083</v>
       </c>
-      <c r="E537" t="inlineStr">
+      <c r="D537" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10429,7 +10447,7 @@
       <c r="C538" t="n">
         <v>154401083</v>
       </c>
-      <c r="E538" t="inlineStr">
+      <c r="D538" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10449,7 +10467,7 @@
       <c r="C539" t="n">
         <v>154401083</v>
       </c>
-      <c r="E539" t="inlineStr">
+      <c r="D539" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10521,7 +10539,7 @@
       <c r="C543" t="n">
         <v>154401084</v>
       </c>
-      <c r="E543" t="n">
+      <c r="D543" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10539,7 +10557,7 @@
       <c r="C544" t="n">
         <v>154401084</v>
       </c>
-      <c r="E544" t="inlineStr">
+      <c r="D544" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -10559,7 +10577,7 @@
       <c r="C545" t="n">
         <v>154401084</v>
       </c>
-      <c r="E545" t="inlineStr">
+      <c r="D545" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -10579,7 +10597,7 @@
       <c r="C546" t="n">
         <v>154401084</v>
       </c>
-      <c r="E546" t="n">
+      <c r="D546" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10597,7 +10615,7 @@
       <c r="C547" t="n">
         <v>154401084</v>
       </c>
-      <c r="E547" t="n">
+      <c r="D547" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10615,7 +10633,7 @@
       <c r="C548" t="n">
         <v>154401084</v>
       </c>
-      <c r="E548" t="inlineStr">
+      <c r="D548" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10635,7 +10653,7 @@
       <c r="C549" t="n">
         <v>154401084</v>
       </c>
-      <c r="E549" t="inlineStr">
+      <c r="D549" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10655,7 +10673,7 @@
       <c r="C550" t="n">
         <v>154401084</v>
       </c>
-      <c r="E550" t="inlineStr">
+      <c r="D550" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10727,7 +10745,7 @@
       <c r="C554" t="n">
         <v>154401085</v>
       </c>
-      <c r="E554" t="n">
+      <c r="D554" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10745,7 +10763,7 @@
       <c r="C555" t="n">
         <v>154401085</v>
       </c>
-      <c r="E555" t="inlineStr">
+      <c r="D555" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -10765,7 +10783,7 @@
       <c r="C556" t="n">
         <v>154401085</v>
       </c>
-      <c r="E556" t="inlineStr">
+      <c r="D556" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -10785,7 +10803,7 @@
       <c r="C557" t="n">
         <v>154401085</v>
       </c>
-      <c r="E557" t="n">
+      <c r="D557" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10803,7 +10821,7 @@
       <c r="C558" t="n">
         <v>154401085</v>
       </c>
-      <c r="E558" t="n">
+      <c r="D558" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10821,7 +10839,7 @@
       <c r="C559" t="n">
         <v>154401085</v>
       </c>
-      <c r="E559" t="inlineStr">
+      <c r="D559" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10841,7 +10859,7 @@
       <c r="C560" t="n">
         <v>154401085</v>
       </c>
-      <c r="E560" t="inlineStr">
+      <c r="D560" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10861,7 +10879,7 @@
       <c r="C561" t="n">
         <v>154401085</v>
       </c>
-      <c r="E561" t="inlineStr">
+      <c r="D561" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -10933,8 +10951,8 @@
       <c r="C565" t="n">
         <v>158160187</v>
       </c>
-      <c r="E565" t="n">
-        <v>7</v>
+      <c r="D565" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="566">
@@ -10951,7 +10969,7 @@
       <c r="C566" t="n">
         <v>158160187</v>
       </c>
-      <c r="E566" t="inlineStr">
+      <c r="D566" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -10971,7 +10989,7 @@
       <c r="C567" t="n">
         <v>158160187</v>
       </c>
-      <c r="E567" t="inlineStr">
+      <c r="D567" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -10991,7 +11009,7 @@
       <c r="C568" t="n">
         <v>158160187</v>
       </c>
-      <c r="E568" t="n">
+      <c r="D568" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11009,7 +11027,7 @@
       <c r="C569" t="n">
         <v>158160187</v>
       </c>
-      <c r="E569" t="n">
+      <c r="D569" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11027,7 +11045,7 @@
       <c r="C570" t="n">
         <v>158160187</v>
       </c>
-      <c r="E570" t="inlineStr">
+      <c r="D570" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11047,7 +11065,7 @@
       <c r="C571" t="n">
         <v>158160187</v>
       </c>
-      <c r="E571" t="inlineStr">
+      <c r="D571" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11067,7 +11085,7 @@
       <c r="C572" t="n">
         <v>158160187</v>
       </c>
-      <c r="E572" t="inlineStr">
+      <c r="D572" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11139,8 +11157,8 @@
       <c r="C576" t="n">
         <v>158160188</v>
       </c>
-      <c r="E576" t="n">
-        <v>16</v>
+      <c r="D576" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="577">
@@ -11157,9 +11175,9 @@
       <c r="C577" t="n">
         <v>158160188</v>
       </c>
-      <c r="E577" t="inlineStr">
-        <is>
-          <t>0%</t>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>17%</t>
         </is>
       </c>
     </row>
@@ -11177,7 +11195,7 @@
       <c r="C578" t="n">
         <v>158160188</v>
       </c>
-      <c r="E578" t="inlineStr">
+      <c r="D578" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -11197,8 +11215,8 @@
       <c r="C579" t="n">
         <v>158160188</v>
       </c>
-      <c r="E579" t="n">
-        <v>0</v>
+      <c r="D579" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="580">
@@ -11215,7 +11233,7 @@
       <c r="C580" t="n">
         <v>158160188</v>
       </c>
-      <c r="E580" t="n">
+      <c r="D580" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11233,7 +11251,7 @@
       <c r="C581" t="n">
         <v>158160188</v>
       </c>
-      <c r="E581" t="inlineStr">
+      <c r="D581" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11253,7 +11271,7 @@
       <c r="C582" t="n">
         <v>158160188</v>
       </c>
-      <c r="E582" t="inlineStr">
+      <c r="D582" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11273,7 +11291,7 @@
       <c r="C583" t="n">
         <v>158160188</v>
       </c>
-      <c r="E583" t="inlineStr">
+      <c r="D583" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11345,7 +11363,7 @@
       <c r="C587" t="n">
         <v>160429558</v>
       </c>
-      <c r="E587" t="n">
+      <c r="D587" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11363,7 +11381,7 @@
       <c r="C588" t="n">
         <v>160429558</v>
       </c>
-      <c r="E588" t="inlineStr">
+      <c r="D588" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -11383,7 +11401,7 @@
       <c r="C589" t="n">
         <v>160429558</v>
       </c>
-      <c r="E589" t="inlineStr">
+      <c r="D589" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -11403,7 +11421,7 @@
       <c r="C590" t="n">
         <v>160429558</v>
       </c>
-      <c r="E590" t="n">
+      <c r="D590" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11421,7 +11439,7 @@
       <c r="C591" t="n">
         <v>160429558</v>
       </c>
-      <c r="E591" t="n">
+      <c r="D591" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11439,7 +11457,7 @@
       <c r="C592" t="n">
         <v>160429558</v>
       </c>
-      <c r="E592" t="inlineStr">
+      <c r="D592" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11459,7 +11477,7 @@
       <c r="C593" t="n">
         <v>160429558</v>
       </c>
-      <c r="E593" t="inlineStr">
+      <c r="D593" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11479,7 +11497,7 @@
       <c r="C594" t="n">
         <v>160429558</v>
       </c>
-      <c r="E594" t="inlineStr">
+      <c r="D594" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11551,7 +11569,7 @@
       <c r="C598" t="n">
         <v>160429566</v>
       </c>
-      <c r="E598" t="n">
+      <c r="D598" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11569,7 +11587,7 @@
       <c r="C599" t="n">
         <v>160429566</v>
       </c>
-      <c r="E599" t="inlineStr">
+      <c r="D599" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -11589,7 +11607,7 @@
       <c r="C600" t="n">
         <v>160429566</v>
       </c>
-      <c r="E600" t="inlineStr">
+      <c r="D600" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -11609,7 +11627,7 @@
       <c r="C601" t="n">
         <v>160429566</v>
       </c>
-      <c r="E601" t="n">
+      <c r="D601" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11627,7 +11645,7 @@
       <c r="C602" t="n">
         <v>160429566</v>
       </c>
-      <c r="E602" t="n">
+      <c r="D602" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11645,7 +11663,7 @@
       <c r="C603" t="n">
         <v>160429566</v>
       </c>
-      <c r="E603" t="inlineStr">
+      <c r="D603" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11665,7 +11683,7 @@
       <c r="C604" t="n">
         <v>160429566</v>
       </c>
-      <c r="E604" t="inlineStr">
+      <c r="D604" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11685,7 +11703,7 @@
       <c r="C605" t="n">
         <v>160429566</v>
       </c>
-      <c r="E605" t="inlineStr">
+      <c r="D605" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11757,7 +11775,7 @@
       <c r="C609" t="n">
         <v>160429568</v>
       </c>
-      <c r="E609" t="n">
+      <c r="D609" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11775,7 +11793,7 @@
       <c r="C610" t="n">
         <v>160429568</v>
       </c>
-      <c r="E610" t="inlineStr">
+      <c r="D610" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -11795,7 +11813,7 @@
       <c r="C611" t="n">
         <v>160429568</v>
       </c>
-      <c r="E611" t="inlineStr">
+      <c r="D611" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -11815,7 +11833,7 @@
       <c r="C612" t="n">
         <v>160429568</v>
       </c>
-      <c r="E612" t="n">
+      <c r="D612" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11833,7 +11851,7 @@
       <c r="C613" t="n">
         <v>160429568</v>
       </c>
-      <c r="E613" t="n">
+      <c r="D613" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11851,7 +11869,7 @@
       <c r="C614" t="n">
         <v>160429568</v>
       </c>
-      <c r="E614" t="inlineStr">
+      <c r="D614" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11871,7 +11889,7 @@
       <c r="C615" t="n">
         <v>160429568</v>
       </c>
-      <c r="E615" t="inlineStr">
+      <c r="D615" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11891,7 +11909,7 @@
       <c r="C616" t="n">
         <v>160429568</v>
       </c>
-      <c r="E616" t="inlineStr">
+      <c r="D616" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -11963,7 +11981,7 @@
       <c r="C620" t="n">
         <v>160429569</v>
       </c>
-      <c r="E620" t="n">
+      <c r="D620" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11981,7 +11999,7 @@
       <c r="C621" t="n">
         <v>160429569</v>
       </c>
-      <c r="E621" t="inlineStr">
+      <c r="D621" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -12001,7 +12019,7 @@
       <c r="C622" t="n">
         <v>160429569</v>
       </c>
-      <c r="E622" t="inlineStr">
+      <c r="D622" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -12021,7 +12039,7 @@
       <c r="C623" t="n">
         <v>160429569</v>
       </c>
-      <c r="E623" t="n">
+      <c r="D623" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12039,7 +12057,7 @@
       <c r="C624" t="n">
         <v>160429569</v>
       </c>
-      <c r="E624" t="n">
+      <c r="D624" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12057,7 +12075,7 @@
       <c r="C625" t="n">
         <v>160429569</v>
       </c>
-      <c r="E625" t="inlineStr">
+      <c r="D625" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12077,7 +12095,7 @@
       <c r="C626" t="n">
         <v>160429569</v>
       </c>
-      <c r="E626" t="inlineStr">
+      <c r="D626" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12097,7 +12115,7 @@
       <c r="C627" t="n">
         <v>160429569</v>
       </c>
-      <c r="E627" t="inlineStr">
+      <c r="D627" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12169,7 +12187,7 @@
       <c r="C631" t="n">
         <v>160429571</v>
       </c>
-      <c r="E631" t="n">
+      <c r="D631" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12187,7 +12205,7 @@
       <c r="C632" t="n">
         <v>160429571</v>
       </c>
-      <c r="E632" t="inlineStr">
+      <c r="D632" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -12207,7 +12225,7 @@
       <c r="C633" t="n">
         <v>160429571</v>
       </c>
-      <c r="E633" t="inlineStr">
+      <c r="D633" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -12227,7 +12245,7 @@
       <c r="C634" t="n">
         <v>160429571</v>
       </c>
-      <c r="E634" t="n">
+      <c r="D634" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12245,7 +12263,7 @@
       <c r="C635" t="n">
         <v>160429571</v>
       </c>
-      <c r="E635" t="n">
+      <c r="D635" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12263,7 +12281,7 @@
       <c r="C636" t="n">
         <v>160429571</v>
       </c>
-      <c r="E636" t="inlineStr">
+      <c r="D636" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12283,7 +12301,7 @@
       <c r="C637" t="n">
         <v>160429571</v>
       </c>
-      <c r="E637" t="inlineStr">
+      <c r="D637" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12303,7 +12321,7 @@
       <c r="C638" t="n">
         <v>160429571</v>
       </c>
-      <c r="E638" t="inlineStr">
+      <c r="D638" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12375,7 +12393,7 @@
       <c r="C642" t="n">
         <v>160429572</v>
       </c>
-      <c r="E642" t="n">
+      <c r="D642" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12393,7 +12411,7 @@
       <c r="C643" t="n">
         <v>160429572</v>
       </c>
-      <c r="E643" t="inlineStr">
+      <c r="D643" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -12413,7 +12431,7 @@
       <c r="C644" t="n">
         <v>160429572</v>
       </c>
-      <c r="E644" t="inlineStr">
+      <c r="D644" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -12433,7 +12451,7 @@
       <c r="C645" t="n">
         <v>160429572</v>
       </c>
-      <c r="E645" t="n">
+      <c r="D645" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12451,7 +12469,7 @@
       <c r="C646" t="n">
         <v>160429572</v>
       </c>
-      <c r="E646" t="n">
+      <c r="D646" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12469,7 +12487,7 @@
       <c r="C647" t="n">
         <v>160429572</v>
       </c>
-      <c r="E647" t="inlineStr">
+      <c r="D647" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12489,7 +12507,7 @@
       <c r="C648" t="n">
         <v>160429572</v>
       </c>
-      <c r="E648" t="inlineStr">
+      <c r="D648" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12509,7 +12527,7 @@
       <c r="C649" t="n">
         <v>160429572</v>
       </c>
-      <c r="E649" t="inlineStr">
+      <c r="D649" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12581,7 +12599,7 @@
       <c r="C653" t="n">
         <v>160429573</v>
       </c>
-      <c r="E653" t="n">
+      <c r="D653" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12599,7 +12617,7 @@
       <c r="C654" t="n">
         <v>160429573</v>
       </c>
-      <c r="E654" t="inlineStr">
+      <c r="D654" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -12619,7 +12637,7 @@
       <c r="C655" t="n">
         <v>160429573</v>
       </c>
-      <c r="E655" t="inlineStr">
+      <c r="D655" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -12639,7 +12657,7 @@
       <c r="C656" t="n">
         <v>160429573</v>
       </c>
-      <c r="E656" t="n">
+      <c r="D656" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12657,7 +12675,7 @@
       <c r="C657" t="n">
         <v>160429573</v>
       </c>
-      <c r="E657" t="n">
+      <c r="D657" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12675,7 +12693,7 @@
       <c r="C658" t="n">
         <v>160429573</v>
       </c>
-      <c r="E658" t="inlineStr">
+      <c r="D658" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12695,7 +12713,7 @@
       <c r="C659" t="n">
         <v>160429573</v>
       </c>
-      <c r="E659" t="inlineStr">
+      <c r="D659" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12715,7 +12733,7 @@
       <c r="C660" t="n">
         <v>160429573</v>
       </c>
-      <c r="E660" t="inlineStr">
+      <c r="D660" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12787,7 +12805,7 @@
       <c r="C664" t="n">
         <v>160429576</v>
       </c>
-      <c r="E664" t="n">
+      <c r="D664" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12805,7 +12823,7 @@
       <c r="C665" t="n">
         <v>160429576</v>
       </c>
-      <c r="E665" t="inlineStr">
+      <c r="D665" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -12825,7 +12843,7 @@
       <c r="C666" t="n">
         <v>160429576</v>
       </c>
-      <c r="E666" t="inlineStr">
+      <c r="D666" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -12845,7 +12863,7 @@
       <c r="C667" t="n">
         <v>160429576</v>
       </c>
-      <c r="E667" t="n">
+      <c r="D667" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12863,7 +12881,7 @@
       <c r="C668" t="n">
         <v>160429576</v>
       </c>
-      <c r="E668" t="n">
+      <c r="D668" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12881,7 +12899,7 @@
       <c r="C669" t="n">
         <v>160429576</v>
       </c>
-      <c r="E669" t="inlineStr">
+      <c r="D669" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12901,7 +12919,7 @@
       <c r="C670" t="n">
         <v>160429576</v>
       </c>
-      <c r="E670" t="inlineStr">
+      <c r="D670" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12921,7 +12939,7 @@
       <c r="C671" t="n">
         <v>160429576</v>
       </c>
-      <c r="E671" t="inlineStr">
+      <c r="D671" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -12993,7 +13011,7 @@
       <c r="C675" t="n">
         <v>160429577</v>
       </c>
-      <c r="E675" t="n">
+      <c r="D675" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13011,7 +13029,7 @@
       <c r="C676" t="n">
         <v>160429577</v>
       </c>
-      <c r="E676" t="inlineStr">
+      <c r="D676" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -13031,7 +13049,7 @@
       <c r="C677" t="n">
         <v>160429577</v>
       </c>
-      <c r="E677" t="inlineStr">
+      <c r="D677" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -13051,7 +13069,7 @@
       <c r="C678" t="n">
         <v>160429577</v>
       </c>
-      <c r="E678" t="n">
+      <c r="D678" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13069,7 +13087,7 @@
       <c r="C679" t="n">
         <v>160429577</v>
       </c>
-      <c r="E679" t="n">
+      <c r="D679" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13087,7 +13105,7 @@
       <c r="C680" t="n">
         <v>160429577</v>
       </c>
-      <c r="E680" t="inlineStr">
+      <c r="D680" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13107,7 +13125,7 @@
       <c r="C681" t="n">
         <v>160429577</v>
       </c>
-      <c r="E681" t="inlineStr">
+      <c r="D681" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13127,7 +13145,7 @@
       <c r="C682" t="n">
         <v>160429577</v>
       </c>
-      <c r="E682" t="inlineStr">
+      <c r="D682" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13199,7 +13217,7 @@
       <c r="C686" t="n">
         <v>160429578</v>
       </c>
-      <c r="E686" t="n">
+      <c r="D686" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13217,7 +13235,7 @@
       <c r="C687" t="n">
         <v>160429578</v>
       </c>
-      <c r="E687" t="inlineStr">
+      <c r="D687" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -13237,7 +13255,7 @@
       <c r="C688" t="n">
         <v>160429578</v>
       </c>
-      <c r="E688" t="inlineStr">
+      <c r="D688" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -13257,7 +13275,7 @@
       <c r="C689" t="n">
         <v>160429578</v>
       </c>
-      <c r="E689" t="n">
+      <c r="D689" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13275,7 +13293,7 @@
       <c r="C690" t="n">
         <v>160429578</v>
       </c>
-      <c r="E690" t="n">
+      <c r="D690" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13293,7 +13311,7 @@
       <c r="C691" t="n">
         <v>160429578</v>
       </c>
-      <c r="E691" t="inlineStr">
+      <c r="D691" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13313,7 +13331,7 @@
       <c r="C692" t="n">
         <v>160429578</v>
       </c>
-      <c r="E692" t="inlineStr">
+      <c r="D692" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13333,7 +13351,7 @@
       <c r="C693" t="n">
         <v>160429578</v>
       </c>
-      <c r="E693" t="inlineStr">
+      <c r="D693" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13405,7 +13423,7 @@
       <c r="C697" t="n">
         <v>160429579</v>
       </c>
-      <c r="E697" t="n">
+      <c r="D697" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13423,7 +13441,7 @@
       <c r="C698" t="n">
         <v>160429579</v>
       </c>
-      <c r="E698" t="inlineStr">
+      <c r="D698" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -13443,7 +13461,7 @@
       <c r="C699" t="n">
         <v>160429579</v>
       </c>
-      <c r="E699" t="inlineStr">
+      <c r="D699" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -13463,7 +13481,7 @@
       <c r="C700" t="n">
         <v>160429579</v>
       </c>
-      <c r="E700" t="n">
+      <c r="D700" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13481,7 +13499,7 @@
       <c r="C701" t="n">
         <v>160429579</v>
       </c>
-      <c r="E701" t="n">
+      <c r="D701" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13499,7 +13517,7 @@
       <c r="C702" t="n">
         <v>160429579</v>
       </c>
-      <c r="E702" t="inlineStr">
+      <c r="D702" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13519,7 +13537,7 @@
       <c r="C703" t="n">
         <v>160429579</v>
       </c>
-      <c r="E703" t="inlineStr">
+      <c r="D703" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13539,7 +13557,7 @@
       <c r="C704" t="n">
         <v>160429579</v>
       </c>
-      <c r="E704" t="inlineStr">
+      <c r="D704" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13611,7 +13629,7 @@
       <c r="C708" t="n">
         <v>160429587</v>
       </c>
-      <c r="E708" t="n">
+      <c r="D708" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13629,7 +13647,7 @@
       <c r="C709" t="n">
         <v>160429587</v>
       </c>
-      <c r="E709" t="inlineStr">
+      <c r="D709" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -13649,7 +13667,7 @@
       <c r="C710" t="n">
         <v>160429587</v>
       </c>
-      <c r="E710" t="inlineStr">
+      <c r="D710" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -13669,7 +13687,7 @@
       <c r="C711" t="n">
         <v>160429587</v>
       </c>
-      <c r="E711" t="n">
+      <c r="D711" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13687,7 +13705,7 @@
       <c r="C712" t="n">
         <v>160429587</v>
       </c>
-      <c r="E712" t="n">
+      <c r="D712" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13705,7 +13723,7 @@
       <c r="C713" t="n">
         <v>160429587</v>
       </c>
-      <c r="E713" t="inlineStr">
+      <c r="D713" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13725,7 +13743,7 @@
       <c r="C714" t="n">
         <v>160429587</v>
       </c>
-      <c r="E714" t="inlineStr">
+      <c r="D714" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13745,7 +13763,7 @@
       <c r="C715" t="n">
         <v>160429587</v>
       </c>
-      <c r="E715" t="inlineStr">
+      <c r="D715" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13817,7 +13835,7 @@
       <c r="C719" t="n">
         <v>160429593</v>
       </c>
-      <c r="E719" t="n">
+      <c r="D719" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13835,7 +13853,7 @@
       <c r="C720" t="n">
         <v>160429593</v>
       </c>
-      <c r="E720" t="inlineStr">
+      <c r="D720" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -13855,7 +13873,7 @@
       <c r="C721" t="n">
         <v>160429593</v>
       </c>
-      <c r="E721" t="inlineStr">
+      <c r="D721" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -13875,7 +13893,7 @@
       <c r="C722" t="n">
         <v>160429593</v>
       </c>
-      <c r="E722" t="n">
+      <c r="D722" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13893,7 +13911,7 @@
       <c r="C723" t="n">
         <v>160429593</v>
       </c>
-      <c r="E723" t="n">
+      <c r="D723" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13911,7 +13929,7 @@
       <c r="C724" t="n">
         <v>160429593</v>
       </c>
-      <c r="E724" t="inlineStr">
+      <c r="D724" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13931,7 +13949,7 @@
       <c r="C725" t="n">
         <v>160429593</v>
       </c>
-      <c r="E725" t="inlineStr">
+      <c r="D725" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -13951,7 +13969,7 @@
       <c r="C726" t="n">
         <v>160429593</v>
       </c>
-      <c r="E726" t="inlineStr">
+      <c r="D726" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14023,7 +14041,7 @@
       <c r="C730" t="n">
         <v>160429594</v>
       </c>
-      <c r="E730" t="n">
+      <c r="D730" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14041,7 +14059,7 @@
       <c r="C731" t="n">
         <v>160429594</v>
       </c>
-      <c r="E731" t="inlineStr">
+      <c r="D731" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -14061,7 +14079,7 @@
       <c r="C732" t="n">
         <v>160429594</v>
       </c>
-      <c r="E732" t="inlineStr">
+      <c r="D732" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -14081,7 +14099,7 @@
       <c r="C733" t="n">
         <v>160429594</v>
       </c>
-      <c r="E733" t="n">
+      <c r="D733" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14099,7 +14117,7 @@
       <c r="C734" t="n">
         <v>160429594</v>
       </c>
-      <c r="E734" t="n">
+      <c r="D734" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14117,7 +14135,7 @@
       <c r="C735" t="n">
         <v>160429594</v>
       </c>
-      <c r="E735" t="inlineStr">
+      <c r="D735" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14137,7 +14155,7 @@
       <c r="C736" t="n">
         <v>160429594</v>
       </c>
-      <c r="E736" t="inlineStr">
+      <c r="D736" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14157,7 +14175,7 @@
       <c r="C737" t="n">
         <v>160429594</v>
       </c>
-      <c r="E737" t="inlineStr">
+      <c r="D737" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14229,7 +14247,7 @@
       <c r="C741" t="n">
         <v>160429597</v>
       </c>
-      <c r="E741" t="n">
+      <c r="D741" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14247,7 +14265,7 @@
       <c r="C742" t="n">
         <v>160429597</v>
       </c>
-      <c r="E742" t="inlineStr">
+      <c r="D742" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -14267,7 +14285,7 @@
       <c r="C743" t="n">
         <v>160429597</v>
       </c>
-      <c r="E743" t="inlineStr">
+      <c r="D743" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -14287,7 +14305,7 @@
       <c r="C744" t="n">
         <v>160429597</v>
       </c>
-      <c r="E744" t="n">
+      <c r="D744" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14305,7 +14323,7 @@
       <c r="C745" t="n">
         <v>160429597</v>
       </c>
-      <c r="E745" t="n">
+      <c r="D745" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14323,7 +14341,7 @@
       <c r="C746" t="n">
         <v>160429597</v>
       </c>
-      <c r="E746" t="inlineStr">
+      <c r="D746" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14343,7 +14361,7 @@
       <c r="C747" t="n">
         <v>160429597</v>
       </c>
-      <c r="E747" t="inlineStr">
+      <c r="D747" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14363,7 +14381,7 @@
       <c r="C748" t="n">
         <v>160429597</v>
       </c>
-      <c r="E748" t="inlineStr">
+      <c r="D748" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14435,7 +14453,7 @@
       <c r="C752" t="n">
         <v>160429599</v>
       </c>
-      <c r="E752" t="n">
+      <c r="D752" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14453,7 +14471,7 @@
       <c r="C753" t="n">
         <v>160429599</v>
       </c>
-      <c r="E753" t="inlineStr">
+      <c r="D753" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -14473,7 +14491,7 @@
       <c r="C754" t="n">
         <v>160429599</v>
       </c>
-      <c r="E754" t="inlineStr">
+      <c r="D754" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -14493,7 +14511,7 @@
       <c r="C755" t="n">
         <v>160429599</v>
       </c>
-      <c r="E755" t="n">
+      <c r="D755" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14511,7 +14529,7 @@
       <c r="C756" t="n">
         <v>160429599</v>
       </c>
-      <c r="E756" t="n">
+      <c r="D756" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14529,7 +14547,7 @@
       <c r="C757" t="n">
         <v>160429599</v>
       </c>
-      <c r="E757" t="inlineStr">
+      <c r="D757" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14549,7 +14567,7 @@
       <c r="C758" t="n">
         <v>160429599</v>
       </c>
-      <c r="E758" t="inlineStr">
+      <c r="D758" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14569,7 +14587,7 @@
       <c r="C759" t="n">
         <v>160429599</v>
       </c>
-      <c r="E759" t="inlineStr">
+      <c r="D759" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14641,7 +14659,7 @@
       <c r="C763" t="n">
         <v>160429600</v>
       </c>
-      <c r="E763" t="n">
+      <c r="D763" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14659,7 +14677,7 @@
       <c r="C764" t="n">
         <v>160429600</v>
       </c>
-      <c r="E764" t="inlineStr">
+      <c r="D764" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -14679,7 +14697,7 @@
       <c r="C765" t="n">
         <v>160429600</v>
       </c>
-      <c r="E765" t="inlineStr">
+      <c r="D765" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -14699,7 +14717,7 @@
       <c r="C766" t="n">
         <v>160429600</v>
       </c>
-      <c r="E766" t="n">
+      <c r="D766" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14717,7 +14735,7 @@
       <c r="C767" t="n">
         <v>160429600</v>
       </c>
-      <c r="E767" t="n">
+      <c r="D767" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14735,7 +14753,7 @@
       <c r="C768" t="n">
         <v>160429600</v>
       </c>
-      <c r="E768" t="inlineStr">
+      <c r="D768" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14755,7 +14773,7 @@
       <c r="C769" t="n">
         <v>160429600</v>
       </c>
-      <c r="E769" t="inlineStr">
+      <c r="D769" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14775,7 +14793,7 @@
       <c r="C770" t="n">
         <v>160429600</v>
       </c>
-      <c r="E770" t="inlineStr">
+      <c r="D770" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14847,7 +14865,7 @@
       <c r="C774" t="n">
         <v>160429602</v>
       </c>
-      <c r="E774" t="n">
+      <c r="D774" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14865,7 +14883,7 @@
       <c r="C775" t="n">
         <v>160429602</v>
       </c>
-      <c r="E775" t="inlineStr">
+      <c r="D775" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -14885,7 +14903,7 @@
       <c r="C776" t="n">
         <v>160429602</v>
       </c>
-      <c r="E776" t="inlineStr">
+      <c r="D776" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -14905,7 +14923,7 @@
       <c r="C777" t="n">
         <v>160429602</v>
       </c>
-      <c r="E777" t="n">
+      <c r="D777" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14923,7 +14941,7 @@
       <c r="C778" t="n">
         <v>160429602</v>
       </c>
-      <c r="E778" t="n">
+      <c r="D778" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14941,7 +14959,7 @@
       <c r="C779" t="n">
         <v>160429602</v>
       </c>
-      <c r="E779" t="inlineStr">
+      <c r="D779" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14961,7 +14979,7 @@
       <c r="C780" t="n">
         <v>160429602</v>
       </c>
-      <c r="E780" t="inlineStr">
+      <c r="D780" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -14981,7 +14999,7 @@
       <c r="C781" t="n">
         <v>160429602</v>
       </c>
-      <c r="E781" t="inlineStr">
+      <c r="D781" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15053,7 +15071,7 @@
       <c r="C785" t="n">
         <v>160429606</v>
       </c>
-      <c r="E785" t="n">
+      <c r="D785" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15071,7 +15089,7 @@
       <c r="C786" t="n">
         <v>160429606</v>
       </c>
-      <c r="E786" t="inlineStr">
+      <c r="D786" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -15091,7 +15109,7 @@
       <c r="C787" t="n">
         <v>160429606</v>
       </c>
-      <c r="E787" t="inlineStr">
+      <c r="D787" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -15111,7 +15129,7 @@
       <c r="C788" t="n">
         <v>160429606</v>
       </c>
-      <c r="E788" t="n">
+      <c r="D788" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15129,7 +15147,7 @@
       <c r="C789" t="n">
         <v>160429606</v>
       </c>
-      <c r="E789" t="n">
+      <c r="D789" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15147,7 +15165,7 @@
       <c r="C790" t="n">
         <v>160429606</v>
       </c>
-      <c r="E790" t="inlineStr">
+      <c r="D790" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15167,7 +15185,7 @@
       <c r="C791" t="n">
         <v>160429606</v>
       </c>
-      <c r="E791" t="inlineStr">
+      <c r="D791" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15187,7 +15205,7 @@
       <c r="C792" t="n">
         <v>160429606</v>
       </c>
-      <c r="E792" t="inlineStr">
+      <c r="D792" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15259,7 +15277,7 @@
       <c r="C796" t="n">
         <v>160429607</v>
       </c>
-      <c r="E796" t="n">
+      <c r="D796" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15277,7 +15295,7 @@
       <c r="C797" t="n">
         <v>160429607</v>
       </c>
-      <c r="E797" t="inlineStr">
+      <c r="D797" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -15297,7 +15315,7 @@
       <c r="C798" t="n">
         <v>160429607</v>
       </c>
-      <c r="E798" t="inlineStr">
+      <c r="D798" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -15317,7 +15335,7 @@
       <c r="C799" t="n">
         <v>160429607</v>
       </c>
-      <c r="E799" t="n">
+      <c r="D799" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15335,7 +15353,7 @@
       <c r="C800" t="n">
         <v>160429607</v>
       </c>
-      <c r="E800" t="n">
+      <c r="D800" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15353,7 +15371,7 @@
       <c r="C801" t="n">
         <v>160429607</v>
       </c>
-      <c r="E801" t="inlineStr">
+      <c r="D801" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15373,7 +15391,7 @@
       <c r="C802" t="n">
         <v>160429607</v>
       </c>
-      <c r="E802" t="inlineStr">
+      <c r="D802" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15393,7 +15411,7 @@
       <c r="C803" t="n">
         <v>160429607</v>
       </c>
-      <c r="E803" t="inlineStr">
+      <c r="D803" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15465,8 +15483,8 @@
       <c r="C807" t="n">
         <v>168338412</v>
       </c>
-      <c r="E807" t="n">
-        <v>4</v>
+      <c r="D807" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="808">
@@ -15483,7 +15501,7 @@
       <c r="C808" t="n">
         <v>168338412</v>
       </c>
-      <c r="E808" t="inlineStr">
+      <c r="D808" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -15503,7 +15521,7 @@
       <c r="C809" t="n">
         <v>168338412</v>
       </c>
-      <c r="E809" t="inlineStr">
+      <c r="D809" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -15523,7 +15541,7 @@
       <c r="C810" t="n">
         <v>168338412</v>
       </c>
-      <c r="E810" t="n">
+      <c r="D810" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15541,7 +15559,7 @@
       <c r="C811" t="n">
         <v>168338412</v>
       </c>
-      <c r="E811" t="n">
+      <c r="D811" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15559,7 +15577,7 @@
       <c r="C812" t="n">
         <v>168338412</v>
       </c>
-      <c r="E812" t="inlineStr">
+      <c r="D812" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15579,7 +15597,7 @@
       <c r="C813" t="n">
         <v>168338412</v>
       </c>
-      <c r="E813" t="inlineStr">
+      <c r="D813" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15599,7 +15617,7 @@
       <c r="C814" t="n">
         <v>168338412</v>
       </c>
-      <c r="E814" t="inlineStr">
+      <c r="D814" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15671,8 +15689,8 @@
       <c r="C818" t="n">
         <v>168522530</v>
       </c>
-      <c r="E818" t="n">
-        <v>29</v>
+      <c r="D818" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="819">
@@ -15689,7 +15707,7 @@
       <c r="C819" t="n">
         <v>168522530</v>
       </c>
-      <c r="E819" t="inlineStr">
+      <c r="D819" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -15709,7 +15727,7 @@
       <c r="C820" t="n">
         <v>168522530</v>
       </c>
-      <c r="E820" t="inlineStr">
+      <c r="D820" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -15729,7 +15747,7 @@
       <c r="C821" t="n">
         <v>168522530</v>
       </c>
-      <c r="E821" t="n">
+      <c r="D821" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15747,7 +15765,7 @@
       <c r="C822" t="n">
         <v>168522530</v>
       </c>
-      <c r="E822" t="n">
+      <c r="D822" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15765,7 +15783,7 @@
       <c r="C823" t="n">
         <v>168522530</v>
       </c>
-      <c r="E823" t="inlineStr">
+      <c r="D823" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15785,7 +15803,7 @@
       <c r="C824" t="n">
         <v>168522530</v>
       </c>
-      <c r="E824" t="inlineStr">
+      <c r="D824" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15805,7 +15823,7 @@
       <c r="C825" t="n">
         <v>168522530</v>
       </c>
-      <c r="E825" t="inlineStr">
+      <c r="D825" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15877,8 +15895,8 @@
       <c r="C829" t="n">
         <v>168558920</v>
       </c>
-      <c r="E829" t="n">
-        <v>28</v>
+      <c r="D829" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="830">
@@ -15895,7 +15913,7 @@
       <c r="C830" t="n">
         <v>168558920</v>
       </c>
-      <c r="E830" t="inlineStr">
+      <c r="D830" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -15915,7 +15933,7 @@
       <c r="C831" t="n">
         <v>168558920</v>
       </c>
-      <c r="E831" t="inlineStr">
+      <c r="D831" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -15935,7 +15953,7 @@
       <c r="C832" t="n">
         <v>168558920</v>
       </c>
-      <c r="E832" t="n">
+      <c r="D832" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15953,7 +15971,7 @@
       <c r="C833" t="n">
         <v>168558920</v>
       </c>
-      <c r="E833" t="n">
+      <c r="D833" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15971,7 +15989,7 @@
       <c r="C834" t="n">
         <v>168558920</v>
       </c>
-      <c r="E834" t="inlineStr">
+      <c r="D834" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -15991,7 +16009,7 @@
       <c r="C835" t="n">
         <v>168558920</v>
       </c>
-      <c r="E835" t="inlineStr">
+      <c r="D835" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -16011,7 +16029,7 @@
       <c r="C836" t="n">
         <v>168558920</v>
       </c>
-      <c r="E836" t="inlineStr">
+      <c r="D836" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -16083,8 +16101,8 @@
       <c r="C840" t="n">
         <v>172822733</v>
       </c>
-      <c r="E840" t="n">
-        <v>10</v>
+      <c r="D840" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="841">
@@ -16101,9 +16119,9 @@
       <c r="C841" t="n">
         <v>172822733</v>
       </c>
-      <c r="E841" t="inlineStr">
-        <is>
-          <t>0%</t>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>7%</t>
         </is>
       </c>
     </row>
@@ -16121,7 +16139,7 @@
       <c r="C842" t="n">
         <v>172822733</v>
       </c>
-      <c r="E842" t="inlineStr">
+      <c r="D842" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -16141,8 +16159,8 @@
       <c r="C843" t="n">
         <v>172822733</v>
       </c>
-      <c r="E843" t="n">
-        <v>0</v>
+      <c r="D843" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="844">
@@ -16159,7 +16177,7 @@
       <c r="C844" t="n">
         <v>172822733</v>
       </c>
-      <c r="E844" t="n">
+      <c r="D844" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16177,7 +16195,7 @@
       <c r="C845" t="n">
         <v>172822733</v>
       </c>
-      <c r="E845" t="inlineStr">
+      <c r="D845" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -16197,7 +16215,7 @@
       <c r="C846" t="n">
         <v>172822733</v>
       </c>
-      <c r="E846" t="inlineStr">
+      <c r="D846" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -16217,7 +16235,7 @@
       <c r="C847" t="n">
         <v>172822733</v>
       </c>
-      <c r="E847" t="inlineStr">
+      <c r="D847" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -16289,8 +16307,8 @@
       <c r="C851" t="n">
         <v>179010873</v>
       </c>
-      <c r="E851" t="n">
-        <v>45</v>
+      <c r="D851" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="852">
@@ -16307,7 +16325,7 @@
       <c r="C852" t="n">
         <v>179010873</v>
       </c>
-      <c r="E852" t="inlineStr">
+      <c r="D852" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -16327,7 +16345,7 @@
       <c r="C853" t="n">
         <v>179010873</v>
       </c>
-      <c r="E853" t="inlineStr">
+      <c r="D853" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -16347,7 +16365,7 @@
       <c r="C854" t="n">
         <v>179010873</v>
       </c>
-      <c r="E854" t="n">
+      <c r="D854" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16365,7 +16383,7 @@
       <c r="C855" t="n">
         <v>179010873</v>
       </c>
-      <c r="E855" t="n">
+      <c r="D855" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16383,7 +16401,7 @@
       <c r="C856" t="n">
         <v>179010873</v>
       </c>
-      <c r="E856" t="inlineStr">
+      <c r="D856" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -16403,7 +16421,7 @@
       <c r="C857" t="n">
         <v>179010873</v>
       </c>
-      <c r="E857" t="inlineStr">
+      <c r="D857" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -16423,7 +16441,7 @@
       <c r="C858" t="n">
         <v>179010873</v>
       </c>
-      <c r="E858" t="inlineStr">
+      <c r="D858" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -16495,8 +16513,8 @@
       <c r="C862" t="n">
         <v>179026305</v>
       </c>
-      <c r="E862" t="n">
-        <v>48</v>
+      <c r="D862" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="863">
@@ -16513,9 +16531,9 @@
       <c r="C863" t="n">
         <v>179026305</v>
       </c>
-      <c r="E863" t="inlineStr">
-        <is>
-          <t>2%</t>
+      <c r="D863" t="inlineStr">
+        <is>
+          <t>0%</t>
         </is>
       </c>
     </row>
@@ -16533,7 +16551,7 @@
       <c r="C864" t="n">
         <v>179026305</v>
       </c>
-      <c r="E864" t="inlineStr">
+      <c r="D864" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -16553,8 +16571,8 @@
       <c r="C865" t="n">
         <v>179026305</v>
       </c>
-      <c r="E865" t="n">
-        <v>1</v>
+      <c r="D865" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="866">
@@ -16571,7 +16589,7 @@
       <c r="C866" t="n">
         <v>179026305</v>
       </c>
-      <c r="E866" t="n">
+      <c r="D866" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16589,7 +16607,7 @@
       <c r="C867" t="n">
         <v>179026305</v>
       </c>
-      <c r="E867" t="inlineStr">
+      <c r="D867" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -16609,7 +16627,7 @@
       <c r="C868" t="n">
         <v>179026305</v>
       </c>
-      <c r="E868" t="inlineStr">
+      <c r="D868" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -16629,7 +16647,7 @@
       <c r="C869" t="n">
         <v>179026305</v>
       </c>
-      <c r="E869" t="inlineStr">
+      <c r="D869" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -16701,7 +16719,7 @@
       <c r="C873" t="n">
         <v>179102423</v>
       </c>
-      <c r="E873" t="n">
+      <c r="D873" t="n">
         <v>3</v>
       </c>
     </row>
@@ -16719,7 +16737,7 @@
       <c r="C874" t="n">
         <v>179102423</v>
       </c>
-      <c r="E874" t="inlineStr">
+      <c r="D874" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -16739,7 +16757,7 @@
       <c r="C875" t="n">
         <v>179102423</v>
       </c>
-      <c r="E875" t="inlineStr">
+      <c r="D875" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -16759,7 +16777,7 @@
       <c r="C876" t="n">
         <v>179102423</v>
       </c>
-      <c r="E876" t="n">
+      <c r="D876" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16777,7 +16795,7 @@
       <c r="C877" t="n">
         <v>179102423</v>
       </c>
-      <c r="E877" t="n">
+      <c r="D877" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16795,7 +16813,7 @@
       <c r="C878" t="n">
         <v>179102423</v>
       </c>
-      <c r="E878" t="inlineStr">
+      <c r="D878" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -16815,7 +16833,7 @@
       <c r="C879" t="n">
         <v>179102423</v>
       </c>
-      <c r="E879" t="inlineStr">
+      <c r="D879" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -16835,7 +16853,7 @@
       <c r="C880" t="n">
         <v>179102423</v>
       </c>
-      <c r="E880" t="inlineStr">
+      <c r="D880" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -16907,8 +16925,8 @@
       <c r="C884" t="n">
         <v>179720347</v>
       </c>
-      <c r="E884" t="n">
-        <v>0</v>
+      <c r="D884" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="885">
@@ -16925,7 +16943,7 @@
       <c r="C885" t="n">
         <v>179720347</v>
       </c>
-      <c r="E885" t="inlineStr">
+      <c r="D885" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -16945,7 +16963,7 @@
       <c r="C886" t="n">
         <v>179720347</v>
       </c>
-      <c r="E886" t="inlineStr">
+      <c r="D886" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -16965,7 +16983,7 @@
       <c r="C887" t="n">
         <v>179720347</v>
       </c>
-      <c r="E887" t="n">
+      <c r="D887" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16983,7 +17001,7 @@
       <c r="C888" t="n">
         <v>179720347</v>
       </c>
-      <c r="E888" t="n">
+      <c r="D888" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17001,7 +17019,7 @@
       <c r="C889" t="n">
         <v>179720347</v>
       </c>
-      <c r="E889" t="inlineStr">
+      <c r="D889" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -17021,7 +17039,7 @@
       <c r="C890" t="n">
         <v>179720347</v>
       </c>
-      <c r="E890" t="inlineStr">
+      <c r="D890" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -17041,7 +17059,7 @@
       <c r="C891" t="n">
         <v>179720347</v>
       </c>
-      <c r="E891" t="inlineStr">
+      <c r="D891" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -17113,8 +17131,8 @@
       <c r="C895" t="n">
         <v>179730254</v>
       </c>
-      <c r="E895" t="n">
-        <v>0</v>
+      <c r="D895" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="896">
@@ -17131,7 +17149,7 @@
       <c r="C896" t="n">
         <v>179730254</v>
       </c>
-      <c r="E896" t="inlineStr">
+      <c r="D896" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -17151,7 +17169,7 @@
       <c r="C897" t="n">
         <v>179730254</v>
       </c>
-      <c r="E897" t="inlineStr">
+      <c r="D897" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -17171,7 +17189,7 @@
       <c r="C898" t="n">
         <v>179730254</v>
       </c>
-      <c r="E898" t="n">
+      <c r="D898" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17189,7 +17207,7 @@
       <c r="C899" t="n">
         <v>179730254</v>
       </c>
-      <c r="E899" t="n">
+      <c r="D899" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17207,7 +17225,7 @@
       <c r="C900" t="n">
         <v>179730254</v>
       </c>
-      <c r="E900" t="inlineStr">
+      <c r="D900" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -17227,7 +17245,7 @@
       <c r="C901" t="n">
         <v>179730254</v>
       </c>
-      <c r="E901" t="inlineStr">
+      <c r="D901" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -17247,7 +17265,7 @@
       <c r="C902" t="n">
         <v>179730254</v>
       </c>
-      <c r="E902" t="inlineStr">
+      <c r="D902" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -17319,8 +17337,8 @@
       <c r="C906" t="n">
         <v>181929517</v>
       </c>
-      <c r="E906" t="n">
-        <v>11</v>
+      <c r="D906" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="907">
@@ -17337,7 +17355,7 @@
       <c r="C907" t="n">
         <v>181929517</v>
       </c>
-      <c r="E907" t="inlineStr">
+      <c r="D907" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -17357,7 +17375,7 @@
       <c r="C908" t="n">
         <v>181929517</v>
       </c>
-      <c r="E908" t="inlineStr">
+      <c r="D908" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -17377,7 +17395,7 @@
       <c r="C909" t="n">
         <v>181929517</v>
       </c>
-      <c r="E909" t="n">
+      <c r="D909" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17395,7 +17413,7 @@
       <c r="C910" t="n">
         <v>181929517</v>
       </c>
-      <c r="E910" t="n">
+      <c r="D910" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17413,7 +17431,7 @@
       <c r="C911" t="n">
         <v>181929517</v>
       </c>
-      <c r="E911" t="inlineStr">
+      <c r="D911" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -17433,7 +17451,7 @@
       <c r="C912" t="n">
         <v>181929517</v>
       </c>
-      <c r="E912" t="inlineStr">
+      <c r="D912" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -17453,7 +17471,7 @@
       <c r="C913" t="n">
         <v>181929517</v>
       </c>
-      <c r="E913" t="inlineStr">
+      <c r="D913" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -17525,8 +17543,8 @@
       <c r="C917" t="n">
         <v>182246594</v>
       </c>
-      <c r="E917" t="n">
-        <v>40</v>
+      <c r="D917" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="918">
@@ -17543,7 +17561,7 @@
       <c r="C918" t="n">
         <v>182246594</v>
       </c>
-      <c r="E918" t="inlineStr">
+      <c r="D918" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -17563,7 +17581,7 @@
       <c r="C919" t="n">
         <v>182246594</v>
       </c>
-      <c r="E919" t="inlineStr">
+      <c r="D919" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -17583,7 +17601,7 @@
       <c r="C920" t="n">
         <v>182246594</v>
       </c>
-      <c r="E920" t="n">
+      <c r="D920" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17601,7 +17619,7 @@
       <c r="C921" t="n">
         <v>182246594</v>
       </c>
-      <c r="E921" t="n">
+      <c r="D921" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17619,7 +17637,7 @@
       <c r="C922" t="n">
         <v>182246594</v>
       </c>
-      <c r="E922" t="inlineStr">
+      <c r="D922" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -17639,7 +17657,7 @@
       <c r="C923" t="n">
         <v>182246594</v>
       </c>
-      <c r="E923" t="inlineStr">
+      <c r="D923" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -17659,7 +17677,7 @@
       <c r="C924" t="n">
         <v>182246594</v>
       </c>
-      <c r="E924" t="inlineStr">
+      <c r="D924" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -17731,8 +17749,8 @@
       <c r="C928" t="n">
         <v>184845754</v>
       </c>
-      <c r="E928" t="n">
-        <v>18</v>
+      <c r="D928" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="929">
@@ -17749,7 +17767,7 @@
       <c r="C929" t="n">
         <v>184845754</v>
       </c>
-      <c r="E929" t="inlineStr">
+      <c r="D929" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -17769,7 +17787,7 @@
       <c r="C930" t="n">
         <v>184845754</v>
       </c>
-      <c r="E930" t="inlineStr">
+      <c r="D930" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -17789,7 +17807,7 @@
       <c r="C931" t="n">
         <v>184845754</v>
       </c>
-      <c r="E931" t="n">
+      <c r="D931" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17807,7 +17825,7 @@
       <c r="C932" t="n">
         <v>184845754</v>
       </c>
-      <c r="E932" t="n">
+      <c r="D932" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17825,7 +17843,7 @@
       <c r="C933" t="n">
         <v>184845754</v>
       </c>
-      <c r="E933" t="inlineStr">
+      <c r="D933" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -17845,7 +17863,7 @@
       <c r="C934" t="n">
         <v>184845754</v>
       </c>
-      <c r="E934" t="inlineStr">
+      <c r="D934" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -17865,7 +17883,7 @@
       <c r="C935" t="n">
         <v>184845754</v>
       </c>
-      <c r="E935" t="inlineStr">
+      <c r="D935" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -17937,8 +17955,8 @@
       <c r="C939" t="n">
         <v>196578249</v>
       </c>
-      <c r="E939" t="n">
-        <v>66</v>
+      <c r="D939" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="940">
@@ -17955,7 +17973,7 @@
       <c r="C940" t="n">
         <v>196578249</v>
       </c>
-      <c r="E940" t="inlineStr">
+      <c r="D940" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -17975,7 +17993,7 @@
       <c r="C941" t="n">
         <v>196578249</v>
       </c>
-      <c r="E941" t="inlineStr">
+      <c r="D941" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -17995,7 +18013,7 @@
       <c r="C942" t="n">
         <v>196578249</v>
       </c>
-      <c r="E942" t="n">
+      <c r="D942" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18013,7 +18031,7 @@
       <c r="C943" t="n">
         <v>196578249</v>
       </c>
-      <c r="E943" t="n">
+      <c r="D943" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18031,7 +18049,7 @@
       <c r="C944" t="n">
         <v>196578249</v>
       </c>
-      <c r="E944" t="inlineStr">
+      <c r="D944" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -18051,7 +18069,7 @@
       <c r="C945" t="n">
         <v>196578249</v>
       </c>
-      <c r="E945" t="inlineStr">
+      <c r="D945" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -18071,7 +18089,7 @@
       <c r="C946" t="n">
         <v>196578249</v>
       </c>
-      <c r="E946" t="inlineStr">
+      <c r="D946" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -18143,7 +18161,7 @@
       <c r="C950" t="n">
         <v>214122485</v>
       </c>
-      <c r="E950" t="n">
+      <c r="D950" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18161,7 +18179,7 @@
       <c r="C951" t="n">
         <v>214122485</v>
       </c>
-      <c r="E951" t="inlineStr">
+      <c r="D951" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -18181,7 +18199,7 @@
       <c r="C952" t="n">
         <v>214122485</v>
       </c>
-      <c r="E952" t="inlineStr">
+      <c r="D952" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
@@ -18201,7 +18219,7 @@
       <c r="C953" t="n">
         <v>214122485</v>
       </c>
-      <c r="E953" t="n">
+      <c r="D953" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18219,7 +18237,7 @@
       <c r="C954" t="n">
         <v>214122485</v>
       </c>
-      <c r="E954" t="n">
+      <c r="D954" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18237,7 +18255,7 @@
       <c r="C955" t="n">
         <v>214122485</v>
       </c>
-      <c r="E955" t="inlineStr">
+      <c r="D955" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -18257,7 +18275,7 @@
       <c r="C956" t="n">
         <v>214122485</v>
       </c>
-      <c r="E956" t="inlineStr">
+      <c r="D956" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -18277,7 +18295,7 @@
       <c r="C957" t="n">
         <v>214122485</v>
       </c>
-      <c r="E957" t="inlineStr">
+      <c r="D957" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/analyticWB.xlsx
+++ b/analyticWB.xlsx
@@ -2376,7 +2376,7 @@
         <v>185085851</v>
       </c>
       <c r="D107" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108">
@@ -3200,7 +3200,7 @@
         <v>196148405</v>
       </c>
       <c r="D151" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="152">

--- a/analyticWB.xlsx
+++ b/analyticWB.xlsx
@@ -564,7 +564,7 @@
         <v>217108094</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>594</v>
       </c>
     </row>
     <row r="9">
@@ -764,7 +764,7 @@
         <v>211882526</v>
       </c>
       <c r="D19" t="n">
-        <v>260</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20">
@@ -1564,7 +1564,7 @@
         <v>217117687</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="64">
@@ -1964,7 +1964,7 @@
         <v>217110298</v>
       </c>
       <c r="D85" t="n">
-        <v>469</v>
+        <v>741</v>
       </c>
     </row>
     <row r="86">
@@ -2170,7 +2170,7 @@
         <v>217112798</v>
       </c>
       <c r="D96" t="n">
-        <v>200</v>
+        <v>434</v>
       </c>
     </row>
     <row r="97">
@@ -2376,7 +2376,7 @@
         <v>185085851</v>
       </c>
       <c r="D107" t="n">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108">
@@ -2788,7 +2788,7 @@
         <v>198152468</v>
       </c>
       <c r="D129" t="n">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="130">
@@ -3200,7 +3200,7 @@
         <v>196148405</v>
       </c>
       <c r="D151" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="152">
